--- a/Doc/project.xlsx
+++ b/Doc/project.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\vs\WebApp\ASP.NET_Core\MwProject\Doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9624D45-9784-4294-94FE-C962E6C2C0DE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50722397-AD99-4ABE-AD0E-89635AF2721C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/Doc/project.xlsx
+++ b/Doc/project.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\vs\WebApp\ASP.NET_Core\MwProject\Doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50722397-AD99-4ABE-AD0E-89635AF2721C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BF571E3-1517-488A-888B-0AC018D1925C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="502" uniqueCount="166">
   <si>
     <t xml:space="preserve">Temat projektu </t>
   </si>
@@ -94,13 +95,442 @@
   </si>
   <si>
     <t>Załącznik nr 1 KP2-DT/01.00</t>
+  </si>
+  <si>
+    <t>Nr wniosku</t>
+  </si>
+  <si>
+    <t>Data wystawienia</t>
+  </si>
+  <si>
+    <t>Typ Wniosku</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Koszty materiałowe </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Koszt robocizny </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Koszty narzutu </t>
+  </si>
+  <si>
+    <t>Koszt opakowania</t>
+  </si>
+  <si>
+    <t>TKW</t>
+  </si>
+  <si>
+    <t>CKW</t>
+  </si>
+  <si>
+    <t>kalkulacja_kosztow</t>
+  </si>
+  <si>
+    <t>Potwierdzenia</t>
+  </si>
+  <si>
+    <t>Opracował</t>
+  </si>
+  <si>
+    <t>Opracował Data</t>
+  </si>
+  <si>
+    <t>Zatwierdził</t>
+  </si>
+  <si>
+    <t>Zatwierdził Data</t>
+  </si>
+  <si>
+    <t>Nagłówki</t>
+  </si>
+  <si>
+    <t>Wystawił</t>
+  </si>
+  <si>
+    <t>Wystawił Data</t>
+  </si>
+  <si>
+    <t>Potwierdził Finansowe</t>
+  </si>
+  <si>
+    <t>Potwierdził Finansowe Data</t>
+  </si>
+  <si>
+    <t>Potwierdził Sprzedażowe</t>
+  </si>
+  <si>
+    <t>Potwierdził Sprzedażowe Data</t>
+  </si>
+  <si>
+    <t>Przyjął</t>
+  </si>
+  <si>
+    <t>Przyjął Data</t>
+  </si>
+  <si>
+    <t>Ekonomiczne</t>
+  </si>
+  <si>
+    <t>Nowa forma (formy) do zamówienia:</t>
+  </si>
+  <si>
+    <t>Nowa prasa wulkanizacyjna:</t>
+  </si>
+  <si>
+    <t>Inne</t>
+  </si>
+  <si>
+    <t>nowa forma komentarz</t>
+  </si>
+  <si>
+    <t>nowa prasa komentarz</t>
+  </si>
+  <si>
+    <t>żądana data dostępności</t>
+  </si>
+  <si>
+    <t>komentarz</t>
+  </si>
+  <si>
+    <t>Inicjacja wniosku przez</t>
+  </si>
+  <si>
+    <t>Nazwa wyrobu</t>
+  </si>
+  <si>
+    <t>Kategoria wyrobu</t>
+  </si>
+  <si>
+    <t>Marka</t>
+  </si>
+  <si>
+    <t>Nowy wyrób</t>
+  </si>
+  <si>
+    <t>Nowy asortyment:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Przeznaczenie wyrobu </t>
+  </si>
+  <si>
+    <t>Specjalność sezonowa</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>Klient/rynek/Dział</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>Ogólne</t>
+  </si>
+  <si>
+    <t>modyfikacja linii</t>
+  </si>
+  <si>
+    <t>modyfikacja linii komentarz</t>
+  </si>
+  <si>
+    <t>O</t>
+  </si>
+  <si>
+    <t>nowa maszyna konfekcyjna</t>
+  </si>
+  <si>
+    <t>nowa maszyna konfekcyjna komentarz</t>
+  </si>
+  <si>
+    <t>nowy bęben konfekcyjny</t>
+  </si>
+  <si>
+    <t>nowy bęben konfekcyjny komentarz</t>
+  </si>
+  <si>
+    <t>nowe płyty boczne</t>
+  </si>
+  <si>
+    <t>nowe płyty boczne komentarz</t>
+  </si>
+  <si>
+    <t>nowe pierścienie stopowe</t>
+  </si>
+  <si>
+    <t>nowe pierścienie stopowe komentarz</t>
+  </si>
+  <si>
+    <t>numecic(10,2)</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>datetime</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>string (user )</t>
+  </si>
+  <si>
+    <t>int ( kategoria )</t>
+  </si>
+  <si>
+    <t>numeric(10,2)</t>
+  </si>
+  <si>
+    <t>string (słownik_kategorii )</t>
+  </si>
+  <si>
+    <t>1 rekord</t>
+  </si>
+  <si>
+    <t>Przewidywana_Sprzedaz</t>
+  </si>
+  <si>
+    <t>rok_1_szt</t>
+  </si>
+  <si>
+    <t>rok_1_kg</t>
+  </si>
+  <si>
+    <t>rok_1_cena</t>
+  </si>
+  <si>
+    <t>…</t>
+  </si>
+  <si>
+    <t>rok_5_szt</t>
+  </si>
+  <si>
+    <t>rok_5_kg</t>
+  </si>
+  <si>
+    <t>rok_5_cena</t>
+  </si>
+  <si>
+    <t>bool</t>
+  </si>
+  <si>
+    <t>Jakosciowe</t>
+  </si>
+  <si>
+    <t>Wymagane oznakowanie</t>
+  </si>
+  <si>
+    <t>Czy brać pod uwagę USA</t>
+  </si>
+  <si>
+    <t>Komentarze/Zagrożenia BHP i Środowisko:</t>
+  </si>
+  <si>
+    <t>wymagania logistyczne: pakowanie</t>
+  </si>
+  <si>
+    <t>wymagania logistyczne: przechowywanie</t>
+  </si>
+  <si>
+    <t>wymagania logistyczne: dostawa</t>
+  </si>
+  <si>
+    <t>wymagania logistyczne: transport</t>
+  </si>
+  <si>
+    <t>inne wymagania</t>
+  </si>
+  <si>
+    <t>zastępuje wyrób</t>
+  </si>
+  <si>
+    <t>lub n-rekordów</t>
+  </si>
+  <si>
+    <t>typ, opis</t>
+  </si>
+  <si>
+    <t>Wymagane certyfikaty QES</t>
+  </si>
+  <si>
+    <t>czy seria próbna</t>
+  </si>
+  <si>
+    <t>czy wymagane testy u klienta</t>
+  </si>
+  <si>
+    <t>czy wymagane zatwierdzenie klienta</t>
+  </si>
+  <si>
+    <t>testowane parametry</t>
+  </si>
+  <si>
+    <t>Koszty ogólne %</t>
+  </si>
+  <si>
+    <t>Techniczne</t>
+  </si>
+  <si>
+    <t>rodzaj_wymiary</t>
+  </si>
+  <si>
+    <t>typ_felgi</t>
+  </si>
+  <si>
+    <t>grubość_ścianek</t>
+  </si>
+  <si>
+    <t>Pozycja zaworu:</t>
+  </si>
+  <si>
+    <t>Waga</t>
+  </si>
+  <si>
+    <t>Główni konkurenci</t>
+  </si>
+  <si>
+    <t>Wyrób wzorcowy</t>
+  </si>
+  <si>
+    <t>Informacje o warunkach eksploatacji:</t>
+  </si>
+  <si>
+    <t>Parametry fizyko-mechaniczne:</t>
+  </si>
+  <si>
+    <t>Szczególne wymagania</t>
+  </si>
+  <si>
+    <t>Inne:</t>
+  </si>
+  <si>
+    <t>rozmiar_nazwa</t>
+  </si>
+  <si>
+    <t>bezdętkowa_dętkowa</t>
+  </si>
+  <si>
+    <t>rzeźba bieżnika</t>
+  </si>
+  <si>
+    <t>indeks_predkosci</t>
+  </si>
+  <si>
+    <t>indeks_nosnosci</t>
+  </si>
+  <si>
+    <t>cisnienie_uzytkowe</t>
+  </si>
+  <si>
+    <t>przelozenie</t>
+  </si>
+  <si>
+    <t>przelozenie_opona_wspolpracujaca</t>
+  </si>
+  <si>
+    <t>baza_kauczukowa</t>
+  </si>
+  <si>
+    <t>kolor</t>
+  </si>
+  <si>
+    <t>twardosc</t>
+  </si>
+  <si>
+    <t>wydluzenie</t>
+  </si>
+  <si>
+    <t>inne_okreslone_przez_klienta</t>
+  </si>
+  <si>
+    <t>postac_mieszanki_wymiary</t>
+  </si>
+  <si>
+    <t>norma_dla_mieszanki_lub_wyrobu</t>
+  </si>
+  <si>
+    <t>wymagany_atest_higieniczny</t>
+  </si>
+  <si>
+    <t>nowy_modyfikacja</t>
+  </si>
+  <si>
+    <t>Projects</t>
+  </si>
+  <si>
+    <t>Number</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>requiredDate</t>
+  </si>
+  <si>
+    <t>ProductName</t>
+  </si>
+  <si>
+    <t>Client</t>
+  </si>
+  <si>
+    <t>ProductCategory</t>
+  </si>
+  <si>
+    <t>Brand</t>
+  </si>
+  <si>
+    <t>NewProduct</t>
+  </si>
+  <si>
+    <t>NewAssortment</t>
+  </si>
+  <si>
+    <t>Confirmations</t>
+  </si>
+  <si>
+    <t>pcs1</t>
+  </si>
+  <si>
+    <t>kg1</t>
+  </si>
+  <si>
+    <t>price2</t>
+  </si>
+  <si>
+    <t>pcs5</t>
+  </si>
+  <si>
+    <t>kg5</t>
+  </si>
+  <si>
+    <t>price5</t>
+  </si>
+  <si>
+    <t>MaterialCosts</t>
+  </si>
+  <si>
+    <t>LabourCosts</t>
+  </si>
+  <si>
+    <t>PackingCosts</t>
+  </si>
+  <si>
+    <t>Markup</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -109,19 +539,156 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="2" tint="-0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="3" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="3" tint="-0.249977111117893"/>
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="238"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="3" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -136,19 +703,56 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFFFFCC"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -425,8 +1029,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:D19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -436,108 +1040,2038 @@
     <col min="4" max="4" width="63" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
+    <row r="2" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B2" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="24" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
+      <c r="D2" s="24"/>
+    </row>
+    <row r="3" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B3" s="24"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="24"/>
+    </row>
+    <row r="4" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B4" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="24" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C5" t="s">
+      <c r="D4" s="24"/>
+    </row>
+    <row r="5" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B5" s="24"/>
+      <c r="C5" s="24" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C6" t="s">
+      <c r="D5" s="24"/>
+    </row>
+    <row r="6" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B6" s="24"/>
+      <c r="C6" s="24" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
+      <c r="D6" s="24"/>
+    </row>
+    <row r="7" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B7" s="24"/>
+      <c r="C7" s="24"/>
+      <c r="D7" s="24"/>
+    </row>
+    <row r="8" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B8" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" s="25" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C9" s="1" t="s">
+      <c r="D8" s="24"/>
+    </row>
+    <row r="9" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B9" s="24"/>
+      <c r="C9" s="25" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C10" s="1" t="s">
+      <c r="D9" s="24"/>
+    </row>
+    <row r="10" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B10" s="24"/>
+      <c r="C10" s="25" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C11" s="1" t="s">
+      <c r="D10" s="24"/>
+    </row>
+    <row r="11" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B11" s="24"/>
+      <c r="C11" s="25" t="s">
         <v>3</v>
       </c>
+      <c r="D11" s="25" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B12" s="24"/>
+      <c r="C12" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" s="24" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B13" s="24"/>
+      <c r="C13" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" s="24" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B14" s="24"/>
+      <c r="C14" s="25"/>
+      <c r="D14" s="24"/>
+    </row>
+    <row r="15" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B15" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15" s="24" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B16" s="24"/>
+      <c r="C16" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="D16" s="24" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B17" s="24"/>
+      <c r="C17" s="24"/>
+      <c r="D17" s="24"/>
+    </row>
+    <row r="18" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B18" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="C18" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="D18" s="24"/>
+    </row>
+    <row r="19" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B19" s="24"/>
+      <c r="C19" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="D19" s="24"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FFF683B-83AD-4E4B-A7E3-807C5114F016}">
+  <dimension ref="C8:M119"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="L44" sqref="L44"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="29.5703125" customWidth="1"/>
+    <col min="4" max="4" width="41.140625" customWidth="1"/>
+    <col min="5" max="5" width="26.140625" customWidth="1"/>
+    <col min="7" max="7" width="2" style="23" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="2.28515625" style="23" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="2.7109375" style="23" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="2.42578125" style="23" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="30.7109375" style="34" customWidth="1"/>
+    <col min="13" max="13" width="18.7109375" style="34" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="8" spans="3:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C8" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F8" s="1"/>
+      <c r="G8" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="H8" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="I8" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="J8" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="L8" s="33" t="s">
+        <v>144</v>
+      </c>
+      <c r="M8" s="33" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="9" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C9" t="s">
+        <v>87</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="F9" s="1"/>
+      <c r="G9" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="H9" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="I9" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="J9" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="M9" s="33" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="10" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="D10" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="F10" s="1"/>
+      <c r="G10" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="H10" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="I10" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="J10" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="M10" s="33" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="11" spans="3:13" x14ac:dyDescent="0.25">
       <c r="D11" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C12" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D12" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C13" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C14" s="1"/>
-    </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
-        <v>15</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D15" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C16" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D16" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B18" t="s">
-        <v>12</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C19" s="3" t="s">
-        <v>11</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="F11" s="1"/>
+      <c r="G11" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="H11" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="I11" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="J11" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="M11" s="35" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="12" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="D12" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="F12" s="1"/>
+      <c r="G12" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="H12" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="I12" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="J12" s="16" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="15" spans="3:13" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C15" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="E15" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="F15" s="10"/>
+      <c r="G15" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="H15" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="I15" s="17"/>
+      <c r="J15" s="17" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="16" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C16" t="s">
+        <v>87</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="E16" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="F16" s="10"/>
+      <c r="G16" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="H16" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="I16" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="J16" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="M16" s="34" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="D17" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="E17" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="F17" s="10"/>
+      <c r="G17" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="H17" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="I17" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="J17" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="M17" s="34" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="18" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="D18" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="E18" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="F18" s="10"/>
+      <c r="G18" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="H18" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="I18" s="17"/>
+      <c r="J18" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="M18" s="34" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="19" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="D19" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="E19" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="F19" s="10"/>
+      <c r="G19" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="H19" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="I19" s="17"/>
+      <c r="J19" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="M19" s="34" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="D20" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="E20" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="F20" s="10"/>
+      <c r="G20" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="H20" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="I20" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="J20" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="M20" s="34" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="21" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="D21" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="E21" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="F21" s="10"/>
+      <c r="G21" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="H21" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="I21" s="17"/>
+      <c r="J21" s="17"/>
+      <c r="M21" s="34" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="D22" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="E22" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="F22" s="10"/>
+      <c r="G22" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="H22" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="I22" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="J22" s="17"/>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="D23" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="E23" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="F23" s="10"/>
+      <c r="G23" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="H23" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="I23" s="17"/>
+      <c r="J23" s="17"/>
+    </row>
+    <row r="26" spans="3:13" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C26" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E26" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="F26" s="12"/>
+      <c r="G26" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="H26" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="I26" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="J26" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="L26" s="35" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="27" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C27" t="s">
+        <v>87</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E27" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="F27" s="12"/>
+      <c r="G27" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="H27" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="I27" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="J27" s="18" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="28" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="D28" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="E28" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="F28" s="12"/>
+      <c r="G28" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="H28" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="I28" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="J28" s="18" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="D29" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="E29" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="F29" s="12"/>
+      <c r="G29" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="H29" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="I29" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="J29" s="18" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="D30" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E30" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="F30" s="12"/>
+      <c r="G30" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="H30" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="I30" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="J30" s="18" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="D31" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E31" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="F31" s="12"/>
+      <c r="G31" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="H31" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="I31" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="J31" s="18" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="D32" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="E32" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="F32" s="12"/>
+      <c r="G32" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="H32" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="I32" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="J32" s="18" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="33" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="D33" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="E33" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="F33" s="12"/>
+      <c r="G33" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="H33" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="I33" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="J33" s="18" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="34" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="D34" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="E34" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="F34" s="12"/>
+      <c r="G34" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="H34" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="I34" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="J34" s="18" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="35" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="D35" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="E35" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="F35" s="12"/>
+      <c r="G35" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="H35" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="I35" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="J35" s="18" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="36" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="D36" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="E36" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="F36" s="12"/>
+      <c r="G36" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="H36" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="I36" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="J36" s="18" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="37" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="D37" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="E37" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="F37" s="12"/>
+      <c r="G37" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="H37" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="I37" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="J37" s="18" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="40" spans="3:13" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C40" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="F40" s="3"/>
+      <c r="G40" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="H40" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="I40" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="J40" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="M40" s="34" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="41" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C41" t="s">
+        <v>87</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="F41" s="3"/>
+      <c r="G41" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="H41" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="I41" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="J41" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="M41" s="34" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="42" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="D42" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="F42" s="3"/>
+      <c r="G42" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="H42" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="I42" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="J42" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="M42" s="34" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="43" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="D43" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="F43" s="3"/>
+      <c r="G43" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="H43" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="I43" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="J43" s="19" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="44" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="D44" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="F44" s="3"/>
+      <c r="G44" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="H44" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="I44" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="J44" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="M44" s="34" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="45" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="D45" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="F45" s="3"/>
+      <c r="G45" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="H45" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="I45" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="J45" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="M45" s="34" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="46" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="D46" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="F46" s="3"/>
+      <c r="G46" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="H46" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="I46" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="J46" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="M46" s="34" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="49" spans="3:13" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C49" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D49" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E49" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="F49" s="5"/>
+      <c r="G49" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="H49" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="I49" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="J49" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="M49" s="34" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C50" t="s">
+        <v>87</v>
+      </c>
+      <c r="D50" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E50" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="F50" s="5"/>
+      <c r="G50" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="H50" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="I50" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="J50" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="M50" s="34" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="D51" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E51" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="F51" s="5"/>
+      <c r="G51" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="H51" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="I51" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="J51" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="M51" s="34" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="D52" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E52" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="F52" s="5"/>
+      <c r="G52" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="H52" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="I52" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="J52" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="M52" s="34" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="53" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="D53" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E53" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="F53" s="5"/>
+      <c r="G53" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="H53" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="I53" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="J53" s="20" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="D54" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="E54" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="F54" s="5"/>
+      <c r="G54" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="H54" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="I54" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="J54" s="20" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="55" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="D55" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E55" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="F55" s="5"/>
+      <c r="G55" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="H55" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="I55" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="J55" s="20" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="D56" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="E56" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="F56" s="5"/>
+      <c r="G56" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="H56" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="I56" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="J56" s="20" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="59" spans="3:13" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C59" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="F59" s="2"/>
+      <c r="G59" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="H59" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="I59" s="21"/>
+      <c r="J59" s="21" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="60" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C60" t="s">
+        <v>87</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="F60" s="2"/>
+      <c r="G60" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="H60" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="I60" s="21"/>
+      <c r="J60" s="21" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="61" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="D61" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E61" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="F61" s="2"/>
+      <c r="G61" s="21"/>
+      <c r="H61" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="I61" s="21"/>
+      <c r="J61" s="21" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="62" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C62" t="s">
+        <v>107</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E62" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="F62" s="2"/>
+      <c r="G62" s="21"/>
+      <c r="H62" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="I62" s="21"/>
+      <c r="J62" s="21" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C63" t="s">
+        <v>108</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E63" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="F63" s="2"/>
+      <c r="G63" s="21"/>
+      <c r="H63" s="21"/>
+      <c r="I63" s="21"/>
+      <c r="J63" s="21" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="D64" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E64" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="F64" s="2"/>
+      <c r="G64" s="21"/>
+      <c r="H64" s="21"/>
+      <c r="I64" s="21"/>
+      <c r="J64" s="21" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="65" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="D65" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E65" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="F65" s="2"/>
+      <c r="G65" s="21"/>
+      <c r="H65" s="21"/>
+      <c r="I65" s="21"/>
+      <c r="J65" s="21" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="66" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="D66" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E66" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="F66" s="2"/>
+      <c r="G66" s="21"/>
+      <c r="H66" s="21"/>
+      <c r="I66" s="21"/>
+      <c r="J66" s="21" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="67" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="D67" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E67" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="F67" s="2"/>
+      <c r="G67" s="21"/>
+      <c r="H67" s="21"/>
+      <c r="I67" s="21"/>
+      <c r="J67" s="21" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="68" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="D68" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E68" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="F68" s="2"/>
+      <c r="G68" s="21"/>
+      <c r="H68" s="21"/>
+      <c r="I68" s="21"/>
+      <c r="J68" s="21" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="69" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="D69" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E69" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="F69" s="2"/>
+      <c r="G69" s="21"/>
+      <c r="H69" s="21"/>
+      <c r="I69" s="21"/>
+      <c r="J69" s="21" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="70" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="D70" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E70" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="F70" s="2"/>
+      <c r="G70" s="21"/>
+      <c r="H70" s="21"/>
+      <c r="I70" s="21"/>
+      <c r="J70" s="21" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="71" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="D71" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E71" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="F71" s="2"/>
+      <c r="G71" s="21"/>
+      <c r="H71" s="21"/>
+      <c r="I71" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="J71" s="21"/>
+    </row>
+    <row r="72" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="D72" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E72" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="F72" s="2"/>
+      <c r="G72" s="21"/>
+      <c r="H72" s="21"/>
+      <c r="I72" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="J72" s="21"/>
+    </row>
+    <row r="73" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="D73" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E73" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="F73" s="2"/>
+      <c r="G73" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="H73" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="I73" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="J73" s="21"/>
+    </row>
+    <row r="76" spans="3:10" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C76" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="D76" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="E76" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="F76" s="15"/>
+      <c r="G76" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="H76" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="I76" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="J76" s="22" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="77" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C77" t="s">
+        <v>87</v>
+      </c>
+      <c r="D77" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="E77" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="F77" s="15"/>
+      <c r="G77" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="H77" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="I77" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="J77" s="22" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="78" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="D78" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="E78" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="F78" s="15"/>
+      <c r="G78" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="H78" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="I78" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="J78" s="22"/>
+    </row>
+    <row r="79" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="D79" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="E79" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="F79" s="15"/>
+      <c r="G79" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="H79" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="I79" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="J79" s="22"/>
+    </row>
+    <row r="80" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="D80" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="E80" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="F80" s="15"/>
+      <c r="G80" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="H80" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="I80" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="J80" s="22"/>
+    </row>
+    <row r="81" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="D81" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="E81" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="F81" s="15"/>
+      <c r="G81" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="H81" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="I81" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="J81" s="22"/>
+    </row>
+    <row r="82" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="D82" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="E82" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="F82" s="15"/>
+      <c r="G82" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="H82" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="I82" s="22"/>
+      <c r="J82" s="22"/>
+    </row>
+    <row r="83" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="D83" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="E83" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="F83" s="15"/>
+      <c r="G83" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="H83" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="I83" s="22"/>
+      <c r="J83" s="22"/>
+    </row>
+    <row r="84" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="D84" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="E84" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="F84" s="15"/>
+      <c r="G84" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="H84" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="I84" s="22"/>
+      <c r="J84" s="22"/>
+    </row>
+    <row r="85" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="D85" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="E85" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="F85" s="15"/>
+      <c r="G85" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="H85" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="I85" s="22"/>
+      <c r="J85" s="22"/>
+    </row>
+    <row r="86" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="D86" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="E86" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="F86" s="15"/>
+      <c r="G86" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="H86" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="I86" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="J86" s="22" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="87" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="D87" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="E87" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="F87" s="15"/>
+      <c r="G87" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="H87" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="I87" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="J87" s="22" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="88" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="D88" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="E88" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="F88" s="15"/>
+      <c r="G88" s="22"/>
+      <c r="H88" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="I88" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="J88" s="22" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="89" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="D89" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="E89" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="F89" s="15"/>
+      <c r="G89" s="22"/>
+      <c r="H89" s="22"/>
+      <c r="I89" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="J89" s="22" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="93" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C93" s="28" t="s">
+        <v>115</v>
+      </c>
+      <c r="D93" s="29" t="s">
+        <v>116</v>
+      </c>
+      <c r="E93" s="30"/>
+      <c r="F93" s="30"/>
+      <c r="G93" s="31" t="s">
+        <v>63</v>
+      </c>
+      <c r="H93" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="I93" s="31"/>
+      <c r="J93" s="31"/>
+    </row>
+    <row r="94" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="D94" s="29" t="s">
+        <v>117</v>
+      </c>
+      <c r="E94" s="30"/>
+      <c r="F94" s="30"/>
+      <c r="G94" s="31"/>
+      <c r="H94" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="I94" s="31"/>
+      <c r="J94" s="31" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="95" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="D95" s="29" t="s">
+        <v>118</v>
+      </c>
+      <c r="E95" s="30"/>
+      <c r="F95" s="30"/>
+      <c r="G95" s="31"/>
+      <c r="H95" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="I95" s="31"/>
+      <c r="J95" s="31"/>
+    </row>
+    <row r="96" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="D96" s="32" t="s">
+        <v>119</v>
+      </c>
+      <c r="E96" s="30"/>
+      <c r="F96" s="30"/>
+      <c r="G96" s="31"/>
+      <c r="H96" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="I96" s="31"/>
+      <c r="J96" s="31"/>
+    </row>
+    <row r="97" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D97" s="32" t="s">
+        <v>120</v>
+      </c>
+      <c r="E97" s="30"/>
+      <c r="F97" s="30"/>
+      <c r="G97" s="31" t="s">
+        <v>63</v>
+      </c>
+      <c r="H97" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="I97" s="31"/>
+      <c r="J97" s="31"/>
+    </row>
+    <row r="98" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D98" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="E98" s="30"/>
+      <c r="F98" s="30"/>
+      <c r="G98" s="31" t="s">
+        <v>63</v>
+      </c>
+      <c r="H98" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="I98" s="31"/>
+      <c r="J98" s="31" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="99" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D99" s="29" t="s">
+        <v>122</v>
+      </c>
+      <c r="E99" s="30"/>
+      <c r="F99" s="30"/>
+      <c r="G99" s="31"/>
+      <c r="H99" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="I99" s="31"/>
+      <c r="J99" s="31" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="100" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D100" s="30" t="s">
+        <v>123</v>
+      </c>
+      <c r="E100" s="30"/>
+      <c r="F100" s="30"/>
+      <c r="G100" s="31" t="s">
+        <v>63</v>
+      </c>
+      <c r="H100" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="I100" s="31"/>
+      <c r="J100" s="31" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="101" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D101" s="30" t="s">
+        <v>124</v>
+      </c>
+      <c r="E101" s="30"/>
+      <c r="F101" s="30"/>
+      <c r="G101" s="31" t="s">
+        <v>63</v>
+      </c>
+      <c r="H101" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="I101" s="31"/>
+      <c r="J101" s="31"/>
+    </row>
+    <row r="102" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D102" s="30" t="s">
+        <v>125</v>
+      </c>
+      <c r="E102" s="30"/>
+      <c r="F102" s="30"/>
+      <c r="G102" s="31" t="s">
+        <v>63</v>
+      </c>
+      <c r="H102" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="I102" s="31" t="s">
+        <v>66</v>
+      </c>
+      <c r="J102" s="31" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="103" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D103" s="30" t="s">
+        <v>126</v>
+      </c>
+      <c r="E103" s="30"/>
+      <c r="F103" s="30"/>
+      <c r="G103" s="31" t="s">
+        <v>63</v>
+      </c>
+      <c r="H103" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="I103" s="31" t="s">
+        <v>66</v>
+      </c>
+      <c r="J103" s="31" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="104" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D104" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="E104" s="30"/>
+      <c r="F104" s="30"/>
+      <c r="G104" s="31"/>
+      <c r="H104" s="31"/>
+      <c r="I104" s="31"/>
+      <c r="J104" s="31" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="105" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D105" s="30" t="s">
+        <v>128</v>
+      </c>
+      <c r="E105" s="30"/>
+      <c r="F105" s="30"/>
+      <c r="G105" s="31"/>
+      <c r="H105" s="31"/>
+      <c r="I105" s="31"/>
+      <c r="J105" s="31" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="106" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D106" s="30" t="s">
+        <v>129</v>
+      </c>
+      <c r="E106" s="30"/>
+      <c r="F106" s="30"/>
+      <c r="G106" s="31"/>
+      <c r="H106" s="31"/>
+      <c r="I106" s="31"/>
+      <c r="J106" s="31" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="107" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D107" s="30" t="s">
+        <v>130</v>
+      </c>
+      <c r="E107" s="30"/>
+      <c r="F107" s="30"/>
+      <c r="G107" s="31"/>
+      <c r="H107" s="31"/>
+      <c r="I107" s="31"/>
+      <c r="J107" s="31" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="108" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D108" s="30" t="s">
+        <v>131</v>
+      </c>
+      <c r="E108" s="30"/>
+      <c r="F108" s="30"/>
+      <c r="G108" s="31"/>
+      <c r="H108" s="31"/>
+      <c r="I108" s="31"/>
+      <c r="J108" s="31" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="109" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D109" s="30" t="s">
+        <v>132</v>
+      </c>
+      <c r="E109" s="30"/>
+      <c r="F109" s="30"/>
+      <c r="G109" s="31"/>
+      <c r="H109" s="31"/>
+      <c r="I109" s="31"/>
+      <c r="J109" s="31" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="110" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D110" s="30" t="s">
+        <v>133</v>
+      </c>
+      <c r="E110" s="30" t="s">
+        <v>96</v>
+      </c>
+      <c r="F110" s="30"/>
+      <c r="G110" s="31"/>
+      <c r="H110" s="31"/>
+      <c r="I110" s="31"/>
+      <c r="J110" s="31" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="111" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D111" s="30" t="s">
+        <v>134</v>
+      </c>
+      <c r="E111" s="30" t="s">
+        <v>80</v>
+      </c>
+      <c r="F111" s="30"/>
+      <c r="G111" s="31"/>
+      <c r="H111" s="31"/>
+      <c r="I111" s="31"/>
+      <c r="J111" s="31" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="112" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D112" s="30" t="s">
+        <v>135</v>
+      </c>
+      <c r="E112" s="30" t="s">
+        <v>80</v>
+      </c>
+      <c r="F112" s="30"/>
+      <c r="G112" s="31"/>
+      <c r="H112" s="31"/>
+      <c r="I112" s="31" t="s">
+        <v>66</v>
+      </c>
+      <c r="J112" s="31"/>
+    </row>
+    <row r="113" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D113" s="30" t="s">
+        <v>136</v>
+      </c>
+      <c r="E113" s="30" t="s">
+        <v>80</v>
+      </c>
+      <c r="F113" s="30"/>
+      <c r="G113" s="31"/>
+      <c r="H113" s="31"/>
+      <c r="I113" s="31" t="s">
+        <v>66</v>
+      </c>
+      <c r="J113" s="31"/>
+    </row>
+    <row r="114" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D114" s="30" t="s">
+        <v>137</v>
+      </c>
+      <c r="E114" s="30" t="s">
+        <v>80</v>
+      </c>
+      <c r="F114" s="30"/>
+      <c r="G114" s="31"/>
+      <c r="H114" s="31"/>
+      <c r="I114" s="31" t="s">
+        <v>66</v>
+      </c>
+      <c r="J114" s="31"/>
+    </row>
+    <row r="115" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D115" s="30" t="s">
+        <v>138</v>
+      </c>
+      <c r="E115" s="30" t="s">
+        <v>80</v>
+      </c>
+      <c r="F115" s="30"/>
+      <c r="G115" s="31"/>
+      <c r="H115" s="31"/>
+      <c r="I115" s="31" t="s">
+        <v>66</v>
+      </c>
+      <c r="J115" s="31"/>
+    </row>
+    <row r="116" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D116" s="30" t="s">
+        <v>139</v>
+      </c>
+      <c r="E116" s="30" t="s">
+        <v>80</v>
+      </c>
+      <c r="F116" s="30"/>
+      <c r="G116" s="31"/>
+      <c r="H116" s="31"/>
+      <c r="I116" s="31" t="s">
+        <v>66</v>
+      </c>
+      <c r="J116" s="31"/>
+    </row>
+    <row r="117" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D117" s="30" t="s">
+        <v>140</v>
+      </c>
+      <c r="E117" s="30" t="s">
+        <v>80</v>
+      </c>
+      <c r="F117" s="30"/>
+      <c r="G117" s="31"/>
+      <c r="H117" s="31"/>
+      <c r="I117" s="31" t="s">
+        <v>66</v>
+      </c>
+      <c r="J117" s="31"/>
+    </row>
+    <row r="118" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D118" s="30" t="s">
+        <v>141</v>
+      </c>
+      <c r="E118" s="30" t="s">
+        <v>80</v>
+      </c>
+      <c r="F118" s="30"/>
+      <c r="G118" s="31"/>
+      <c r="H118" s="31"/>
+      <c r="I118" s="31" t="s">
+        <v>66</v>
+      </c>
+      <c r="J118" s="31"/>
+    </row>
+    <row r="119" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D119" s="30" t="s">
+        <v>142</v>
+      </c>
+      <c r="E119" s="30" t="s">
+        <v>96</v>
+      </c>
+      <c r="F119" s="30"/>
+      <c r="G119" s="31"/>
+      <c r="H119" s="31"/>
+      <c r="I119" s="31" t="s">
+        <v>66</v>
+      </c>
+      <c r="J119" s="31"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Doc/project.xlsx
+++ b/Doc/project.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\vs\WebApp\ASP.NET_Core\MwProject\Doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BF571E3-1517-488A-888B-0AC018D1925C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B08DAB86-0D3B-429A-B1D0-9D3EC85E5661}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="502" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="503" uniqueCount="166">
   <si>
     <t xml:space="preserve">Temat projektu </t>
   </si>
@@ -187,9 +187,6 @@
     <t>nowa prasa komentarz</t>
   </si>
   <si>
-    <t>żądana data dostępności</t>
-  </si>
-  <si>
     <t>komentarz</t>
   </si>
   <si>
@@ -463,18 +460,6 @@
     <t>Projects</t>
   </si>
   <si>
-    <t>Number</t>
-  </si>
-  <si>
-    <t>Date</t>
-  </si>
-  <si>
-    <t>Type</t>
-  </si>
-  <si>
-    <t>requiredDate</t>
-  </si>
-  <si>
     <t>ProductName</t>
   </si>
   <si>
@@ -524,6 +509,21 @@
   </si>
   <si>
     <t>Markup</t>
+  </si>
+  <si>
+    <t>createdDate</t>
+  </si>
+  <si>
+    <t>number</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>term</t>
+  </si>
+  <si>
+    <t>termin wykonania</t>
   </si>
 </sst>
 </file>
@@ -1186,10 +1186,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FFF683B-83AD-4E4B-A7E3-807C5114F016}">
-  <dimension ref="C8:M119"/>
+  <dimension ref="C8:M120"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="L44" sqref="L44"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1213,53 +1213,53 @@
         <v>25</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F8" s="1"/>
       <c r="G8" s="16" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H8" s="16" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I8" s="16" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J8" s="16" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="L8" s="33" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="M8" s="33" t="s">
-        <v>147</v>
+        <v>163</v>
       </c>
     </row>
     <row r="9" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>23</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F9" s="1"/>
       <c r="G9" s="16" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H9" s="16" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I9" s="16" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J9" s="16" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="M9" s="33" t="s">
-        <v>145</v>
+        <v>162</v>
       </c>
     </row>
     <row r="10" spans="3:13" x14ac:dyDescent="0.25">
@@ -1267,1309 +1267,1303 @@
         <v>24</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F10" s="1"/>
       <c r="G10" s="16" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H10" s="16" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I10" s="16" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J10" s="16" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="M10" s="33" t="s">
-        <v>146</v>
+        <v>161</v>
       </c>
     </row>
     <row r="11" spans="3:13" x14ac:dyDescent="0.25">
       <c r="D11" s="1" t="s">
-        <v>53</v>
+        <v>165</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F11" s="1"/>
       <c r="G11" s="16" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H11" s="16" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I11" s="16" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J11" s="16" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="M11" s="35" t="s">
-        <v>148</v>
+        <v>164</v>
       </c>
     </row>
     <row r="12" spans="3:13" x14ac:dyDescent="0.25">
       <c r="D12" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F12" s="1"/>
       <c r="G12" s="16" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H12" s="16" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I12" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="J12" s="16" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="13" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="D13" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="16"/>
+      <c r="H13" s="16"/>
+      <c r="I13" s="16"/>
+      <c r="J13" s="16"/>
+    </row>
+    <row r="16" spans="3:13" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C16" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="J12" s="16" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="15" spans="3:13" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C15" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="D15" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="E15" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="F15" s="10"/>
-      <c r="G15" s="17" t="s">
-        <v>63</v>
-      </c>
-      <c r="H15" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="I15" s="17"/>
-      <c r="J15" s="17" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="16" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C16" t="s">
-        <v>87</v>
-      </c>
       <c r="D16" s="10" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="E16" s="10" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="F16" s="10"/>
       <c r="G16" s="17" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H16" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="I16" s="17"/>
+      <c r="J16" s="17" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C17" t="s">
+        <v>86</v>
+      </c>
+      <c r="D17" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="I16" s="17" t="s">
-        <v>66</v>
-      </c>
-      <c r="J16" s="17" t="s">
-        <v>70</v>
-      </c>
-      <c r="M16" s="34" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="D17" s="10" t="s">
-        <v>56</v>
-      </c>
       <c r="E17" s="10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F17" s="10"/>
       <c r="G17" s="17" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H17" s="17" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I17" s="17" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J17" s="17" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="M17" s="34" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
     </row>
     <row r="18" spans="3:13" x14ac:dyDescent="0.25">
       <c r="D18" s="10" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E18" s="10" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="F18" s="10"/>
       <c r="G18" s="17" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H18" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="I18" s="17"/>
+        <v>63</v>
+      </c>
+      <c r="I18" s="17" t="s">
+        <v>65</v>
+      </c>
       <c r="J18" s="17" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="M18" s="34" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
     </row>
     <row r="19" spans="3:13" x14ac:dyDescent="0.25">
       <c r="D19" s="10" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E19" s="10" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="F19" s="10"/>
       <c r="G19" s="17" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H19" s="17" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I19" s="17"/>
       <c r="J19" s="17" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="M19" s="34" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
     </row>
     <row r="20" spans="3:13" x14ac:dyDescent="0.25">
       <c r="D20" s="10" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E20" s="10" t="s">
-        <v>96</v>
+        <v>79</v>
       </c>
       <c r="F20" s="10"/>
       <c r="G20" s="17" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H20" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="I20" s="17" t="s">
-        <v>66</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="I20" s="17"/>
       <c r="J20" s="17" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="M20" s="34" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
     </row>
     <row r="21" spans="3:13" x14ac:dyDescent="0.25">
       <c r="D21" s="10" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E21" s="10" t="s">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="F21" s="10"/>
       <c r="G21" s="17" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H21" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="I21" s="17"/>
-      <c r="J21" s="17"/>
+        <v>63</v>
+      </c>
+      <c r="I21" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="J21" s="17" t="s">
+        <v>69</v>
+      </c>
       <c r="M21" s="34" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
     </row>
     <row r="22" spans="3:13" x14ac:dyDescent="0.25">
       <c r="D22" s="10" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E22" s="10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F22" s="10"/>
       <c r="G22" s="17" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H22" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="I22" s="17" t="s">
-        <v>66</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="I22" s="17"/>
       <c r="J22" s="17"/>
+      <c r="M22" s="34" t="s">
+        <v>149</v>
+      </c>
     </row>
     <row r="23" spans="3:13" x14ac:dyDescent="0.25">
       <c r="D23" s="10" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E23" s="10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F23" s="10"/>
       <c r="G23" s="17" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H23" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="I23" s="17"/>
+        <v>63</v>
+      </c>
+      <c r="I23" s="17" t="s">
+        <v>65</v>
+      </c>
       <c r="J23" s="17"/>
     </row>
-    <row r="26" spans="3:13" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C26" s="11" t="s">
+    <row r="24" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="D24" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="E24" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="F24" s="10"/>
+      <c r="G24" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="H24" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="I24" s="17"/>
+      <c r="J24" s="17"/>
+    </row>
+    <row r="27" spans="3:13" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C27" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="D26" s="1" t="s">
+      <c r="D27" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="E26" s="12" t="s">
-        <v>83</v>
-      </c>
-      <c r="F26" s="12"/>
-      <c r="G26" s="18" t="s">
-        <v>63</v>
-      </c>
-      <c r="H26" s="18" t="s">
-        <v>64</v>
-      </c>
-      <c r="I26" s="18" t="s">
-        <v>66</v>
-      </c>
-      <c r="J26" s="18" t="s">
-        <v>70</v>
-      </c>
-      <c r="L26" s="35" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C27" t="s">
-        <v>87</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>40</v>
-      </c>
       <c r="E27" s="12" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F27" s="12"/>
       <c r="G27" s="18" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H27" s="18" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I27" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J27" s="18" t="s">
-        <v>70</v>
+        <v>69</v>
+      </c>
+      <c r="L27" s="35" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="28" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="D28" s="12" t="s">
-        <v>45</v>
+      <c r="C28" t="s">
+        <v>86</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="E28" s="12" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="F28" s="12"/>
       <c r="G28" s="18" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H28" s="18" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I28" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J28" s="18" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="29" spans="3:13" x14ac:dyDescent="0.25">
       <c r="D29" s="12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E29" s="12" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F29" s="12"/>
       <c r="G29" s="18" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H29" s="18" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I29" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J29" s="18" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="30" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="D30" s="3" t="s">
-        <v>43</v>
+      <c r="D30" s="12" t="s">
+        <v>46</v>
       </c>
       <c r="E30" s="12" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="F30" s="12"/>
       <c r="G30" s="18" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H30" s="18" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I30" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J30" s="18" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="31" spans="3:13" x14ac:dyDescent="0.25">
       <c r="D31" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E31" s="12" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F31" s="12"/>
       <c r="G31" s="18" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H31" s="18" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I31" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J31" s="18" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="32" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="D32" s="13" t="s">
-        <v>41</v>
+      <c r="D32" s="3" t="s">
+        <v>44</v>
       </c>
       <c r="E32" s="12" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="F32" s="12"/>
       <c r="G32" s="18" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H32" s="18" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I32" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J32" s="18" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="33" spans="3:13" x14ac:dyDescent="0.25">
       <c r="D33" s="13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E33" s="12" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F33" s="12"/>
       <c r="G33" s="18" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H33" s="18" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I33" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J33" s="18" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="34" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="D34" s="12" t="s">
-        <v>34</v>
+      <c r="D34" s="13" t="s">
+        <v>42</v>
       </c>
       <c r="E34" s="12" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="F34" s="12"/>
       <c r="G34" s="18" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H34" s="18" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I34" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J34" s="18" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="35" spans="3:13" x14ac:dyDescent="0.25">
       <c r="D35" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E35" s="12" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F35" s="12"/>
       <c r="G35" s="18" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H35" s="18" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I35" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J35" s="18" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="36" spans="3:13" x14ac:dyDescent="0.25">
       <c r="D36" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E36" s="12" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="F36" s="12"/>
       <c r="G36" s="18" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H36" s="18" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I36" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J36" s="18" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="37" spans="3:13" x14ac:dyDescent="0.25">
       <c r="D37" s="12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E37" s="12" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F37" s="12"/>
       <c r="G37" s="18" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H37" s="18" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I37" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J37" s="18" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="40" spans="3:13" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C40" s="4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="38" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="D38" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="E38" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="F38" s="12"/>
+      <c r="G38" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="H38" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="I38" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="J38" s="18" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="41" spans="3:13" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C41" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="D41" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="D40" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="E40" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="F40" s="3"/>
-      <c r="G40" s="19" t="s">
-        <v>63</v>
-      </c>
-      <c r="H40" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="I40" s="19" t="s">
-        <v>66</v>
-      </c>
-      <c r="J40" s="19" t="s">
-        <v>70</v>
-      </c>
-      <c r="M40" s="34" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="41" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C41" t="s">
-        <v>87</v>
-      </c>
-      <c r="D41" s="3" t="s">
-        <v>90</v>
-      </c>
       <c r="E41" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F41" s="3"/>
       <c r="G41" s="19" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H41" s="19" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I41" s="19" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J41" s="19" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="M41" s="34" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
     </row>
     <row r="42" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C42" t="s">
+        <v>86</v>
+      </c>
       <c r="D42" s="3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F42" s="3"/>
       <c r="G42" s="19" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H42" s="19" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I42" s="19" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J42" s="19" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="M42" s="34" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
     </row>
     <row r="43" spans="3:13" x14ac:dyDescent="0.25">
       <c r="D43" s="3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="F43" s="3"/>
       <c r="G43" s="19" t="s">
-        <v>92</v>
+        <v>62</v>
       </c>
       <c r="H43" s="19" t="s">
-        <v>92</v>
+        <v>63</v>
       </c>
       <c r="I43" s="19" t="s">
-        <v>92</v>
+        <v>65</v>
       </c>
       <c r="J43" s="19" t="s">
-        <v>92</v>
+        <v>69</v>
+      </c>
+      <c r="M43" s="34" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="44" spans="3:13" x14ac:dyDescent="0.25">
       <c r="D44" s="3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="F44" s="3"/>
       <c r="G44" s="19" t="s">
-        <v>63</v>
+        <v>91</v>
       </c>
       <c r="H44" s="19" t="s">
-        <v>64</v>
+        <v>91</v>
       </c>
       <c r="I44" s="19" t="s">
-        <v>66</v>
+        <v>91</v>
       </c>
       <c r="J44" s="19" t="s">
-        <v>70</v>
-      </c>
-      <c r="M44" s="34" t="s">
-        <v>159</v>
+        <v>91</v>
       </c>
     </row>
     <row r="45" spans="3:13" x14ac:dyDescent="0.25">
       <c r="D45" s="3" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F45" s="3"/>
       <c r="G45" s="19" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H45" s="19" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I45" s="19" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J45" s="19" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="M45" s="34" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
     </row>
     <row r="46" spans="3:13" x14ac:dyDescent="0.25">
       <c r="D46" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F46" s="3"/>
       <c r="G46" s="19" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H46" s="19" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I46" s="19" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J46" s="19" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="M46" s="34" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="49" spans="3:13" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C49" s="7" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="47" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="D47" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="F47" s="3"/>
+      <c r="G47" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="H47" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="I47" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="J47" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="M47" s="34" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="50" spans="3:13" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C50" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D49" s="5" t="s">
+      <c r="D50" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="E49" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="F49" s="5"/>
-      <c r="G49" s="20" t="s">
-        <v>63</v>
-      </c>
-      <c r="H49" s="20" t="s">
-        <v>64</v>
-      </c>
-      <c r="I49" s="20" t="s">
-        <v>66</v>
-      </c>
-      <c r="J49" s="20" t="s">
-        <v>70</v>
-      </c>
-      <c r="M49" s="34" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C50" t="s">
-        <v>87</v>
-      </c>
-      <c r="D50" s="5" t="s">
-        <v>27</v>
-      </c>
       <c r="E50" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F50" s="5"/>
       <c r="G50" s="20" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H50" s="20" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I50" s="20" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J50" s="20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="M50" s="34" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
     </row>
     <row r="51" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C51" t="s">
+        <v>86</v>
+      </c>
       <c r="D51" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E51" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F51" s="5"/>
       <c r="G51" s="20" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H51" s="20" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I51" s="20" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J51" s="20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="M51" s="34" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
     </row>
     <row r="52" spans="3:13" x14ac:dyDescent="0.25">
       <c r="D52" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E52" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F52" s="5"/>
       <c r="G52" s="20" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H52" s="20" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I52" s="20" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J52" s="20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="M52" s="34" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
     </row>
     <row r="53" spans="3:13" x14ac:dyDescent="0.25">
       <c r="D53" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E53" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F53" s="5"/>
       <c r="G53" s="20" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H53" s="20" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I53" s="20" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J53" s="20" t="s">
-        <v>70</v>
+        <v>69</v>
+      </c>
+      <c r="M53" s="34" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="54" spans="3:13" x14ac:dyDescent="0.25">
       <c r="D54" s="5" t="s">
-        <v>114</v>
+        <v>30</v>
       </c>
       <c r="E54" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F54" s="5"/>
       <c r="G54" s="20" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H54" s="20" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I54" s="20" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J54" s="20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="55" spans="3:13" x14ac:dyDescent="0.25">
       <c r="D55" s="5" t="s">
-        <v>31</v>
+        <v>113</v>
       </c>
       <c r="E55" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F55" s="5"/>
       <c r="G55" s="20" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H55" s="20" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I55" s="20" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J55" s="20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="56" spans="3:13" x14ac:dyDescent="0.25">
       <c r="D56" s="5" t="s">
-        <v>54</v>
+        <v>31</v>
       </c>
       <c r="E56" s="5" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="F56" s="5"/>
       <c r="G56" s="20" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H56" s="20" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I56" s="20" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J56" s="20" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="59" spans="3:13" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C59" s="6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="D57" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="E57" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="F57" s="5"/>
+      <c r="G57" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="H57" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="I57" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="J57" s="20" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="60" spans="3:13" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C60" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="D59" s="2" t="s">
+      <c r="D60" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="E59" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="F59" s="2"/>
-      <c r="G59" s="21" t="s">
-        <v>63</v>
-      </c>
-      <c r="H59" s="21" t="s">
-        <v>64</v>
-      </c>
-      <c r="I59" s="21"/>
-      <c r="J59" s="21" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C60" t="s">
-        <v>87</v>
-      </c>
-      <c r="D60" s="2" t="s">
-        <v>51</v>
-      </c>
       <c r="E60" s="2" t="s">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="F60" s="2"/>
       <c r="G60" s="21" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H60" s="21" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I60" s="21"/>
       <c r="J60" s="21" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="61" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C61" t="s">
+        <v>86</v>
+      </c>
       <c r="D61" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>96</v>
+        <v>79</v>
       </c>
       <c r="F61" s="2"/>
-      <c r="G61" s="21"/>
+      <c r="G61" s="21" t="s">
+        <v>62</v>
+      </c>
       <c r="H61" s="21" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I61" s="21"/>
       <c r="J61" s="21" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="62" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C62" t="s">
-        <v>107</v>
-      </c>
       <c r="D62" s="2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="F62" s="2"/>
       <c r="G62" s="21"/>
       <c r="H62" s="21" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I62" s="21"/>
       <c r="J62" s="21" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="63" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C63" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>71</v>
+        <v>52</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>96</v>
+        <v>79</v>
       </c>
       <c r="F63" s="2"/>
       <c r="G63" s="21"/>
-      <c r="H63" s="21"/>
+      <c r="H63" s="21" t="s">
+        <v>63</v>
+      </c>
       <c r="I63" s="21"/>
       <c r="J63" s="21" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C64" t="s">
+        <v>107</v>
+      </c>
+      <c r="D64" s="2" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="D64" s="2" t="s">
-        <v>72</v>
-      </c>
       <c r="E64" s="2" t="s">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="F64" s="2"/>
       <c r="G64" s="21"/>
       <c r="H64" s="21"/>
       <c r="I64" s="21"/>
       <c r="J64" s="21" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="65" spans="3:10" x14ac:dyDescent="0.25">
       <c r="D65" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>96</v>
+        <v>79</v>
       </c>
       <c r="F65" s="2"/>
       <c r="G65" s="21"/>
       <c r="H65" s="21"/>
       <c r="I65" s="21"/>
       <c r="J65" s="21" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="66" spans="3:10" x14ac:dyDescent="0.25">
       <c r="D66" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="F66" s="2"/>
       <c r="G66" s="21"/>
       <c r="H66" s="21"/>
       <c r="I66" s="21"/>
       <c r="J66" s="21" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="67" spans="3:10" x14ac:dyDescent="0.25">
       <c r="D67" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>96</v>
+        <v>79</v>
       </c>
       <c r="F67" s="2"/>
       <c r="G67" s="21"/>
       <c r="H67" s="21"/>
       <c r="I67" s="21"/>
       <c r="J67" s="21" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="68" spans="3:10" x14ac:dyDescent="0.25">
       <c r="D68" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="F68" s="2"/>
       <c r="G68" s="21"/>
       <c r="H68" s="21"/>
       <c r="I68" s="21"/>
       <c r="J68" s="21" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="69" spans="3:10" x14ac:dyDescent="0.25">
       <c r="D69" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>96</v>
+        <v>79</v>
       </c>
       <c r="F69" s="2"/>
       <c r="G69" s="21"/>
       <c r="H69" s="21"/>
       <c r="I69" s="21"/>
       <c r="J69" s="21" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="70" spans="3:10" x14ac:dyDescent="0.25">
       <c r="D70" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="F70" s="2"/>
       <c r="G70" s="21"/>
       <c r="H70" s="21"/>
       <c r="I70" s="21"/>
       <c r="J70" s="21" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="71" spans="3:10" x14ac:dyDescent="0.25">
       <c r="D71" s="2" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>96</v>
+        <v>79</v>
       </c>
       <c r="F71" s="2"/>
       <c r="G71" s="21"/>
       <c r="H71" s="21"/>
-      <c r="I71" s="21" t="s">
-        <v>66</v>
-      </c>
-      <c r="J71" s="21"/>
+      <c r="I71" s="21"/>
+      <c r="J71" s="21" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="72" spans="3:10" x14ac:dyDescent="0.25">
       <c r="D72" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="F72" s="2"/>
       <c r="G72" s="21"/>
       <c r="H72" s="21"/>
       <c r="I72" s="21" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J72" s="21"/>
     </row>
     <row r="73" spans="3:10" x14ac:dyDescent="0.25">
       <c r="D73" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E73" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F73" s="2"/>
+      <c r="G73" s="21"/>
+      <c r="H73" s="21"/>
+      <c r="I73" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="J73" s="21"/>
+    </row>
+    <row r="74" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="D74" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="E73" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="F73" s="2"/>
-      <c r="G73" s="21" t="s">
-        <v>63</v>
-      </c>
-      <c r="H73" s="21" t="s">
-        <v>64</v>
-      </c>
-      <c r="I73" s="21" t="s">
-        <v>66</v>
-      </c>
-      <c r="J73" s="21"/>
-    </row>
-    <row r="76" spans="3:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C76" s="14" t="s">
-        <v>97</v>
-      </c>
-      <c r="D76" s="15" t="s">
-        <v>109</v>
-      </c>
-      <c r="E76" s="15" t="s">
-        <v>80</v>
-      </c>
-      <c r="F76" s="15"/>
-      <c r="G76" s="22" t="s">
-        <v>63</v>
-      </c>
-      <c r="H76" s="22" t="s">
-        <v>64</v>
-      </c>
-      <c r="I76" s="22" t="s">
-        <v>66</v>
-      </c>
-      <c r="J76" s="22" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="77" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C77" t="s">
-        <v>87</v>
+      <c r="E74" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F74" s="2"/>
+      <c r="G74" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="H74" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="I74" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="J74" s="21"/>
+    </row>
+    <row r="77" spans="3:10" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C77" s="14" t="s">
+        <v>96</v>
       </c>
       <c r="D77" s="15" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="E77" s="15" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F77" s="15"/>
       <c r="G77" s="22" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H77" s="22" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I77" s="22" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J77" s="22" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="78" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C78" t="s">
+        <v>86</v>
+      </c>
       <c r="D78" s="15" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="E78" s="15" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F78" s="15"/>
       <c r="G78" s="22" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H78" s="22" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I78" s="22" t="s">
-        <v>66</v>
-      </c>
-      <c r="J78" s="22"/>
+        <v>65</v>
+      </c>
+      <c r="J78" s="22" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="79" spans="3:10" x14ac:dyDescent="0.25">
       <c r="D79" s="15" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E79" s="15" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F79" s="15"/>
       <c r="G79" s="22" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H79" s="22" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I79" s="22" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J79" s="22"/>
     </row>
     <row r="80" spans="3:10" x14ac:dyDescent="0.25">
       <c r="D80" s="15" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E80" s="15" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F80" s="15"/>
       <c r="G80" s="22" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H80" s="22" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I80" s="22" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J80" s="22"/>
     </row>
     <row r="81" spans="3:10" x14ac:dyDescent="0.25">
       <c r="D81" s="15" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E81" s="15" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F81" s="15"/>
       <c r="G81" s="22" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H81" s="22" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I81" s="22" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J81" s="22"/>
     </row>
     <row r="82" spans="3:10" x14ac:dyDescent="0.25">
       <c r="D82" s="15" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="E82" s="15" t="s">
-        <v>96</v>
+        <v>79</v>
       </c>
       <c r="F82" s="15"/>
       <c r="G82" s="22" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H82" s="22" t="s">
-        <v>64</v>
-      </c>
-      <c r="I82" s="22"/>
+        <v>63</v>
+      </c>
+      <c r="I82" s="22" t="s">
+        <v>65</v>
+      </c>
       <c r="J82" s="22"/>
     </row>
     <row r="83" spans="3:10" x14ac:dyDescent="0.25">
       <c r="D83" s="15" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E83" s="15" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F83" s="15"/>
       <c r="G83" s="22" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H83" s="22" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I83" s="22"/>
       <c r="J83" s="22"/>
     </row>
     <row r="84" spans="3:10" x14ac:dyDescent="0.25">
       <c r="D84" s="15" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="E84" s="15" t="s">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="F84" s="15"/>
       <c r="G84" s="22" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H84" s="22" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I84" s="22"/>
       <c r="J84" s="22"/>
@@ -2579,288 +2573,292 @@
         <v>112</v>
       </c>
       <c r="E85" s="15" t="s">
-        <v>96</v>
+        <v>79</v>
       </c>
       <c r="F85" s="15"/>
       <c r="G85" s="22" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H85" s="22" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I85" s="22"/>
       <c r="J85" s="22"/>
     </row>
     <row r="86" spans="3:10" x14ac:dyDescent="0.25">
       <c r="D86" s="15" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="E86" s="15" t="s">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="F86" s="15"/>
       <c r="G86" s="22" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H86" s="22" t="s">
-        <v>64</v>
-      </c>
-      <c r="I86" s="22" t="s">
-        <v>66</v>
-      </c>
-      <c r="J86" s="22" t="s">
-        <v>70</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="I86" s="22"/>
+      <c r="J86" s="22"/>
     </row>
     <row r="87" spans="3:10" x14ac:dyDescent="0.25">
       <c r="D87" s="15" t="s">
         <v>105</v>
       </c>
       <c r="E87" s="15" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F87" s="15"/>
       <c r="G87" s="22" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H87" s="22" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I87" s="22" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J87" s="22" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="88" spans="3:10" x14ac:dyDescent="0.25">
       <c r="D88" s="15" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="E88" s="15" t="s">
-        <v>96</v>
+        <v>79</v>
       </c>
       <c r="F88" s="15"/>
-      <c r="G88" s="22"/>
+      <c r="G88" s="22" t="s">
+        <v>62</v>
+      </c>
       <c r="H88" s="22" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I88" s="22" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J88" s="22" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="89" spans="3:10" x14ac:dyDescent="0.25">
       <c r="D89" s="15" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E89" s="15" t="s">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="F89" s="15"/>
       <c r="G89" s="22"/>
-      <c r="H89" s="22"/>
+      <c r="H89" s="22" t="s">
+        <v>63</v>
+      </c>
       <c r="I89" s="22" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J89" s="22" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="93" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C93" s="28" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="90" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="D90" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="E90" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="F90" s="15"/>
+      <c r="G90" s="22"/>
+      <c r="H90" s="22"/>
+      <c r="I90" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="J90" s="22" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="94" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C94" s="28" t="s">
+        <v>114</v>
+      </c>
+      <c r="D94" s="29" t="s">
         <v>115</v>
-      </c>
-      <c r="D93" s="29" t="s">
-        <v>116</v>
-      </c>
-      <c r="E93" s="30"/>
-      <c r="F93" s="30"/>
-      <c r="G93" s="31" t="s">
-        <v>63</v>
-      </c>
-      <c r="H93" s="31" t="s">
-        <v>64</v>
-      </c>
-      <c r="I93" s="31"/>
-      <c r="J93" s="31"/>
-    </row>
-    <row r="94" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="D94" s="29" t="s">
-        <v>117</v>
       </c>
       <c r="E94" s="30"/>
       <c r="F94" s="30"/>
-      <c r="G94" s="31"/>
+      <c r="G94" s="31" t="s">
+        <v>62</v>
+      </c>
       <c r="H94" s="31" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I94" s="31"/>
-      <c r="J94" s="31" t="s">
-        <v>70</v>
-      </c>
+      <c r="J94" s="31"/>
     </row>
     <row r="95" spans="3:10" x14ac:dyDescent="0.25">
       <c r="D95" s="29" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E95" s="30"/>
       <c r="F95" s="30"/>
       <c r="G95" s="31"/>
       <c r="H95" s="31" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I95" s="31"/>
-      <c r="J95" s="31"/>
+      <c r="J95" s="31" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="96" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="D96" s="32" t="s">
-        <v>119</v>
+      <c r="D96" s="29" t="s">
+        <v>117</v>
       </c>
       <c r="E96" s="30"/>
       <c r="F96" s="30"/>
       <c r="G96" s="31"/>
       <c r="H96" s="31" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I96" s="31"/>
       <c r="J96" s="31"/>
     </row>
     <row r="97" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D97" s="32" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E97" s="30"/>
       <c r="F97" s="30"/>
-      <c r="G97" s="31" t="s">
-        <v>63</v>
-      </c>
+      <c r="G97" s="31"/>
       <c r="H97" s="31" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I97" s="31"/>
       <c r="J97" s="31"/>
     </row>
     <row r="98" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D98" s="29" t="s">
-        <v>121</v>
+      <c r="D98" s="32" t="s">
+        <v>119</v>
       </c>
       <c r="E98" s="30"/>
       <c r="F98" s="30"/>
       <c r="G98" s="31" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H98" s="31" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I98" s="31"/>
-      <c r="J98" s="31" t="s">
-        <v>70</v>
-      </c>
+      <c r="J98" s="31"/>
     </row>
     <row r="99" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D99" s="29" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E99" s="30"/>
       <c r="F99" s="30"/>
-      <c r="G99" s="31"/>
+      <c r="G99" s="31" t="s">
+        <v>62</v>
+      </c>
       <c r="H99" s="31" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I99" s="31"/>
       <c r="J99" s="31" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="100" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D100" s="30" t="s">
-        <v>123</v>
+      <c r="D100" s="29" t="s">
+        <v>121</v>
       </c>
       <c r="E100" s="30"/>
       <c r="F100" s="30"/>
-      <c r="G100" s="31" t="s">
-        <v>63</v>
-      </c>
+      <c r="G100" s="31"/>
       <c r="H100" s="31" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I100" s="31"/>
       <c r="J100" s="31" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="101" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D101" s="30" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E101" s="30"/>
       <c r="F101" s="30"/>
       <c r="G101" s="31" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H101" s="31" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I101" s="31"/>
-      <c r="J101" s="31"/>
+      <c r="J101" s="31" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="102" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D102" s="30" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E102" s="30"/>
       <c r="F102" s="30"/>
       <c r="G102" s="31" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H102" s="31" t="s">
-        <v>64</v>
-      </c>
-      <c r="I102" s="31" t="s">
-        <v>66</v>
-      </c>
-      <c r="J102" s="31" t="s">
-        <v>70</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="I102" s="31"/>
+      <c r="J102" s="31"/>
     </row>
     <row r="103" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D103" s="30" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E103" s="30"/>
       <c r="F103" s="30"/>
       <c r="G103" s="31" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H103" s="31" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I103" s="31" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J103" s="31" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="104" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D104" s="30" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E104" s="30"/>
       <c r="F104" s="30"/>
-      <c r="G104" s="31"/>
-      <c r="H104" s="31"/>
-      <c r="I104" s="31"/>
+      <c r="G104" s="31" t="s">
+        <v>62</v>
+      </c>
+      <c r="H104" s="31" t="s">
+        <v>63</v>
+      </c>
+      <c r="I104" s="31" t="s">
+        <v>65</v>
+      </c>
       <c r="J104" s="31" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="105" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D105" s="30" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E105" s="30"/>
       <c r="F105" s="30"/>
@@ -2868,12 +2866,12 @@
       <c r="H105" s="31"/>
       <c r="I105" s="31"/>
       <c r="J105" s="31" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="106" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D106" s="30" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E106" s="30"/>
       <c r="F106" s="30"/>
@@ -2881,12 +2879,12 @@
       <c r="H106" s="31"/>
       <c r="I106" s="31"/>
       <c r="J106" s="31" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="107" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D107" s="30" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E107" s="30"/>
       <c r="F107" s="30"/>
@@ -2894,12 +2892,12 @@
       <c r="H107" s="31"/>
       <c r="I107" s="31"/>
       <c r="J107" s="31" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="108" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D108" s="30" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E108" s="30"/>
       <c r="F108" s="30"/>
@@ -2907,12 +2905,12 @@
       <c r="H108" s="31"/>
       <c r="I108" s="31"/>
       <c r="J108" s="31" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="109" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D109" s="30" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E109" s="30"/>
       <c r="F109" s="30"/>
@@ -2920,158 +2918,171 @@
       <c r="H109" s="31"/>
       <c r="I109" s="31"/>
       <c r="J109" s="31" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="110" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D110" s="30" t="s">
-        <v>133</v>
-      </c>
-      <c r="E110" s="30" t="s">
-        <v>96</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="E110" s="30"/>
       <c r="F110" s="30"/>
       <c r="G110" s="31"/>
       <c r="H110" s="31"/>
       <c r="I110" s="31"/>
       <c r="J110" s="31" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="111" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D111" s="30" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="E111" s="30" t="s">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="F111" s="30"/>
       <c r="G111" s="31"/>
       <c r="H111" s="31"/>
       <c r="I111" s="31"/>
       <c r="J111" s="31" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="112" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D112" s="30" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E112" s="30" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F112" s="30"/>
       <c r="G112" s="31"/>
       <c r="H112" s="31"/>
-      <c r="I112" s="31" t="s">
-        <v>66</v>
-      </c>
-      <c r="J112" s="31"/>
+      <c r="I112" s="31"/>
+      <c r="J112" s="31" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="113" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D113" s="30" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E113" s="30" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F113" s="30"/>
       <c r="G113" s="31"/>
       <c r="H113" s="31"/>
       <c r="I113" s="31" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J113" s="31"/>
     </row>
     <row r="114" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D114" s="30" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E114" s="30" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F114" s="30"/>
       <c r="G114" s="31"/>
       <c r="H114" s="31"/>
       <c r="I114" s="31" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J114" s="31"/>
     </row>
     <row r="115" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D115" s="30" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E115" s="30" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F115" s="30"/>
       <c r="G115" s="31"/>
       <c r="H115" s="31"/>
       <c r="I115" s="31" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J115" s="31"/>
     </row>
     <row r="116" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D116" s="30" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E116" s="30" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F116" s="30"/>
       <c r="G116" s="31"/>
       <c r="H116" s="31"/>
       <c r="I116" s="31" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J116" s="31"/>
     </row>
     <row r="117" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D117" s="30" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E117" s="30" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F117" s="30"/>
       <c r="G117" s="31"/>
       <c r="H117" s="31"/>
       <c r="I117" s="31" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J117" s="31"/>
     </row>
     <row r="118" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D118" s="30" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E118" s="30" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F118" s="30"/>
       <c r="G118" s="31"/>
       <c r="H118" s="31"/>
       <c r="I118" s="31" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J118" s="31"/>
     </row>
     <row r="119" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D119" s="30" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E119" s="30" t="s">
-        <v>96</v>
+        <v>79</v>
       </c>
       <c r="F119" s="30"/>
       <c r="G119" s="31"/>
       <c r="H119" s="31"/>
       <c r="I119" s="31" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J119" s="31"/>
+    </row>
+    <row r="120" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D120" s="30" t="s">
+        <v>141</v>
+      </c>
+      <c r="E120" s="30" t="s">
+        <v>95</v>
+      </c>
+      <c r="F120" s="30"/>
+      <c r="G120" s="31"/>
+      <c r="H120" s="31"/>
+      <c r="I120" s="31" t="s">
+        <v>65</v>
+      </c>
+      <c r="J120" s="31"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Doc/project.xlsx
+++ b/Doc/project.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\vs\WebApp\ASP.NET_Core\MwProject\Doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B08DAB86-0D3B-429A-B1D0-9D3EC85E5661}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E5A68D3-1253-4385-B0BD-E32501254C85}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="503" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="511" uniqueCount="174">
   <si>
     <t xml:space="preserve">Temat projektu </t>
   </si>
@@ -524,6 +524,30 @@
   </si>
   <si>
     <t>termin wykonania</t>
+  </si>
+  <si>
+    <t>accepted</t>
+  </si>
+  <si>
+    <t>acceptedDate</t>
+  </si>
+  <si>
+    <t>calculations</t>
+  </si>
+  <si>
+    <t>GeneralCostsInPercent</t>
+  </si>
+  <si>
+    <t>Comment</t>
+  </si>
+  <si>
+    <t>Tkw</t>
+  </si>
+  <si>
+    <t>Ckw</t>
+  </si>
+  <si>
+    <t>UserConfirmFinancialData</t>
   </si>
 </sst>
 </file>
@@ -1188,8 +1212,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FFF683B-83AD-4E4B-A7E3-807C5114F016}">
   <dimension ref="C8:M120"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M12" sqref="M12"/>
+    <sheetView tabSelected="1" topLeftCell="A89" workbookViewId="0">
+      <selection activeCell="D115" sqref="D115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1202,7 +1226,7 @@
     <col min="9" max="9" width="2.7109375" style="23" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="2.42578125" style="23" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="30.7109375" style="34" customWidth="1"/>
-    <col min="13" max="13" width="18.7109375" style="34" customWidth="1"/>
+    <col min="13" max="13" width="26.7109375" style="34" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="8" spans="3:13" ht="15.75" x14ac:dyDescent="0.25">
@@ -1694,6 +1718,9 @@
       <c r="J33" s="18" t="s">
         <v>69</v>
       </c>
+      <c r="M33" s="34" t="s">
+        <v>173</v>
+      </c>
     </row>
     <row r="34" spans="3:13" x14ac:dyDescent="0.25">
       <c r="D34" s="13" t="s">
@@ -1778,6 +1805,9 @@
       <c r="J37" s="18" t="s">
         <v>69</v>
       </c>
+      <c r="M37" s="34" t="s">
+        <v>166</v>
+      </c>
     </row>
     <row r="38" spans="3:13" x14ac:dyDescent="0.25">
       <c r="D38" s="12" t="s">
@@ -1799,6 +1829,9 @@
       <c r="J38" s="18" t="s">
         <v>69</v>
       </c>
+      <c r="M38" s="34" t="s">
+        <v>167</v>
+      </c>
     </row>
     <row r="41" spans="3:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C41" s="4" t="s">
@@ -1994,6 +2027,9 @@
       <c r="J50" s="20" t="s">
         <v>69</v>
       </c>
+      <c r="L50" s="34" t="s">
+        <v>168</v>
+      </c>
       <c r="M50" s="34" t="s">
         <v>157</v>
       </c>
@@ -2093,6 +2129,9 @@
       <c r="J54" s="20" t="s">
         <v>69</v>
       </c>
+      <c r="M54" s="34" t="s">
+        <v>171</v>
+      </c>
     </row>
     <row r="55" spans="3:13" x14ac:dyDescent="0.25">
       <c r="D55" s="5" t="s">
@@ -2114,6 +2153,9 @@
       <c r="J55" s="20" t="s">
         <v>69</v>
       </c>
+      <c r="M55" s="34" t="s">
+        <v>169</v>
+      </c>
     </row>
     <row r="56" spans="3:13" x14ac:dyDescent="0.25">
       <c r="D56" s="5" t="s">
@@ -2135,6 +2177,9 @@
       <c r="J56" s="20" t="s">
         <v>69</v>
       </c>
+      <c r="M56" s="34" t="s">
+        <v>172</v>
+      </c>
     </row>
     <row r="57" spans="3:13" x14ac:dyDescent="0.25">
       <c r="D57" s="5" t="s">
@@ -2155,6 +2200,9 @@
       </c>
       <c r="J57" s="20" t="s">
         <v>69</v>
+      </c>
+      <c r="M57" s="34" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="60" spans="3:13" ht="18.75" x14ac:dyDescent="0.3">

--- a/Doc/project.xlsx
+++ b/Doc/project.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\vs\WebApp\ASP.NET_Core\MwProject\Doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E5A68D3-1253-4385-B0BD-E32501254C85}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8691D89-22A0-456F-AC4A-96B59D54C607}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1212,8 +1212,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FFF683B-83AD-4E4B-A7E3-807C5114F016}">
   <dimension ref="C8:M120"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A89" workbookViewId="0">
-      <selection activeCell="D115" sqref="D115"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="C53" sqref="C53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Doc/project.xlsx
+++ b/Doc/project.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\vs\WebApp\ASP.NET_Core\MwProject\Doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4ED3EFD2-F8B8-4D21-8F9D-C230BB99B063}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D225AA9E-9BF3-4437-82C4-AE0E2015762E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1215,7 +1215,7 @@
   <dimension ref="B7:T112"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="D64" sqref="D64:E65"/>
+      <selection activeCell="D61" sqref="D61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Doc/project.xlsx
+++ b/Doc/project.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\vs\WebApp\ASP.NET_Core\MwProject\Doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D225AA9E-9BF3-4437-82C4-AE0E2015762E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C5412BF-93A3-4817-9F60-D56241ABAF64}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,17 +16,26 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="502" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="511" uniqueCount="183">
   <si>
     <t xml:space="preserve">Temat projektu </t>
   </si>
@@ -538,12 +547,6 @@
     <t>Requirements</t>
   </si>
   <si>
-    <t>Project</t>
-  </si>
-  <si>
-    <t>Yes</t>
-  </si>
-  <si>
     <t>n-rekordów</t>
   </si>
   <si>
@@ -553,9 +556,6 @@
     <t>RequirementId</t>
   </si>
   <si>
-    <t>Wymaganie</t>
-  </si>
-  <si>
     <t>Id</t>
   </si>
   <si>
@@ -563,6 +563,27 @@
   </si>
   <si>
     <t>Czy występuje</t>
+  </si>
+  <si>
+    <t>Typ</t>
+  </si>
+  <si>
+    <t>Nazwa</t>
+  </si>
+  <si>
+    <t>Id Projektu</t>
+  </si>
+  <si>
+    <t>Id Wymagania</t>
+  </si>
+  <si>
+    <t>Exist</t>
+  </si>
+  <si>
+    <t>TypeId</t>
+  </si>
+  <si>
+    <t>1-Quality, 2-Equipment</t>
   </si>
 </sst>
 </file>
@@ -1214,8 +1235,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FFF683B-83AD-4E4B-A7E3-807C5114F016}">
   <dimension ref="B7:T112"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="D61" sqref="D61"/>
+    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="P112" sqref="P112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1228,6 +1249,7 @@
     <col min="9" max="9" width="2.7109375" style="16" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="2.42578125" style="16" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="26.7109375" style="26" customWidth="1"/>
+    <col min="13" max="13" width="44.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="7" spans="3:12" ht="21" x14ac:dyDescent="0.35">
@@ -1938,7 +1960,7 @@
     </row>
     <row r="44" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D44" s="5" t="s">
         <v>25</v>
@@ -2275,10 +2297,10 @@
     </row>
     <row r="59" spans="3:20" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C59" s="6" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>170</v>
+        <v>178</v>
       </c>
       <c r="E59" s="2" t="s">
         <v>159</v>
@@ -2302,10 +2324,10 @@
     </row>
     <row r="60" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C60" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="E60" s="2" t="s">
         <v>159</v>
@@ -2322,12 +2344,12 @@
         <v>61</v>
       </c>
       <c r="L60" s="26" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="61" spans="3:20" x14ac:dyDescent="0.25">
       <c r="D61" s="2" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="E61" s="2" t="s">
         <v>78</v>
@@ -2338,7 +2360,7 @@
       <c r="I61" s="14"/>
       <c r="J61" s="14"/>
       <c r="L61" s="26" t="s">
-        <v>171</v>
+        <v>180</v>
       </c>
     </row>
     <row r="62" spans="3:20" x14ac:dyDescent="0.25">
@@ -2366,7 +2388,7 @@
         <v>169</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="E64" s="2" t="s">
         <v>159</v>
@@ -2385,10 +2407,10 @@
         <v>61</v>
       </c>
       <c r="L64" s="26" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="65" spans="3:12" x14ac:dyDescent="0.25">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="65" spans="3:13" x14ac:dyDescent="0.25">
       <c r="D65" s="2" t="s">
         <v>177</v>
       </c>
@@ -2402,15 +2424,44 @@
       <c r="H65" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="I65" s="14"/>
+      <c r="I65" s="14" t="s">
+        <v>58</v>
+      </c>
       <c r="J65" s="14" t="s">
         <v>61</v>
       </c>
       <c r="L65" s="26" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="69" spans="3:12" ht="18.75" x14ac:dyDescent="0.3">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="66" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="D66" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="E66" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="F66" s="2"/>
+      <c r="G66" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="H66" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="I66" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="J66" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="L66" s="26" t="s">
+        <v>181</v>
+      </c>
+      <c r="M66" s="14" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="69" spans="3:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C69" s="9" t="s">
         <v>79</v>
       </c>
@@ -2434,7 +2485,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="70" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="70" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C70" t="s">
         <v>77</v>
       </c>
@@ -2458,7 +2509,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="71" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="71" spans="3:13" x14ac:dyDescent="0.25">
       <c r="D71" s="10" t="s">
         <v>83</v>
       </c>
@@ -2477,7 +2528,7 @@
       </c>
       <c r="J71" s="15"/>
     </row>
-    <row r="72" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="72" spans="3:13" x14ac:dyDescent="0.25">
       <c r="D72" s="10" t="s">
         <v>84</v>
       </c>
@@ -2496,7 +2547,7 @@
       </c>
       <c r="J72" s="15"/>
     </row>
-    <row r="73" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="73" spans="3:13" x14ac:dyDescent="0.25">
       <c r="D73" s="10" t="s">
         <v>85</v>
       </c>
@@ -2515,7 +2566,7 @@
       </c>
       <c r="J73" s="15"/>
     </row>
-    <row r="74" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="74" spans="3:13" x14ac:dyDescent="0.25">
       <c r="D74" s="10" t="s">
         <v>86</v>
       </c>
@@ -2534,7 +2585,7 @@
       </c>
       <c r="J74" s="15"/>
     </row>
-    <row r="75" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="75" spans="3:13" x14ac:dyDescent="0.25">
       <c r="D75" s="10" t="s">
         <v>90</v>
       </c>
@@ -2551,7 +2602,7 @@
       <c r="I75" s="15"/>
       <c r="J75" s="15"/>
     </row>
-    <row r="76" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="76" spans="3:13" x14ac:dyDescent="0.25">
       <c r="D76" s="10" t="s">
         <v>91</v>
       </c>
@@ -2568,7 +2619,7 @@
       <c r="I76" s="15"/>
       <c r="J76" s="15"/>
     </row>
-    <row r="77" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="77" spans="3:13" x14ac:dyDescent="0.25">
       <c r="D77" s="10" t="s">
         <v>93</v>
       </c>
@@ -2585,7 +2636,7 @@
       <c r="I77" s="15"/>
       <c r="J77" s="15"/>
     </row>
-    <row r="78" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="78" spans="3:13" x14ac:dyDescent="0.25">
       <c r="D78" s="10" t="s">
         <v>92</v>
       </c>
@@ -2602,7 +2653,7 @@
       <c r="I78" s="15"/>
       <c r="J78" s="15"/>
     </row>
-    <row r="79" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="79" spans="3:13" x14ac:dyDescent="0.25">
       <c r="D79" s="10" t="s">
         <v>88</v>
       </c>
@@ -2623,7 +2674,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="80" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="80" spans="3:13" x14ac:dyDescent="0.25">
       <c r="D80" s="10" t="s">
         <v>87</v>
       </c>
@@ -2856,7 +2907,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="97" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="97" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D97" s="23" t="s">
         <v>107</v>
       </c>
@@ -2869,7 +2920,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="98" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="98" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D98" s="23" t="s">
         <v>108</v>
       </c>
@@ -2882,7 +2933,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="99" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="99" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D99" s="23" t="s">
         <v>109</v>
       </c>
@@ -2895,7 +2946,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="100" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="100" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D100" s="23" t="s">
         <v>110</v>
       </c>
@@ -2908,7 +2959,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="101" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="101" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D101" s="23" t="s">
         <v>111</v>
       </c>
@@ -2921,7 +2972,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="102" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="102" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D102" s="23" t="s">
         <v>112</v>
       </c>
@@ -2934,7 +2985,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="103" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="103" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D103" s="23" t="s">
         <v>113</v>
       </c>
@@ -2949,7 +3000,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="104" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="104" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D104" s="23" t="s">
         <v>114</v>
       </c>
@@ -2964,7 +3015,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="105" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="105" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D105" s="23" t="s">
         <v>115</v>
       </c>
@@ -2979,7 +3030,7 @@
       </c>
       <c r="J105" s="24"/>
     </row>
-    <row r="106" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="106" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D106" s="23" t="s">
         <v>116</v>
       </c>
@@ -2994,7 +3045,7 @@
       </c>
       <c r="J106" s="24"/>
     </row>
-    <row r="107" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="107" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D107" s="23" t="s">
         <v>117</v>
       </c>
@@ -3009,7 +3060,7 @@
       </c>
       <c r="J107" s="24"/>
     </row>
-    <row r="108" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="108" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D108" s="23" t="s">
         <v>118</v>
       </c>
@@ -3024,7 +3075,7 @@
       </c>
       <c r="J108" s="24"/>
     </row>
-    <row r="109" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="109" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D109" s="23" t="s">
         <v>119</v>
       </c>
@@ -3039,7 +3090,7 @@
       </c>
       <c r="J109" s="24"/>
     </row>
-    <row r="110" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="110" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D110" s="23" t="s">
         <v>120</v>
       </c>
@@ -3054,7 +3105,7 @@
       </c>
       <c r="J110" s="24"/>
     </row>
-    <row r="111" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="111" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D111" s="23" t="s">
         <v>121</v>
       </c>
@@ -3069,7 +3120,7 @@
       </c>
       <c r="J111" s="24"/>
     </row>
-    <row r="112" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="112" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D112" s="23" t="s">
         <v>122</v>
       </c>
@@ -3083,6 +3134,20 @@
         <v>58</v>
       </c>
       <c r="J112" s="24"/>
+      <c r="O112">
+        <v>1.5</v>
+      </c>
+      <c r="P112">
+        <v>11</v>
+      </c>
+      <c r="Q112">
+        <f>O112+P112</f>
+        <v>12.5</v>
+      </c>
+      <c r="R112">
+        <f>Q112*3</f>
+        <v>37.5</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Doc/project.xlsx
+++ b/Doc/project.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\vs\WebApp\ASP.NET_Core\MwProject\Doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE837570-F596-4463-8B67-3DE83E9F23AE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0039C091-0AE4-4E1C-A278-F25C7874C546}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="591" uniqueCount="184">
   <si>
     <t xml:space="preserve">Temat projektu </t>
   </si>
@@ -585,6 +585,9 @@
   </si>
   <si>
     <t>TechnicalProporties</t>
+  </si>
+  <si>
+    <t>ProductGroups</t>
   </si>
 </sst>
 </file>
@@ -1259,10 +1262,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FFF683B-83AD-4E4B-A7E3-807C5114F016}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="B7:Q95"/>
+  <dimension ref="B7:Q100"/>
   <sheetViews>
-    <sheetView topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="D69" sqref="D69:J95"/>
+    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="J100" sqref="J100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2859,6 +2862,57 @@
         <v>37.5</v>
       </c>
     </row>
+    <row r="99" spans="3:12" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C99" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="D99" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="E99" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="F99" s="2"/>
+      <c r="G99" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="H99" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="I99" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="J99" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="L99" s="25" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="100" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="D100" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="E100" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="F100" s="2"/>
+      <c r="G100" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="H100" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="I100" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="J100" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="L100" s="25" t="s">
+        <v>172</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2869,7 +2923,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34254B72-E725-42AE-AE7F-4C051E4E8C4A}">
   <dimension ref="D5:J70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+    <sheetView topLeftCell="A22" workbookViewId="0">
       <selection activeCell="P38" sqref="P38"/>
     </sheetView>
   </sheetViews>

--- a/Doc/project.xlsx
+++ b/Doc/project.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\vs\WebApp\ASP.NET_Core\MwProject\Doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0039C091-0AE4-4E1C-A278-F25C7874C546}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{736DD268-E026-496C-A3A1-A9BE397FFCEB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="591" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="592" uniqueCount="194">
   <si>
     <t xml:space="preserve">Temat projektu </t>
   </si>
@@ -317,9 +317,6 @@
     <t>Koszty ogólne %</t>
   </si>
   <si>
-    <t>Techniczne</t>
-  </si>
-  <si>
     <t>rodzaj_wymiary</t>
   </si>
   <si>
@@ -588,6 +585,39 @@
   </si>
   <si>
     <t>ProductGroups</t>
+  </si>
+  <si>
+    <t>TechnicalProperties</t>
+  </si>
+  <si>
+    <t>Category</t>
+  </si>
+  <si>
+    <t>Wniosek o uruchomienie nowego/ modyfikację istniejącego wyrobu formowego</t>
+  </si>
+  <si>
+    <t>Wniosek o uruchomienie nowego/ modyfikację istniejącego wyrobu wytłaczanego</t>
+  </si>
+  <si>
+    <t>Załącznik nr 7 KP2-NW/00.00</t>
+  </si>
+  <si>
+    <t>Wniosek o uruchomienie nowej/ modyfikację istniejącej mieszanki</t>
+  </si>
+  <si>
+    <t>Załącznik nr 2 KP2-NW/00.00</t>
+  </si>
+  <si>
+    <t>Wniosek o uruchomienie nowego/ modyfikację istniejącego wyrobu* dętki</t>
+  </si>
+  <si>
+    <t>Załącznik nr 8 KP2-NW/00.00</t>
+  </si>
+  <si>
+    <t>Wniosek o uruchomienie nowego lub modyfikację istniejącego rozmiaru opony</t>
+  </si>
+  <si>
+    <t>Załącznik nr 1 KP2-NW/00.00</t>
   </si>
 </sst>
 </file>
@@ -773,7 +803,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -796,7 +826,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1264,8 +1293,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="B7:Q100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="J100" sqref="J100"/>
+    <sheetView topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="E103" sqref="E103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1277,7 +1306,7 @@
     <col min="8" max="8" width="2.28515625" style="15" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="2.7109375" style="15" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="2.42578125" style="15" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="26.7109375" style="25" customWidth="1"/>
+    <col min="12" max="12" width="26.7109375" style="24" customWidth="1"/>
     <col min="19" max="19" width="35.7109375" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="39.42578125" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="6" bestFit="1" customWidth="1"/>
@@ -1288,22 +1317,22 @@
   </cols>
   <sheetData>
     <row r="7" spans="3:12" ht="21" x14ac:dyDescent="0.35">
-      <c r="C7" s="32" t="s">
-        <v>121</v>
+      <c r="C7" s="31" t="s">
+        <v>120</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
-      <c r="G7" s="31"/>
-      <c r="H7" s="31"/>
-      <c r="I7" s="31"/>
-      <c r="J7" s="31"/>
+      <c r="G7" s="30"/>
+      <c r="H7" s="30"/>
+      <c r="I7" s="30"/>
+      <c r="J7" s="30"/>
     </row>
     <row r="8" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="D8" s="29" t="s">
-        <v>146</v>
-      </c>
-      <c r="E8" s="29" t="s">
+      <c r="D8" s="28" t="s">
+        <v>145</v>
+      </c>
+      <c r="E8" s="28" t="s">
         <v>74</v>
       </c>
       <c r="F8" s="8"/>
@@ -1319,109 +1348,109 @@
       <c r="J8" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="L8" s="25" t="s">
+      <c r="L8" s="24" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="9" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="D9" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" s="28" t="s">
+        <v>71</v>
+      </c>
+      <c r="F9" s="28"/>
+      <c r="G9" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="H9" s="28" t="s">
+        <v>56</v>
+      </c>
+      <c r="I9" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="J9" s="28" t="s">
+        <v>61</v>
+      </c>
+      <c r="L9" s="24" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="9" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="D9" s="29" t="s">
-        <v>23</v>
-      </c>
-      <c r="E9" s="29" t="s">
+    <row r="10" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="D10" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10" s="28" t="s">
+        <v>72</v>
+      </c>
+      <c r="F10" s="29"/>
+      <c r="G10" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="H10" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="I10" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="J10" s="29" t="s">
+        <v>61</v>
+      </c>
+      <c r="L10" s="24" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="11" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="D11" s="28" t="s">
+        <v>131</v>
+      </c>
+      <c r="E11" s="28" t="s">
+        <v>72</v>
+      </c>
+      <c r="F11" s="29"/>
+      <c r="G11" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="H11" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="I11" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="J11" s="29" t="s">
+        <v>61</v>
+      </c>
+      <c r="L11" s="24" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="12" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="D12" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" s="28" t="s">
         <v>71</v>
       </c>
-      <c r="F9" s="29"/>
-      <c r="G9" s="29" t="s">
-        <v>55</v>
-      </c>
-      <c r="H9" s="29" t="s">
-        <v>56</v>
-      </c>
-      <c r="I9" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="J9" s="29" t="s">
-        <v>61</v>
-      </c>
-      <c r="L9" s="25" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="10" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="D10" s="29" t="s">
-        <v>24</v>
-      </c>
-      <c r="E10" s="29" t="s">
-        <v>72</v>
-      </c>
-      <c r="F10" s="30"/>
-      <c r="G10" s="30" t="s">
-        <v>55</v>
-      </c>
-      <c r="H10" s="30" t="s">
-        <v>56</v>
-      </c>
-      <c r="I10" s="30" t="s">
-        <v>58</v>
-      </c>
-      <c r="J10" s="30" t="s">
-        <v>61</v>
-      </c>
-      <c r="L10" s="25" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="11" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="D11" s="29" t="s">
-        <v>132</v>
-      </c>
-      <c r="E11" s="29" t="s">
-        <v>72</v>
-      </c>
-      <c r="F11" s="30"/>
-      <c r="G11" s="30" t="s">
-        <v>55</v>
-      </c>
-      <c r="H11" s="30" t="s">
-        <v>56</v>
-      </c>
-      <c r="I11" s="30" t="s">
-        <v>58</v>
-      </c>
-      <c r="J11" s="30" t="s">
-        <v>61</v>
-      </c>
-      <c r="L11" s="25" t="s">
+      <c r="F12" s="8"/>
+      <c r="G12" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="H12" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="I12" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="J12" s="29" t="s">
+        <v>61</v>
+      </c>
+      <c r="L12" s="24" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="12" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="D12" s="29" t="s">
-        <v>8</v>
-      </c>
-      <c r="E12" s="29" t="s">
-        <v>71</v>
-      </c>
-      <c r="F12" s="8"/>
-      <c r="G12" s="30" t="s">
-        <v>55</v>
-      </c>
-      <c r="H12" s="30" t="s">
-        <v>56</v>
-      </c>
-      <c r="I12" s="30" t="s">
-        <v>58</v>
-      </c>
-      <c r="J12" s="30" t="s">
-        <v>61</v>
-      </c>
-      <c r="L12" s="25" t="s">
-        <v>151</v>
-      </c>
-    </row>
     <row r="13" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="D13" s="26"/>
-      <c r="E13" s="26"/>
+      <c r="D13" s="25"/>
+      <c r="E13" s="25"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c r="H13" s="8"/>
@@ -1429,314 +1458,314 @@
       <c r="J13" s="8"/>
     </row>
     <row r="14" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="D14" s="29" t="s">
+      <c r="D14" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="E14" s="29" t="s">
+      <c r="E14" s="28" t="s">
         <v>73</v>
       </c>
-      <c r="F14" s="29"/>
-      <c r="G14" s="29" t="s">
-        <v>55</v>
-      </c>
-      <c r="H14" s="29" t="s">
-        <v>56</v>
-      </c>
-      <c r="I14" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="J14" s="29" t="s">
-        <v>61</v>
-      </c>
-      <c r="L14" s="25" t="s">
+      <c r="F14" s="28"/>
+      <c r="G14" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="H14" s="28" t="s">
+        <v>56</v>
+      </c>
+      <c r="I14" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="J14" s="28" t="s">
+        <v>61</v>
+      </c>
+      <c r="L14" s="24" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="15" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="D15" s="28" t="s">
+        <v>34</v>
+      </c>
+      <c r="E15" s="28" t="s">
+        <v>72</v>
+      </c>
+      <c r="F15" s="28"/>
+      <c r="G15" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="H15" s="28" t="s">
+        <v>56</v>
+      </c>
+      <c r="I15" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="J15" s="28" t="s">
+        <v>61</v>
+      </c>
+      <c r="L15" s="24" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="15" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="D15" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="E15" s="29" t="s">
+    <row r="16" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="D16" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="E16" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="F16" s="28"/>
+      <c r="G16" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="H16" s="28" t="s">
+        <v>56</v>
+      </c>
+      <c r="I16" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="J16" s="28" t="s">
+        <v>61</v>
+      </c>
+      <c r="L16" s="24" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="17" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="D17" s="28" t="s">
+        <v>32</v>
+      </c>
+      <c r="E17" s="28" t="s">
         <v>72</v>
       </c>
-      <c r="F15" s="29"/>
-      <c r="G15" s="29" t="s">
-        <v>55</v>
-      </c>
-      <c r="H15" s="29" t="s">
-        <v>56</v>
-      </c>
-      <c r="I15" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="J15" s="29" t="s">
-        <v>61</v>
-      </c>
-      <c r="L15" s="25" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="16" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="D16" s="29" t="s">
-        <v>31</v>
-      </c>
-      <c r="E16" s="29" t="s">
-        <v>73</v>
-      </c>
-      <c r="F16" s="29"/>
-      <c r="G16" s="29" t="s">
-        <v>55</v>
-      </c>
-      <c r="H16" s="29" t="s">
-        <v>56</v>
-      </c>
-      <c r="I16" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="J16" s="29" t="s">
-        <v>61</v>
-      </c>
-      <c r="L16" s="25" t="s">
+      <c r="F17" s="28"/>
+      <c r="G17" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="H17" s="28" t="s">
+        <v>56</v>
+      </c>
+      <c r="I17" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="J17" s="28" t="s">
+        <v>61</v>
+      </c>
+      <c r="L17" s="24" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="D17" s="29" t="s">
-        <v>32</v>
-      </c>
-      <c r="E17" s="29" t="s">
-        <v>72</v>
-      </c>
-      <c r="F17" s="29"/>
-      <c r="G17" s="29" t="s">
-        <v>55</v>
-      </c>
-      <c r="H17" s="29" t="s">
-        <v>56</v>
-      </c>
-      <c r="I17" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="J17" s="29" t="s">
-        <v>61</v>
-      </c>
-      <c r="L17" s="25" t="s">
-        <v>155</v>
-      </c>
-    </row>
     <row r="18" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="C18" s="27"/>
-      <c r="D18" s="26"/>
-      <c r="E18" s="26"/>
-      <c r="F18" s="26"/>
-      <c r="G18" s="26"/>
-      <c r="H18" s="26"/>
-      <c r="I18" s="26"/>
-      <c r="J18" s="26"/>
+      <c r="C18" s="26"/>
+      <c r="D18" s="25"/>
+      <c r="E18" s="25"/>
+      <c r="F18" s="25"/>
+      <c r="G18" s="25"/>
+      <c r="H18" s="25"/>
+      <c r="I18" s="25"/>
+      <c r="J18" s="25"/>
     </row>
     <row r="19" spans="2:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C19" s="28"/>
-      <c r="D19" s="29" t="s">
+      <c r="C19" s="27"/>
+      <c r="D19" s="28" t="s">
         <v>47</v>
       </c>
-      <c r="E19" s="29" t="s">
+      <c r="E19" s="28" t="s">
         <v>71</v>
       </c>
-      <c r="F19" s="29"/>
-      <c r="G19" s="29" t="s">
-        <v>55</v>
-      </c>
-      <c r="H19" s="29" t="s">
-        <v>56</v>
-      </c>
-      <c r="I19" s="29"/>
-      <c r="J19" s="29" t="s">
-        <v>61</v>
-      </c>
-      <c r="L19" s="25" t="s">
-        <v>145</v>
+      <c r="F19" s="28"/>
+      <c r="G19" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="H19" s="28" t="s">
+        <v>56</v>
+      </c>
+      <c r="I19" s="28"/>
+      <c r="J19" s="28" t="s">
+        <v>61</v>
+      </c>
+      <c r="L19" s="24" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="20" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="C20" s="27"/>
-      <c r="D20" s="26" t="s">
+      <c r="C20" s="26"/>
+      <c r="D20" s="25" t="s">
         <v>57</v>
       </c>
-      <c r="E20" s="26" t="s">
+      <c r="E20" s="25" t="s">
         <v>71</v>
       </c>
-      <c r="F20" s="26"/>
-      <c r="G20" s="26" t="s">
-        <v>55</v>
-      </c>
-      <c r="H20" s="26" t="s">
-        <v>56</v>
-      </c>
-      <c r="I20" s="26" t="s">
-        <v>58</v>
-      </c>
-      <c r="J20" s="26" t="s">
-        <v>61</v>
-      </c>
-      <c r="L20" s="25" t="s">
+      <c r="F20" s="25"/>
+      <c r="G20" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="H20" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="I20" s="25" t="s">
+        <v>58</v>
+      </c>
+      <c r="J20" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="L20" s="24" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="21" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="D21" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="E21" s="25" t="s">
+        <v>71</v>
+      </c>
+      <c r="F21" s="25"/>
+      <c r="G21" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="H21" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="I21" s="25" t="s">
+        <v>58</v>
+      </c>
+      <c r="J21" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="L21" s="24" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="22" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="D22" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="E22" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="F22" s="25"/>
+      <c r="G22" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="H22" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="I22" s="25"/>
+      <c r="J22" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="L22" s="24" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="21" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="D21" s="26" t="s">
-        <v>48</v>
-      </c>
-      <c r="E21" s="26" t="s">
+    <row r="23" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="D23" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="E23" s="25" t="s">
         <v>71</v>
       </c>
-      <c r="F21" s="26"/>
-      <c r="G21" s="26" t="s">
-        <v>55</v>
-      </c>
-      <c r="H21" s="26" t="s">
-        <v>56</v>
-      </c>
-      <c r="I21" s="26" t="s">
-        <v>58</v>
-      </c>
-      <c r="J21" s="26" t="s">
-        <v>61</v>
-      </c>
-      <c r="L21" s="25" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="22" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="D22" s="26" t="s">
-        <v>49</v>
-      </c>
-      <c r="E22" s="26" t="s">
-        <v>76</v>
-      </c>
-      <c r="F22" s="26"/>
-      <c r="G22" s="26" t="s">
-        <v>55</v>
-      </c>
-      <c r="H22" s="26" t="s">
-        <v>56</v>
-      </c>
-      <c r="I22" s="26"/>
-      <c r="J22" s="26" t="s">
-        <v>61</v>
-      </c>
-      <c r="L22" s="25" t="s">
+      <c r="F23" s="25"/>
+      <c r="G23" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="H23" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="I23" s="25"/>
+      <c r="J23" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="L23" s="24" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="23" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="D23" s="26" t="s">
-        <v>50</v>
-      </c>
-      <c r="E23" s="26" t="s">
+    <row r="24" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="D24" s="28" t="s">
+        <v>51</v>
+      </c>
+      <c r="E24" s="28" t="s">
+        <v>77</v>
+      </c>
+      <c r="F24" s="28"/>
+      <c r="G24" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="H24" s="28" t="s">
+        <v>56</v>
+      </c>
+      <c r="I24" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="J24" s="28" t="s">
+        <v>61</v>
+      </c>
+      <c r="L24" s="24" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="25" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="D25" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="E25" s="25" t="s">
         <v>71</v>
       </c>
-      <c r="F23" s="26"/>
-      <c r="G23" s="26" t="s">
-        <v>55</v>
-      </c>
-      <c r="H23" s="26" t="s">
-        <v>56</v>
-      </c>
-      <c r="I23" s="26"/>
-      <c r="J23" s="26" t="s">
-        <v>61</v>
-      </c>
-      <c r="L23" s="25" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="24" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="D24" s="29" t="s">
-        <v>51</v>
-      </c>
-      <c r="E24" s="29" t="s">
-        <v>77</v>
-      </c>
-      <c r="F24" s="29"/>
-      <c r="G24" s="29" t="s">
-        <v>55</v>
-      </c>
-      <c r="H24" s="29" t="s">
-        <v>56</v>
-      </c>
-      <c r="I24" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="J24" s="29" t="s">
-        <v>61</v>
-      </c>
-      <c r="L24" s="25" t="s">
+      <c r="F25" s="25"/>
+      <c r="G25" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="H25" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="I25" s="25"/>
+      <c r="J25" s="25"/>
+      <c r="L25" s="24" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="25" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="D25" s="26" t="s">
-        <v>52</v>
-      </c>
-      <c r="E25" s="26" t="s">
+    <row r="26" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="D26" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="E26" s="25" t="s">
         <v>71</v>
       </c>
-      <c r="F25" s="26"/>
-      <c r="G25" s="26" t="s">
-        <v>55</v>
-      </c>
-      <c r="H25" s="26" t="s">
-        <v>56</v>
-      </c>
-      <c r="I25" s="26"/>
-      <c r="J25" s="26"/>
-      <c r="L25" s="25" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="26" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="D26" s="26" t="s">
-        <v>53</v>
-      </c>
-      <c r="E26" s="26" t="s">
+      <c r="F26" s="25"/>
+      <c r="G26" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="H26" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="I26" s="25" t="s">
+        <v>58</v>
+      </c>
+      <c r="J26" s="25"/>
+    </row>
+    <row r="27" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="D27" s="25" t="s">
+        <v>54</v>
+      </c>
+      <c r="E27" s="25" t="s">
         <v>71</v>
       </c>
-      <c r="F26" s="26"/>
-      <c r="G26" s="26" t="s">
-        <v>55</v>
-      </c>
-      <c r="H26" s="26" t="s">
-        <v>56</v>
-      </c>
-      <c r="I26" s="26" t="s">
-        <v>58</v>
-      </c>
-      <c r="J26" s="26"/>
-    </row>
-    <row r="27" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="D27" s="26" t="s">
-        <v>54</v>
-      </c>
-      <c r="E27" s="26" t="s">
-        <v>71</v>
-      </c>
-      <c r="F27" s="26"/>
-      <c r="G27" s="26" t="s">
-        <v>55</v>
-      </c>
-      <c r="H27" s="26" t="s">
-        <v>56</v>
-      </c>
-      <c r="I27" s="26"/>
-      <c r="J27" s="26"/>
+      <c r="F27" s="25"/>
+      <c r="G27" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="H27" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="I27" s="25"/>
+      <c r="J27" s="25"/>
     </row>
     <row r="28" spans="2:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B28" s="27"/>
-      <c r="C28" s="28"/>
-      <c r="D28" s="26" t="s">
+      <c r="B28" s="26"/>
+      <c r="C28" s="27"/>
+      <c r="D28" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="E28" s="26" t="s">
+      <c r="E28" s="25" t="s">
         <v>73</v>
       </c>
       <c r="F28" s="8"/>
@@ -1754,12 +1783,12 @@
       </c>
     </row>
     <row r="29" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B29" s="27"/>
-      <c r="C29" s="27"/>
-      <c r="D29" s="26" t="s">
+      <c r="B29" s="26"/>
+      <c r="C29" s="26"/>
+      <c r="D29" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="E29" s="26" t="s">
+      <c r="E29" s="25" t="s">
         <v>72</v>
       </c>
       <c r="F29" s="8"/>
@@ -1777,12 +1806,12 @@
       </c>
     </row>
     <row r="30" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B30" s="27"/>
-      <c r="C30" s="27"/>
-      <c r="D30" s="26" t="s">
+      <c r="B30" s="26"/>
+      <c r="C30" s="26"/>
+      <c r="D30" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="E30" s="26" t="s">
+      <c r="E30" s="25" t="s">
         <v>73</v>
       </c>
       <c r="F30" s="8"/>
@@ -1800,12 +1829,12 @@
       </c>
     </row>
     <row r="31" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B31" s="27"/>
-      <c r="C31" s="27"/>
-      <c r="D31" s="26" t="s">
+      <c r="B31" s="26"/>
+      <c r="C31" s="26"/>
+      <c r="D31" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="E31" s="26" t="s">
+      <c r="E31" s="25" t="s">
         <v>72</v>
       </c>
       <c r="F31" s="8"/>
@@ -1823,10 +1852,10 @@
       </c>
     </row>
     <row r="32" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="D32" s="26" t="s">
+      <c r="D32" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="E32" s="26" t="s">
+      <c r="E32" s="25" t="s">
         <v>73</v>
       </c>
       <c r="F32" s="8"/>
@@ -1844,10 +1873,10 @@
       </c>
     </row>
     <row r="33" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="D33" s="26" t="s">
+      <c r="D33" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="E33" s="26" t="s">
+      <c r="E33" s="25" t="s">
         <v>72</v>
       </c>
       <c r="F33" s="8"/>
@@ -1866,13 +1895,13 @@
     </row>
     <row r="37" spans="3:12" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C37" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="E37" s="3" t="s">
         <v>156</v>
-      </c>
-      <c r="D37" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="E37" s="3" t="s">
-        <v>157</v>
       </c>
       <c r="F37" s="3"/>
       <c r="G37" s="11" t="s">
@@ -1887,16 +1916,16 @@
       <c r="J37" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="L37" s="25" t="s">
-        <v>165</v>
+      <c r="L37" s="24" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="38" spans="3:12" x14ac:dyDescent="0.25">
       <c r="D38" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F38" s="3"/>
       <c r="G38" s="11" t="s">
@@ -1911,13 +1940,13 @@
       <c r="J38" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="L38" s="25" t="s">
-        <v>163</v>
+      <c r="L38" s="24" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="39" spans="3:12" x14ac:dyDescent="0.25">
       <c r="D39" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E39" s="3" t="s">
         <v>70</v>
@@ -1935,13 +1964,13 @@
       <c r="J39" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="L39" s="25" t="s">
-        <v>161</v>
+      <c r="L39" s="24" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="40" spans="3:12" x14ac:dyDescent="0.25">
       <c r="D40" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E40" s="3" t="s">
         <v>70</v>
@@ -1959,19 +1988,19 @@
       <c r="J40" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="L40" s="25" t="s">
-        <v>162</v>
+      <c r="L40" s="24" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="43" spans="3:12" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C43" s="7" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E43" s="5" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F43" s="5"/>
       <c r="G43" s="12" t="s">
@@ -1986,13 +2015,13 @@
       <c r="J43" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="L43" s="25" t="s">
-        <v>165</v>
+      <c r="L43" s="24" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="44" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D44" s="5" t="s">
         <v>25</v>
@@ -2013,8 +2042,8 @@
       <c r="J44" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="L44" s="25" t="s">
-        <v>128</v>
+      <c r="L44" s="24" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="45" spans="3:12" x14ac:dyDescent="0.25">
@@ -2037,8 +2066,8 @@
       <c r="J45" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="L45" s="25" t="s">
-        <v>129</v>
+      <c r="L45" s="24" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="46" spans="3:12" x14ac:dyDescent="0.25">
@@ -2061,8 +2090,8 @@
       <c r="J46" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="L46" s="25" t="s">
-        <v>131</v>
+      <c r="L46" s="24" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="47" spans="3:12" x14ac:dyDescent="0.25">
@@ -2085,8 +2114,8 @@
       <c r="J47" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="L47" s="25" t="s">
-        <v>130</v>
+      <c r="L47" s="24" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="48" spans="3:12" x14ac:dyDescent="0.25">
@@ -2109,8 +2138,8 @@
       <c r="J48" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="L48" s="25" t="s">
-        <v>135</v>
+      <c r="L48" s="24" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="49" spans="3:12" x14ac:dyDescent="0.25">
@@ -2133,8 +2162,8 @@
       <c r="J49" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="L49" s="25" t="s">
-        <v>133</v>
+      <c r="L49" s="24" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="50" spans="3:12" x14ac:dyDescent="0.25">
@@ -2157,8 +2186,8 @@
       <c r="J50" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="L50" s="25" t="s">
-        <v>136</v>
+      <c r="L50" s="24" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="51" spans="3:12" x14ac:dyDescent="0.25">
@@ -2181,13 +2210,13 @@
       <c r="J51" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="L51" s="25" t="s">
-        <v>134</v>
+      <c r="L51" s="24" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="52" spans="3:12" x14ac:dyDescent="0.25">
       <c r="D52" s="5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E52" s="5" t="s">
         <v>73</v>
@@ -2205,13 +2234,13 @@
       <c r="J52" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="L52" s="25" t="s">
-        <v>143</v>
+      <c r="L52" s="24" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="53" spans="3:12" x14ac:dyDescent="0.25">
       <c r="D53" s="5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E53" s="5" t="s">
         <v>72</v>
@@ -2229,13 +2258,13 @@
       <c r="J53" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="L53" s="25" t="s">
-        <v>144</v>
+      <c r="L53" s="24" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="54" spans="3:12" x14ac:dyDescent="0.25">
       <c r="D54" s="5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E54" s="5" t="s">
         <v>73</v>
@@ -2253,13 +2282,13 @@
       <c r="J54" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="L54" s="25" t="s">
-        <v>142</v>
+      <c r="L54" s="24" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="55" spans="3:12" x14ac:dyDescent="0.25">
       <c r="D55" s="5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E55" s="5" t="s">
         <v>72</v>
@@ -2277,19 +2306,19 @@
       <c r="J55" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="L55" s="25" t="s">
-        <v>137</v>
+      <c r="L55" s="24" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="59" spans="3:12" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C59" s="6" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F59" s="2"/>
       <c r="G59" s="13" t="s">
@@ -2304,19 +2333,19 @@
       <c r="J59" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="L59" s="25" t="s">
-        <v>165</v>
+      <c r="L59" s="24" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="60" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C60" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F60" s="2"/>
       <c r="G60" s="13" t="s">
@@ -2329,13 +2358,13 @@
       <c r="J60" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="L60" s="25" t="s">
-        <v>170</v>
+      <c r="L60" s="24" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="61" spans="3:12" x14ac:dyDescent="0.25">
       <c r="D61" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E61" s="2" t="s">
         <v>77</v>
@@ -2345,8 +2374,8 @@
       <c r="H61" s="13"/>
       <c r="I61" s="13"/>
       <c r="J61" s="13"/>
-      <c r="L61" s="25" t="s">
-        <v>177</v>
+      <c r="L61" s="24" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="62" spans="3:12" x14ac:dyDescent="0.25">
@@ -2365,488 +2394,464 @@
       <c r="J62" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="L62" s="25" t="s">
-        <v>134</v>
+      <c r="L62" s="24" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="64" spans="3:12" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C64" s="6" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F64" s="2"/>
-      <c r="G64" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="H64" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="I64" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="J64" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="L64" s="25" t="s">
-        <v>171</v>
+      <c r="G64" s="13"/>
+      <c r="H64" s="13"/>
+      <c r="I64" s="13"/>
+      <c r="J64" s="13"/>
+      <c r="L64" s="24" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="65" spans="3:12" x14ac:dyDescent="0.25">
       <c r="D65" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F65" s="2"/>
-      <c r="G65" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="H65" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="I65" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="J65" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="L65" s="25" t="s">
-        <v>172</v>
+      <c r="G65" s="13"/>
+      <c r="H65" s="13"/>
+      <c r="I65" s="13"/>
+      <c r="J65" s="13"/>
+      <c r="L65" s="24" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="66" spans="3:12" x14ac:dyDescent="0.25">
       <c r="D66" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F66" s="2"/>
-      <c r="G66" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="H66" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="I66" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="J66" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="L66" s="25" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="69" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C69" s="20" t="s">
+      <c r="G66" s="13"/>
+      <c r="H66" s="13"/>
+      <c r="I66" s="13"/>
+      <c r="J66" s="13"/>
+      <c r="L66" s="24" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="69" spans="3:12" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C69" s="33" t="s">
+        <v>183</v>
+      </c>
+      <c r="D69" s="20" t="s">
         <v>93</v>
       </c>
-      <c r="D69" s="21" t="s">
+      <c r="E69" s="21"/>
+      <c r="F69" s="21"/>
+      <c r="G69" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="H69" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="I69" s="22"/>
+      <c r="J69" s="22"/>
+    </row>
+    <row r="70" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="D70" s="20" t="s">
         <v>94</v>
       </c>
-      <c r="E69" s="22"/>
-      <c r="F69" s="22"/>
-      <c r="G69" s="23" t="s">
-        <v>55</v>
-      </c>
-      <c r="H69" s="23" t="s">
-        <v>56</v>
-      </c>
-      <c r="I69" s="23"/>
-      <c r="J69" s="23"/>
-    </row>
-    <row r="70" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="D70" s="21" t="s">
+      <c r="E70" s="21"/>
+      <c r="F70" s="21"/>
+      <c r="G70" s="22"/>
+      <c r="H70" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="I70" s="22"/>
+      <c r="J70" s="22" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="71" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="D71" s="20" t="s">
         <v>95</v>
       </c>
-      <c r="E70" s="22"/>
-      <c r="F70" s="22"/>
-      <c r="G70" s="23"/>
-      <c r="H70" s="23" t="s">
-        <v>56</v>
-      </c>
-      <c r="I70" s="23"/>
-      <c r="J70" s="23" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="71" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="D71" s="21" t="s">
+      <c r="E71" s="21"/>
+      <c r="F71" s="21"/>
+      <c r="G71" s="22"/>
+      <c r="H71" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="I71" s="22"/>
+      <c r="J71" s="22"/>
+    </row>
+    <row r="72" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="D72" s="23" t="s">
         <v>96</v>
       </c>
-      <c r="E71" s="22"/>
-      <c r="F71" s="22"/>
-      <c r="G71" s="23"/>
-      <c r="H71" s="23" t="s">
-        <v>56</v>
-      </c>
-      <c r="I71" s="23"/>
-      <c r="J71" s="23"/>
-    </row>
-    <row r="72" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="D72" s="24" t="s">
+      <c r="E72" s="21"/>
+      <c r="F72" s="21"/>
+      <c r="G72" s="22"/>
+      <c r="H72" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="I72" s="22"/>
+      <c r="J72" s="22"/>
+    </row>
+    <row r="73" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="D73" s="23" t="s">
         <v>97</v>
       </c>
-      <c r="E72" s="22"/>
-      <c r="F72" s="22"/>
-      <c r="G72" s="23"/>
-      <c r="H72" s="23" t="s">
-        <v>56</v>
-      </c>
-      <c r="I72" s="23"/>
-      <c r="J72" s="23"/>
-    </row>
-    <row r="73" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="D73" s="24" t="s">
+      <c r="E73" s="21"/>
+      <c r="F73" s="21"/>
+      <c r="G73" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="H73" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="I73" s="22"/>
+      <c r="J73" s="22"/>
+    </row>
+    <row r="74" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="D74" s="20" t="s">
         <v>98</v>
       </c>
-      <c r="E73" s="22"/>
-      <c r="F73" s="22"/>
-      <c r="G73" s="23" t="s">
-        <v>55</v>
-      </c>
-      <c r="H73" s="23" t="s">
-        <v>56</v>
-      </c>
-      <c r="I73" s="23"/>
-      <c r="J73" s="23"/>
-    </row>
-    <row r="74" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="D74" s="21" t="s">
+      <c r="E74" s="21"/>
+      <c r="F74" s="21"/>
+      <c r="G74" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="H74" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="I74" s="22"/>
+      <c r="J74" s="22" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="75" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="D75" s="20" t="s">
         <v>99</v>
       </c>
-      <c r="E74" s="22"/>
-      <c r="F74" s="22"/>
-      <c r="G74" s="23" t="s">
-        <v>55</v>
-      </c>
-      <c r="H74" s="23" t="s">
-        <v>56</v>
-      </c>
-      <c r="I74" s="23"/>
-      <c r="J74" s="23" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="75" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="D75" s="21" t="s">
+      <c r="E75" s="21"/>
+      <c r="F75" s="21"/>
+      <c r="G75" s="22"/>
+      <c r="H75" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="I75" s="22"/>
+      <c r="J75" s="22" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="76" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="D76" s="21" t="s">
         <v>100</v>
       </c>
-      <c r="E75" s="22"/>
-      <c r="F75" s="22"/>
-      <c r="G75" s="23"/>
-      <c r="H75" s="23" t="s">
-        <v>56</v>
-      </c>
-      <c r="I75" s="23"/>
-      <c r="J75" s="23" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="76" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="D76" s="22" t="s">
+      <c r="E76" s="21"/>
+      <c r="F76" s="21"/>
+      <c r="G76" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="H76" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="I76" s="22"/>
+      <c r="J76" s="22" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="77" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="D77" s="21" t="s">
         <v>101</v>
       </c>
-      <c r="E76" s="22"/>
-      <c r="F76" s="22"/>
-      <c r="G76" s="23" t="s">
-        <v>55</v>
-      </c>
-      <c r="H76" s="23" t="s">
-        <v>56</v>
-      </c>
-      <c r="I76" s="23"/>
-      <c r="J76" s="23" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="77" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="D77" s="22" t="s">
+      <c r="E77" s="21"/>
+      <c r="F77" s="21"/>
+      <c r="G77" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="H77" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="I77" s="22"/>
+      <c r="J77" s="22"/>
+    </row>
+    <row r="78" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="D78" s="21" t="s">
         <v>102</v>
       </c>
-      <c r="E77" s="22"/>
-      <c r="F77" s="22"/>
-      <c r="G77" s="23" t="s">
-        <v>55</v>
-      </c>
-      <c r="H77" s="23" t="s">
-        <v>56</v>
-      </c>
-      <c r="I77" s="23"/>
-      <c r="J77" s="23"/>
-    </row>
-    <row r="78" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="D78" s="22" t="s">
+      <c r="E78" s="21"/>
+      <c r="F78" s="21"/>
+      <c r="G78" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="H78" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="I78" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="J78" s="22" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="79" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="D79" s="21" t="s">
         <v>103</v>
       </c>
-      <c r="E78" s="22"/>
-      <c r="F78" s="22"/>
-      <c r="G78" s="23" t="s">
-        <v>55</v>
-      </c>
-      <c r="H78" s="23" t="s">
-        <v>56</v>
-      </c>
-      <c r="I78" s="23" t="s">
-        <v>58</v>
-      </c>
-      <c r="J78" s="23" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="79" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="D79" s="22" t="s">
+      <c r="E79" s="21"/>
+      <c r="F79" s="21"/>
+      <c r="G79" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="H79" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="I79" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="J79" s="22" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="80" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="D80" s="21" t="s">
         <v>104</v>
       </c>
-      <c r="E79" s="22"/>
-      <c r="F79" s="22"/>
-      <c r="G79" s="23" t="s">
-        <v>55</v>
-      </c>
-      <c r="H79" s="23" t="s">
-        <v>56</v>
-      </c>
-      <c r="I79" s="23" t="s">
-        <v>58</v>
-      </c>
-      <c r="J79" s="23" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="80" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="D80" s="22" t="s">
+      <c r="E80" s="21"/>
+      <c r="F80" s="21"/>
+      <c r="G80" s="22"/>
+      <c r="H80" s="22"/>
+      <c r="I80" s="22"/>
+      <c r="J80" s="22" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="81" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D81" s="21" t="s">
         <v>105</v>
       </c>
-      <c r="E80" s="22"/>
-      <c r="F80" s="22"/>
-      <c r="G80" s="23"/>
-      <c r="H80" s="23"/>
-      <c r="I80" s="23"/>
-      <c r="J80" s="23" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="81" spans="4:17" x14ac:dyDescent="0.25">
-      <c r="D81" s="22" t="s">
+      <c r="E81" s="21"/>
+      <c r="F81" s="21"/>
+      <c r="G81" s="22"/>
+      <c r="H81" s="22"/>
+      <c r="I81" s="22"/>
+      <c r="J81" s="22" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="82" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D82" s="21" t="s">
         <v>106</v>
       </c>
-      <c r="E81" s="22"/>
-      <c r="F81" s="22"/>
-      <c r="G81" s="23"/>
-      <c r="H81" s="23"/>
-      <c r="I81" s="23"/>
-      <c r="J81" s="23" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="82" spans="4:17" x14ac:dyDescent="0.25">
-      <c r="D82" s="22" t="s">
+      <c r="E82" s="21"/>
+      <c r="F82" s="21"/>
+      <c r="G82" s="22"/>
+      <c r="H82" s="22"/>
+      <c r="I82" s="22"/>
+      <c r="J82" s="22" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="83" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D83" s="21" t="s">
         <v>107</v>
       </c>
-      <c r="E82" s="22"/>
-      <c r="F82" s="22"/>
-      <c r="G82" s="23"/>
-      <c r="H82" s="23"/>
-      <c r="I82" s="23"/>
-      <c r="J82" s="23" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="83" spans="4:17" x14ac:dyDescent="0.25">
-      <c r="D83" s="22" t="s">
+      <c r="E83" s="21"/>
+      <c r="F83" s="21"/>
+      <c r="G83" s="22"/>
+      <c r="H83" s="22"/>
+      <c r="I83" s="22"/>
+      <c r="J83" s="22" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="84" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D84" s="21" t="s">
         <v>108</v>
       </c>
-      <c r="E83" s="22"/>
-      <c r="F83" s="22"/>
-      <c r="G83" s="23"/>
-      <c r="H83" s="23"/>
-      <c r="I83" s="23"/>
-      <c r="J83" s="23" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="84" spans="4:17" x14ac:dyDescent="0.25">
-      <c r="D84" s="22" t="s">
+      <c r="E84" s="21"/>
+      <c r="F84" s="21"/>
+      <c r="G84" s="22"/>
+      <c r="H84" s="22"/>
+      <c r="I84" s="22"/>
+      <c r="J84" s="22" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="85" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D85" s="21" t="s">
         <v>109</v>
       </c>
-      <c r="E84" s="22"/>
-      <c r="F84" s="22"/>
-      <c r="G84" s="23"/>
-      <c r="H84" s="23"/>
-      <c r="I84" s="23"/>
-      <c r="J84" s="23" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="85" spans="4:17" x14ac:dyDescent="0.25">
-      <c r="D85" s="22" t="s">
+      <c r="E85" s="21"/>
+      <c r="F85" s="21"/>
+      <c r="G85" s="22"/>
+      <c r="H85" s="22"/>
+      <c r="I85" s="22"/>
+      <c r="J85" s="22" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="86" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D86" s="21" t="s">
         <v>110</v>
       </c>
-      <c r="E85" s="22"/>
-      <c r="F85" s="22"/>
-      <c r="G85" s="23"/>
-      <c r="H85" s="23"/>
-      <c r="I85" s="23"/>
-      <c r="J85" s="23" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="86" spans="4:17" x14ac:dyDescent="0.25">
-      <c r="D86" s="22" t="s">
+      <c r="E86" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="F86" s="21"/>
+      <c r="G86" s="22"/>
+      <c r="H86" s="22"/>
+      <c r="I86" s="22"/>
+      <c r="J86" s="22" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="87" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D87" s="21" t="s">
         <v>111</v>
       </c>
-      <c r="E86" s="22" t="s">
+      <c r="E87" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="F87" s="21"/>
+      <c r="G87" s="22"/>
+      <c r="H87" s="22"/>
+      <c r="I87" s="22"/>
+      <c r="J87" s="22" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="88" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D88" s="21" t="s">
+        <v>112</v>
+      </c>
+      <c r="E88" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="F88" s="21"/>
+      <c r="G88" s="22"/>
+      <c r="H88" s="22"/>
+      <c r="I88" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="J88" s="22"/>
+    </row>
+    <row r="89" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D89" s="21" t="s">
+        <v>113</v>
+      </c>
+      <c r="E89" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="F89" s="21"/>
+      <c r="G89" s="22"/>
+      <c r="H89" s="22"/>
+      <c r="I89" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="J89" s="22"/>
+    </row>
+    <row r="90" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D90" s="21" t="s">
+        <v>114</v>
+      </c>
+      <c r="E90" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="F90" s="21"/>
+      <c r="G90" s="22"/>
+      <c r="H90" s="22"/>
+      <c r="I90" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="J90" s="22"/>
+    </row>
+    <row r="91" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D91" s="21" t="s">
+        <v>115</v>
+      </c>
+      <c r="E91" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="F91" s="21"/>
+      <c r="G91" s="22"/>
+      <c r="H91" s="22"/>
+      <c r="I91" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="J91" s="22"/>
+    </row>
+    <row r="92" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D92" s="21" t="s">
+        <v>116</v>
+      </c>
+      <c r="E92" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="F92" s="21"/>
+      <c r="G92" s="22"/>
+      <c r="H92" s="22"/>
+      <c r="I92" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="J92" s="22"/>
+    </row>
+    <row r="93" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D93" s="21" t="s">
+        <v>117</v>
+      </c>
+      <c r="E93" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="F93" s="21"/>
+      <c r="G93" s="22"/>
+      <c r="H93" s="22"/>
+      <c r="I93" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="J93" s="22"/>
+    </row>
+    <row r="94" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D94" s="21" t="s">
+        <v>118</v>
+      </c>
+      <c r="E94" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="F94" s="21"/>
+      <c r="G94" s="22"/>
+      <c r="H94" s="22"/>
+      <c r="I94" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="J94" s="22"/>
+    </row>
+    <row r="95" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D95" s="21" t="s">
+        <v>119</v>
+      </c>
+      <c r="E95" s="21" t="s">
         <v>77</v>
       </c>
-      <c r="F86" s="22"/>
-      <c r="G86" s="23"/>
-      <c r="H86" s="23"/>
-      <c r="I86" s="23"/>
-      <c r="J86" s="23" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="87" spans="4:17" x14ac:dyDescent="0.25">
-      <c r="D87" s="22" t="s">
-        <v>112</v>
-      </c>
-      <c r="E87" s="22" t="s">
-        <v>71</v>
-      </c>
-      <c r="F87" s="22"/>
-      <c r="G87" s="23"/>
-      <c r="H87" s="23"/>
-      <c r="I87" s="23"/>
-      <c r="J87" s="23" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="88" spans="4:17" x14ac:dyDescent="0.25">
-      <c r="D88" s="22" t="s">
-        <v>113</v>
-      </c>
-      <c r="E88" s="22" t="s">
-        <v>71</v>
-      </c>
-      <c r="F88" s="22"/>
-      <c r="G88" s="23"/>
-      <c r="H88" s="23"/>
-      <c r="I88" s="23" t="s">
-        <v>58</v>
-      </c>
-      <c r="J88" s="23"/>
-    </row>
-    <row r="89" spans="4:17" x14ac:dyDescent="0.25">
-      <c r="D89" s="22" t="s">
-        <v>114</v>
-      </c>
-      <c r="E89" s="22" t="s">
-        <v>71</v>
-      </c>
-      <c r="F89" s="22"/>
-      <c r="G89" s="23"/>
-      <c r="H89" s="23"/>
-      <c r="I89" s="23" t="s">
-        <v>58</v>
-      </c>
-      <c r="J89" s="23"/>
-    </row>
-    <row r="90" spans="4:17" x14ac:dyDescent="0.25">
-      <c r="D90" s="22" t="s">
-        <v>115</v>
-      </c>
-      <c r="E90" s="22" t="s">
-        <v>71</v>
-      </c>
-      <c r="F90" s="22"/>
-      <c r="G90" s="23"/>
-      <c r="H90" s="23"/>
-      <c r="I90" s="23" t="s">
-        <v>58</v>
-      </c>
-      <c r="J90" s="23"/>
-    </row>
-    <row r="91" spans="4:17" x14ac:dyDescent="0.25">
-      <c r="D91" s="22" t="s">
-        <v>116</v>
-      </c>
-      <c r="E91" s="22" t="s">
-        <v>71</v>
-      </c>
-      <c r="F91" s="22"/>
-      <c r="G91" s="23"/>
-      <c r="H91" s="23"/>
-      <c r="I91" s="23" t="s">
-        <v>58</v>
-      </c>
-      <c r="J91" s="23"/>
-    </row>
-    <row r="92" spans="4:17" x14ac:dyDescent="0.25">
-      <c r="D92" s="22" t="s">
-        <v>117</v>
-      </c>
-      <c r="E92" s="22" t="s">
-        <v>71</v>
-      </c>
-      <c r="F92" s="22"/>
-      <c r="G92" s="23"/>
-      <c r="H92" s="23"/>
-      <c r="I92" s="23" t="s">
-        <v>58</v>
-      </c>
-      <c r="J92" s="23"/>
-    </row>
-    <row r="93" spans="4:17" x14ac:dyDescent="0.25">
-      <c r="D93" s="22" t="s">
-        <v>118</v>
-      </c>
-      <c r="E93" s="22" t="s">
-        <v>71</v>
-      </c>
-      <c r="F93" s="22"/>
-      <c r="G93" s="23"/>
-      <c r="H93" s="23"/>
-      <c r="I93" s="23" t="s">
-        <v>58</v>
-      </c>
-      <c r="J93" s="23"/>
-    </row>
-    <row r="94" spans="4:17" x14ac:dyDescent="0.25">
-      <c r="D94" s="22" t="s">
-        <v>119</v>
-      </c>
-      <c r="E94" s="22" t="s">
-        <v>71</v>
-      </c>
-      <c r="F94" s="22"/>
-      <c r="G94" s="23"/>
-      <c r="H94" s="23"/>
-      <c r="I94" s="23" t="s">
-        <v>58</v>
-      </c>
-      <c r="J94" s="23"/>
-    </row>
-    <row r="95" spans="4:17" x14ac:dyDescent="0.25">
-      <c r="D95" s="22" t="s">
-        <v>120</v>
-      </c>
-      <c r="E95" s="22" t="s">
-        <v>77</v>
-      </c>
-      <c r="F95" s="22"/>
-      <c r="G95" s="23"/>
-      <c r="H95" s="23"/>
-      <c r="I95" s="23" t="s">
-        <v>58</v>
-      </c>
-      <c r="J95" s="23"/>
+      <c r="F95" s="21"/>
+      <c r="G95" s="22"/>
+      <c r="H95" s="22"/>
+      <c r="I95" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="J95" s="22"/>
       <c r="N95">
         <v>1.5</v>
       </c>
@@ -2864,13 +2869,13 @@
     </row>
     <row r="99" spans="3:12" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C99" s="6" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F99" s="2"/>
       <c r="G99" s="13" t="s">
@@ -2885,16 +2890,16 @@
       <c r="J99" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="L99" s="25" t="s">
-        <v>171</v>
+      <c r="L99" s="24" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="100" spans="3:12" x14ac:dyDescent="0.25">
       <c r="D100" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F100" s="2"/>
       <c r="G100" s="13" t="s">
@@ -2909,8 +2914,8 @@
       <c r="J100" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="L100" s="25" t="s">
-        <v>172</v>
+      <c r="L100" s="24" t="s">
+        <v>171</v>
       </c>
     </row>
   </sheetData>
@@ -2921,10 +2926,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34254B72-E725-42AE-AE7F-4C051E4E8C4A}">
-  <dimension ref="D5:J70"/>
+  <dimension ref="D5:O70"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="P38" sqref="P38"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2936,20 +2941,28 @@
     <col min="8" max="8" width="2.85546875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="2.7109375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="2.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="86.28515625" customWidth="1"/>
+    <col min="14" max="14" width="36.140625" customWidth="1"/>
+    <col min="15" max="15" width="33" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="4:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D5" s="37" t="s">
-        <v>180</v>
-      </c>
-      <c r="E5" s="38"/>
-      <c r="F5" s="38"/>
-      <c r="G5" s="38"/>
-      <c r="H5" s="38"/>
-      <c r="I5" s="38"/>
-      <c r="J5" s="38"/>
-    </row>
-    <row r="6" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="4:15" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="D5" s="36" t="s">
+        <v>179</v>
+      </c>
+      <c r="E5" s="37"/>
+      <c r="F5" s="37"/>
+      <c r="G5" s="37"/>
+      <c r="H5" s="37"/>
+      <c r="I5" s="37"/>
+      <c r="J5" s="37"/>
+      <c r="M5" s="33" t="s">
+        <v>184</v>
+      </c>
+      <c r="N5" s="32"/>
+      <c r="O5" s="32"/>
+    </row>
+    <row r="6" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D6" s="9" t="s">
         <v>87</v>
       </c>
@@ -2967,8 +2980,15 @@
       <c r="J6" s="14" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="7" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="M6" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N6" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="O6" s="11"/>
+    </row>
+    <row r="7" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D7" s="9" t="s">
         <v>78</v>
       </c>
@@ -2986,8 +3006,15 @@
       <c r="J7" s="14" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="8" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="M7" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="N7" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="O7" s="11"/>
+    </row>
+    <row r="8" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D8" s="9" t="s">
         <v>81</v>
       </c>
@@ -3003,8 +3030,15 @@
         <v>58</v>
       </c>
       <c r="J8" s="14"/>
-    </row>
-    <row r="9" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="M8" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="N8" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="O8" s="11"/>
+    </row>
+    <row r="9" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D9" s="9" t="s">
         <v>82</v>
       </c>
@@ -3020,8 +3054,15 @@
         <v>58</v>
       </c>
       <c r="J9" s="14"/>
-    </row>
-    <row r="10" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="M9" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="N9" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="O9" s="11"/>
+    </row>
+    <row r="10" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D10" s="9" t="s">
         <v>83</v>
       </c>
@@ -3037,8 +3078,15 @@
         <v>58</v>
       </c>
       <c r="J10" s="14"/>
-    </row>
-    <row r="11" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="M10" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="N10" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="O10" s="11"/>
+    </row>
+    <row r="11" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D11" s="9" t="s">
         <v>84</v>
       </c>
@@ -3054,8 +3102,15 @@
         <v>58</v>
       </c>
       <c r="J11" s="14"/>
-    </row>
-    <row r="12" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="M11" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="N11" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="O11" s="11"/>
+    </row>
+    <row r="12" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D12" s="9" t="s">
         <v>88</v>
       </c>
@@ -3070,7 +3125,7 @@
       <c r="I12" s="14"/>
       <c r="J12" s="14"/>
     </row>
-    <row r="13" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D13" s="9" t="s">
         <v>89</v>
       </c>
@@ -3085,7 +3140,7 @@
       <c r="I13" s="14"/>
       <c r="J13" s="14"/>
     </row>
-    <row r="14" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D14" s="9" t="s">
         <v>91</v>
       </c>
@@ -3100,7 +3155,7 @@
       <c r="I14" s="14"/>
       <c r="J14" s="14"/>
     </row>
-    <row r="15" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D15" s="9" t="s">
         <v>90</v>
       </c>
@@ -3115,7 +3170,7 @@
       <c r="I15" s="14"/>
       <c r="J15" s="14"/>
     </row>
-    <row r="16" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D16" s="9" t="s">
         <v>86</v>
       </c>
@@ -3186,195 +3241,195 @@
       </c>
     </row>
     <row r="24" spans="4:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D24" s="36" t="s">
+      <c r="D24" s="35" t="s">
+        <v>180</v>
+      </c>
+      <c r="E24" s="21"/>
+      <c r="F24" s="21"/>
+      <c r="G24" s="21"/>
+      <c r="H24" s="21"/>
+      <c r="I24" s="21"/>
+      <c r="J24" s="21"/>
+    </row>
+    <row r="25" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D25" s="34" t="s">
+        <v>41</v>
+      </c>
+      <c r="E25" s="34"/>
+      <c r="F25" s="34"/>
+      <c r="G25" s="34"/>
+      <c r="H25" s="34"/>
+      <c r="I25" s="34"/>
+      <c r="J25" s="34"/>
+    </row>
+    <row r="26" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D26" s="34" t="s">
+        <v>44</v>
+      </c>
+      <c r="E26" s="34"/>
+      <c r="F26" s="34"/>
+      <c r="G26" s="34"/>
+      <c r="H26" s="34"/>
+      <c r="I26" s="34"/>
+      <c r="J26" s="34"/>
+    </row>
+    <row r="27" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D27" s="34" t="s">
+        <v>42</v>
+      </c>
+      <c r="E27" s="34"/>
+      <c r="F27" s="34"/>
+      <c r="G27" s="34"/>
+      <c r="H27" s="34"/>
+      <c r="I27" s="34"/>
+      <c r="J27" s="34"/>
+    </row>
+    <row r="28" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D28" s="34" t="s">
+        <v>45</v>
+      </c>
+      <c r="E28" s="34"/>
+      <c r="F28" s="34"/>
+      <c r="G28" s="34"/>
+      <c r="H28" s="34"/>
+      <c r="I28" s="34"/>
+      <c r="J28" s="34"/>
+    </row>
+    <row r="29" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D29" s="34" t="s">
+        <v>62</v>
+      </c>
+      <c r="E29" s="34"/>
+      <c r="F29" s="34"/>
+      <c r="G29" s="34"/>
+      <c r="H29" s="34"/>
+      <c r="I29" s="34"/>
+      <c r="J29" s="34"/>
+    </row>
+    <row r="30" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D30" s="34" t="s">
+        <v>63</v>
+      </c>
+      <c r="E30" s="34"/>
+      <c r="F30" s="34"/>
+      <c r="G30" s="34"/>
+      <c r="H30" s="34"/>
+      <c r="I30" s="34"/>
+      <c r="J30" s="34"/>
+    </row>
+    <row r="31" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D31" s="34" t="s">
+        <v>64</v>
+      </c>
+      <c r="E31" s="34"/>
+      <c r="F31" s="34"/>
+      <c r="G31" s="34"/>
+      <c r="H31" s="34"/>
+      <c r="I31" s="34"/>
+      <c r="J31" s="34"/>
+    </row>
+    <row r="32" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D32" s="34" t="s">
+        <v>65</v>
+      </c>
+      <c r="E32" s="34"/>
+      <c r="F32" s="34"/>
+      <c r="G32" s="34"/>
+      <c r="H32" s="34"/>
+      <c r="I32" s="34"/>
+      <c r="J32" s="34"/>
+    </row>
+    <row r="33" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D33" s="34" t="s">
+        <v>66</v>
+      </c>
+      <c r="E33" s="34"/>
+      <c r="F33" s="34"/>
+      <c r="G33" s="34"/>
+      <c r="H33" s="34"/>
+      <c r="I33" s="34"/>
+      <c r="J33" s="34"/>
+    </row>
+    <row r="34" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D34" s="34" t="s">
+        <v>67</v>
+      </c>
+      <c r="E34" s="34"/>
+      <c r="F34" s="34"/>
+      <c r="G34" s="34"/>
+      <c r="H34" s="34"/>
+      <c r="I34" s="34"/>
+      <c r="J34" s="34"/>
+    </row>
+    <row r="35" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D35" s="34" t="s">
+        <v>68</v>
+      </c>
+      <c r="E35" s="34"/>
+      <c r="F35" s="34"/>
+      <c r="G35" s="34"/>
+      <c r="H35" s="34"/>
+      <c r="I35" s="34"/>
+      <c r="J35" s="34"/>
+    </row>
+    <row r="36" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D36" s="34" t="s">
+        <v>69</v>
+      </c>
+      <c r="E36" s="34"/>
+      <c r="F36" s="34"/>
+      <c r="G36" s="34"/>
+      <c r="H36" s="34"/>
+      <c r="I36" s="34"/>
+      <c r="J36" s="34"/>
+    </row>
+    <row r="37" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D37" s="34" t="s">
+        <v>59</v>
+      </c>
+      <c r="E37" s="34"/>
+      <c r="F37" s="34"/>
+      <c r="G37" s="34"/>
+      <c r="H37" s="34"/>
+      <c r="I37" s="34"/>
+      <c r="J37" s="34"/>
+    </row>
+    <row r="38" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D38" s="34" t="s">
+        <v>60</v>
+      </c>
+      <c r="E38" s="34"/>
+      <c r="F38" s="34"/>
+      <c r="G38" s="34"/>
+      <c r="H38" s="34"/>
+      <c r="I38" s="34"/>
+      <c r="J38" s="34"/>
+    </row>
+    <row r="39" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D39" s="34" t="s">
+        <v>43</v>
+      </c>
+      <c r="E39" s="34"/>
+      <c r="F39" s="34"/>
+      <c r="G39" s="34"/>
+      <c r="H39" s="34"/>
+      <c r="I39" s="34"/>
+      <c r="J39" s="34"/>
+    </row>
+    <row r="42" spans="4:10" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="D42" s="33" t="s">
         <v>181</v>
       </c>
-      <c r="E24" s="22"/>
-      <c r="F24" s="22"/>
-      <c r="G24" s="22"/>
-      <c r="H24" s="22"/>
-      <c r="I24" s="22"/>
-      <c r="J24" s="22"/>
-    </row>
-    <row r="25" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D25" s="35" t="s">
-        <v>41</v>
-      </c>
-      <c r="E25" s="35"/>
-      <c r="F25" s="35"/>
-      <c r="G25" s="35"/>
-      <c r="H25" s="35"/>
-      <c r="I25" s="35"/>
-      <c r="J25" s="35"/>
-    </row>
-    <row r="26" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D26" s="35" t="s">
-        <v>44</v>
-      </c>
-      <c r="E26" s="35"/>
-      <c r="F26" s="35"/>
-      <c r="G26" s="35"/>
-      <c r="H26" s="35"/>
-      <c r="I26" s="35"/>
-      <c r="J26" s="35"/>
-    </row>
-    <row r="27" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D27" s="35" t="s">
-        <v>42</v>
-      </c>
-      <c r="E27" s="35"/>
-      <c r="F27" s="35"/>
-      <c r="G27" s="35"/>
-      <c r="H27" s="35"/>
-      <c r="I27" s="35"/>
-      <c r="J27" s="35"/>
-    </row>
-    <row r="28" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D28" s="35" t="s">
-        <v>45</v>
-      </c>
-      <c r="E28" s="35"/>
-      <c r="F28" s="35"/>
-      <c r="G28" s="35"/>
-      <c r="H28" s="35"/>
-      <c r="I28" s="35"/>
-      <c r="J28" s="35"/>
-    </row>
-    <row r="29" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D29" s="35" t="s">
-        <v>62</v>
-      </c>
-      <c r="E29" s="35"/>
-      <c r="F29" s="35"/>
-      <c r="G29" s="35"/>
-      <c r="H29" s="35"/>
-      <c r="I29" s="35"/>
-      <c r="J29" s="35"/>
-    </row>
-    <row r="30" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D30" s="35" t="s">
-        <v>63</v>
-      </c>
-      <c r="E30" s="35"/>
-      <c r="F30" s="35"/>
-      <c r="G30" s="35"/>
-      <c r="H30" s="35"/>
-      <c r="I30" s="35"/>
-      <c r="J30" s="35"/>
-    </row>
-    <row r="31" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D31" s="35" t="s">
-        <v>64</v>
-      </c>
-      <c r="E31" s="35"/>
-      <c r="F31" s="35"/>
-      <c r="G31" s="35"/>
-      <c r="H31" s="35"/>
-      <c r="I31" s="35"/>
-      <c r="J31" s="35"/>
-    </row>
-    <row r="32" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D32" s="35" t="s">
-        <v>65</v>
-      </c>
-      <c r="E32" s="35"/>
-      <c r="F32" s="35"/>
-      <c r="G32" s="35"/>
-      <c r="H32" s="35"/>
-      <c r="I32" s="35"/>
-      <c r="J32" s="35"/>
-    </row>
-    <row r="33" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D33" s="35" t="s">
-        <v>66</v>
-      </c>
-      <c r="E33" s="35"/>
-      <c r="F33" s="35"/>
-      <c r="G33" s="35"/>
-      <c r="H33" s="35"/>
-      <c r="I33" s="35"/>
-      <c r="J33" s="35"/>
-    </row>
-    <row r="34" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D34" s="35" t="s">
-        <v>67</v>
-      </c>
-      <c r="E34" s="35"/>
-      <c r="F34" s="35"/>
-      <c r="G34" s="35"/>
-      <c r="H34" s="35"/>
-      <c r="I34" s="35"/>
-      <c r="J34" s="35"/>
-    </row>
-    <row r="35" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D35" s="35" t="s">
-        <v>68</v>
-      </c>
-      <c r="E35" s="35"/>
-      <c r="F35" s="35"/>
-      <c r="G35" s="35"/>
-      <c r="H35" s="35"/>
-      <c r="I35" s="35"/>
-      <c r="J35" s="35"/>
-    </row>
-    <row r="36" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D36" s="35" t="s">
-        <v>69</v>
-      </c>
-      <c r="E36" s="35"/>
-      <c r="F36" s="35"/>
-      <c r="G36" s="35"/>
-      <c r="H36" s="35"/>
-      <c r="I36" s="35"/>
-      <c r="J36" s="35"/>
-    </row>
-    <row r="37" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D37" s="35" t="s">
-        <v>59</v>
-      </c>
-      <c r="E37" s="35"/>
-      <c r="F37" s="35"/>
-      <c r="G37" s="35"/>
-      <c r="H37" s="35"/>
-      <c r="I37" s="35"/>
-      <c r="J37" s="35"/>
-    </row>
-    <row r="38" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D38" s="35" t="s">
-        <v>60</v>
-      </c>
-      <c r="E38" s="35"/>
-      <c r="F38" s="35"/>
-      <c r="G38" s="35"/>
-      <c r="H38" s="35"/>
-      <c r="I38" s="35"/>
-      <c r="J38" s="35"/>
-    </row>
-    <row r="39" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D39" s="35" t="s">
-        <v>43</v>
-      </c>
-      <c r="E39" s="35"/>
-      <c r="F39" s="35"/>
-      <c r="G39" s="35"/>
-      <c r="H39" s="35"/>
-      <c r="I39" s="35"/>
-      <c r="J39" s="35"/>
-    </row>
-    <row r="42" spans="4:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D42" s="34" t="s">
-        <v>182</v>
-      </c>
-      <c r="E42" s="33"/>
-      <c r="F42" s="33"/>
-      <c r="G42" s="33"/>
-      <c r="H42" s="33"/>
-      <c r="I42" s="33"/>
-      <c r="J42" s="33"/>
+      <c r="E42" s="32"/>
+      <c r="F42" s="32"/>
+      <c r="G42" s="32"/>
+      <c r="H42" s="32"/>
+      <c r="I42" s="32"/>
+      <c r="J42" s="32"/>
     </row>
     <row r="43" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D43" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E43" s="3"/>
       <c r="F43" s="11"/>
@@ -3389,7 +3444,7 @@
     </row>
     <row r="44" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D44" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E44" s="3"/>
       <c r="F44" s="11"/>
@@ -3404,7 +3459,7 @@
     </row>
     <row r="45" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D45" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E45" s="3"/>
       <c r="F45" s="11"/>
@@ -3417,7 +3472,7 @@
     </row>
     <row r="46" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D46" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E46" s="3"/>
       <c r="F46" s="11"/>
@@ -3430,7 +3485,7 @@
     </row>
     <row r="47" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D47" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E47" s="3"/>
       <c r="F47" s="11"/>
@@ -3445,7 +3500,7 @@
     </row>
     <row r="48" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D48" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E48" s="3"/>
       <c r="F48" s="11"/>
@@ -3462,7 +3517,7 @@
     </row>
     <row r="49" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D49" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E49" s="3"/>
       <c r="F49" s="11"/>
@@ -3477,7 +3532,7 @@
     </row>
     <row r="50" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D50" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E50" s="3"/>
       <c r="F50" s="11"/>
@@ -3494,7 +3549,7 @@
     </row>
     <row r="51" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D51" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E51" s="3"/>
       <c r="F51" s="11"/>
@@ -3509,7 +3564,7 @@
     </row>
     <row r="52" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D52" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E52" s="3"/>
       <c r="F52" s="11"/>
@@ -3528,7 +3583,7 @@
     </row>
     <row r="53" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D53" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E53" s="3"/>
       <c r="F53" s="11"/>
@@ -3547,7 +3602,7 @@
     </row>
     <row r="54" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D54" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E54" s="3"/>
       <c r="F54" s="11"/>
@@ -3560,7 +3615,7 @@
     </row>
     <row r="55" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D55" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E55" s="3"/>
       <c r="F55" s="11"/>
@@ -3573,7 +3628,7 @@
     </row>
     <row r="56" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D56" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E56" s="3"/>
       <c r="F56" s="11"/>
@@ -3586,7 +3641,7 @@
     </row>
     <row r="57" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D57" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E57" s="3"/>
       <c r="F57" s="11"/>
@@ -3599,7 +3654,7 @@
     </row>
     <row r="58" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D58" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E58" s="3"/>
       <c r="F58" s="11"/>
@@ -3612,7 +3667,7 @@
     </row>
     <row r="59" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D59" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E59" s="3"/>
       <c r="F59" s="11"/>
@@ -3625,7 +3680,7 @@
     </row>
     <row r="60" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D60" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E60" s="3" t="s">
         <v>77</v>
@@ -3640,7 +3695,7 @@
     </row>
     <row r="61" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D61" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E61" s="3" t="s">
         <v>71</v>
@@ -3655,7 +3710,7 @@
     </row>
     <row r="62" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D62" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E62" s="3" t="s">
         <v>71</v>
@@ -3670,7 +3725,7 @@
     </row>
     <row r="63" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D63" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E63" s="3" t="s">
         <v>71</v>
@@ -3685,7 +3740,7 @@
     </row>
     <row r="64" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D64" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E64" s="3" t="s">
         <v>71</v>
@@ -3700,7 +3755,7 @@
     </row>
     <row r="65" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D65" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E65" s="3" t="s">
         <v>71</v>
@@ -3715,7 +3770,7 @@
     </row>
     <row r="66" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D66" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E66" s="3" t="s">
         <v>71</v>
@@ -3730,7 +3785,7 @@
     </row>
     <row r="67" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D67" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E67" s="3" t="s">
         <v>71</v>
@@ -3745,7 +3800,7 @@
     </row>
     <row r="68" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D68" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E68" s="3" t="s">
         <v>71</v>
@@ -3760,7 +3815,7 @@
     </row>
     <row r="69" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D69" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E69" s="3" t="s">
         <v>77</v>

--- a/Doc/project.xlsx
+++ b/Doc/project.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\vs\WebApp\ASP.NET_Core\MwProject\Doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{736DD268-E026-496C-A3A1-A9BE397FFCEB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94A1A2A4-5ECE-42D8-A03B-7EE55CA4F861}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="592" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="585" uniqueCount="187">
   <si>
     <t xml:space="preserve">Temat projektu </t>
   </si>
@@ -161,21 +161,6 @@
     <t>Przyjął Data</t>
   </si>
   <si>
-    <t>Nowa forma (formy) do zamówienia:</t>
-  </si>
-  <si>
-    <t>Nowa prasa wulkanizacyjna:</t>
-  </si>
-  <si>
-    <t>Inne</t>
-  </si>
-  <si>
-    <t>nowa forma komentarz</t>
-  </si>
-  <si>
-    <t>nowa prasa komentarz</t>
-  </si>
-  <si>
     <t>komentarz</t>
   </si>
   <si>
@@ -215,39 +200,9 @@
     <t>M</t>
   </si>
   <si>
-    <t>modyfikacja linii</t>
-  </si>
-  <si>
-    <t>modyfikacja linii komentarz</t>
-  </si>
-  <si>
     <t>O</t>
   </si>
   <si>
-    <t>nowa maszyna konfekcyjna</t>
-  </si>
-  <si>
-    <t>nowa maszyna konfekcyjna komentarz</t>
-  </si>
-  <si>
-    <t>nowy bęben konfekcyjny</t>
-  </si>
-  <si>
-    <t>nowy bęben konfekcyjny komentarz</t>
-  </si>
-  <si>
-    <t>nowe płyty boczne</t>
-  </si>
-  <si>
-    <t>nowe płyty boczne komentarz</t>
-  </si>
-  <si>
-    <t>nowe pierścienie stopowe</t>
-  </si>
-  <si>
-    <t>nowe pierścienie stopowe komentarz</t>
-  </si>
-  <si>
     <t>numecic(10,2)</t>
   </si>
   <si>
@@ -278,39 +233,9 @@
     <t>Czy brać pod uwagę USA</t>
   </si>
   <si>
-    <t>Komentarze/Zagrożenia BHP i Środowisko:</t>
-  </si>
-  <si>
-    <t>wymagania logistyczne: pakowanie</t>
-  </si>
-  <si>
-    <t>wymagania logistyczne: przechowywanie</t>
-  </si>
-  <si>
-    <t>wymagania logistyczne: dostawa</t>
-  </si>
-  <si>
-    <t>wymagania logistyczne: transport</t>
-  </si>
-  <si>
-    <t>inne wymagania</t>
-  </si>
-  <si>
-    <t>zastępuje wyrób</t>
-  </si>
-  <si>
     <t>Wymagane certyfikaty QES</t>
   </si>
   <si>
-    <t>czy seria próbna</t>
-  </si>
-  <si>
-    <t>czy wymagane testy u klienta</t>
-  </si>
-  <si>
-    <t>czy wymagane zatwierdzenie klienta</t>
-  </si>
-  <si>
     <t>testowane parametry</t>
   </si>
   <si>
@@ -618,6 +543,60 @@
   </si>
   <si>
     <t>Załącznik nr 1 KP2-NW/00.00</t>
+  </si>
+  <si>
+    <t>Nowa forma (formy)</t>
+  </si>
+  <si>
+    <t>Inne wymagania</t>
+  </si>
+  <si>
+    <t>Nowa prasa wulkanizacyjna</t>
+  </si>
+  <si>
+    <t>Nowa maszyna konfekcyjna</t>
+  </si>
+  <si>
+    <t>Nowy bęben konfekcyjny</t>
+  </si>
+  <si>
+    <t>Nowe płyty boczne</t>
+  </si>
+  <si>
+    <t>Nowe pierścienie stopowe</t>
+  </si>
+  <si>
+    <t>Modyfikacja linii</t>
+  </si>
+  <si>
+    <t>Wymagania logistyczne: pakowanie</t>
+  </si>
+  <si>
+    <t>Wymagania logistyczne: przechowywanie</t>
+  </si>
+  <si>
+    <t>Wymagania logistyczne: dostawa</t>
+  </si>
+  <si>
+    <t>Wymagania logistyczne: transport</t>
+  </si>
+  <si>
+    <t>Czy wymagana seria próbna</t>
+  </si>
+  <si>
+    <t>Czy wymagane testy u klienta</t>
+  </si>
+  <si>
+    <t>Czy wymagane zatwierdzenie klienta</t>
+  </si>
+  <si>
+    <t>Zastępuje wyrób</t>
+  </si>
+  <si>
+    <t>Inne wymagania jakościowe</t>
+  </si>
+  <si>
+    <t>Zagrożenia BHP i Środowisko:</t>
   </si>
 </sst>
 </file>
@@ -1318,7 +1297,7 @@
   <sheetData>
     <row r="7" spans="3:12" ht="21" x14ac:dyDescent="0.35">
       <c r="C7" s="31" t="s">
-        <v>120</v>
+        <v>95</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
@@ -1330,26 +1309,26 @@
     </row>
     <row r="8" spans="3:12" x14ac:dyDescent="0.25">
       <c r="D8" s="28" t="s">
-        <v>145</v>
+        <v>120</v>
       </c>
       <c r="E8" s="28" t="s">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="F8" s="8"/>
       <c r="G8" s="8" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="I8" s="8" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="J8" s="8" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="L8" s="24" t="s">
-        <v>146</v>
+        <v>121</v>
       </c>
     </row>
     <row r="9" spans="3:12" x14ac:dyDescent="0.25">
@@ -1357,23 +1336,23 @@
         <v>23</v>
       </c>
       <c r="E9" s="28" t="s">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="F9" s="28"/>
       <c r="G9" s="28" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="H9" s="28" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="I9" s="28" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="J9" s="28" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="L9" s="24" t="s">
-        <v>147</v>
+        <v>122</v>
       </c>
     </row>
     <row r="10" spans="3:12" x14ac:dyDescent="0.25">
@@ -1381,47 +1360,47 @@
         <v>24</v>
       </c>
       <c r="E10" s="28" t="s">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="F10" s="29"/>
       <c r="G10" s="29" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="H10" s="29" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="I10" s="29" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="J10" s="29" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="L10" s="24" t="s">
-        <v>148</v>
+        <v>123</v>
       </c>
     </row>
     <row r="11" spans="3:12" x14ac:dyDescent="0.25">
       <c r="D11" s="28" t="s">
-        <v>131</v>
+        <v>106</v>
       </c>
       <c r="E11" s="28" t="s">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="F11" s="29"/>
       <c r="G11" s="29" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="H11" s="29" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="I11" s="29" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="J11" s="29" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="L11" s="24" t="s">
-        <v>149</v>
+        <v>124</v>
       </c>
     </row>
     <row r="12" spans="3:12" x14ac:dyDescent="0.25">
@@ -1429,23 +1408,23 @@
         <v>8</v>
       </c>
       <c r="E12" s="28" t="s">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="F12" s="8"/>
       <c r="G12" s="29" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="H12" s="29" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="I12" s="29" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="J12" s="29" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="L12" s="24" t="s">
-        <v>150</v>
+        <v>125</v>
       </c>
     </row>
     <row r="13" spans="3:12" x14ac:dyDescent="0.25">
@@ -1462,23 +1441,23 @@
         <v>33</v>
       </c>
       <c r="E14" s="28" t="s">
-        <v>73</v>
+        <v>58</v>
       </c>
       <c r="F14" s="28"/>
       <c r="G14" s="28" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="H14" s="28" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="I14" s="28" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="J14" s="28" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="L14" s="24" t="s">
-        <v>151</v>
+        <v>126</v>
       </c>
     </row>
     <row r="15" spans="3:12" x14ac:dyDescent="0.25">
@@ -1486,23 +1465,23 @@
         <v>34</v>
       </c>
       <c r="E15" s="28" t="s">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="F15" s="28"/>
       <c r="G15" s="28" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="H15" s="28" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="I15" s="28" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="J15" s="28" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="L15" s="24" t="s">
-        <v>152</v>
+        <v>127</v>
       </c>
     </row>
     <row r="16" spans="3:12" x14ac:dyDescent="0.25">
@@ -1510,23 +1489,23 @@
         <v>31</v>
       </c>
       <c r="E16" s="28" t="s">
-        <v>73</v>
+        <v>58</v>
       </c>
       <c r="F16" s="28"/>
       <c r="G16" s="28" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="H16" s="28" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="I16" s="28" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="J16" s="28" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="L16" s="24" t="s">
-        <v>153</v>
+        <v>128</v>
       </c>
     </row>
     <row r="17" spans="2:12" x14ac:dyDescent="0.25">
@@ -1534,23 +1513,23 @@
         <v>32</v>
       </c>
       <c r="E17" s="28" t="s">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="F17" s="28"/>
       <c r="G17" s="28" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="H17" s="28" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="I17" s="28" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="J17" s="28" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="L17" s="24" t="s">
-        <v>154</v>
+        <v>129</v>
       </c>
     </row>
     <row r="18" spans="2:12" x14ac:dyDescent="0.25">
@@ -1566,195 +1545,195 @@
     <row r="19" spans="2:12" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C19" s="27"/>
       <c r="D19" s="28" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="E19" s="28" t="s">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="F19" s="28"/>
       <c r="G19" s="28" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="H19" s="28" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="I19" s="28"/>
       <c r="J19" s="28" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="L19" s="24" t="s">
-        <v>144</v>
+        <v>119</v>
       </c>
     </row>
     <row r="20" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C20" s="26"/>
       <c r="D20" s="25" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="E20" s="25" t="s">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="F20" s="25"/>
       <c r="G20" s="25" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="H20" s="25" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="I20" s="25" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="J20" s="25" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="L20" s="24" t="s">
-        <v>122</v>
+        <v>97</v>
       </c>
     </row>
     <row r="21" spans="2:12" x14ac:dyDescent="0.25">
       <c r="D21" s="25" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="E21" s="25" t="s">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="F21" s="25"/>
       <c r="G21" s="25" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="H21" s="25" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="I21" s="25" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="J21" s="25" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="L21" s="24" t="s">
-        <v>121</v>
+        <v>96</v>
       </c>
     </row>
     <row r="22" spans="2:12" x14ac:dyDescent="0.25">
       <c r="D22" s="25" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="E22" s="25" t="s">
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="F22" s="25"/>
       <c r="G22" s="25" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="H22" s="25" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="I22" s="25"/>
       <c r="J22" s="25" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="L22" s="24" t="s">
-        <v>123</v>
+        <v>98</v>
       </c>
     </row>
     <row r="23" spans="2:12" x14ac:dyDescent="0.25">
       <c r="D23" s="25" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="E23" s="25" t="s">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="F23" s="25"/>
       <c r="G23" s="25" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="H23" s="25" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="I23" s="25"/>
       <c r="J23" s="25" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="L23" s="24" t="s">
-        <v>124</v>
+        <v>99</v>
       </c>
     </row>
     <row r="24" spans="2:12" x14ac:dyDescent="0.25">
       <c r="D24" s="28" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="E24" s="28" t="s">
-        <v>77</v>
+        <v>62</v>
       </c>
       <c r="F24" s="28"/>
       <c r="G24" s="28" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="H24" s="28" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="I24" s="28" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="J24" s="28" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="L24" s="24" t="s">
-        <v>125</v>
+        <v>100</v>
       </c>
     </row>
     <row r="25" spans="2:12" x14ac:dyDescent="0.25">
       <c r="D25" s="25" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="E25" s="25" t="s">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="F25" s="25"/>
       <c r="G25" s="25" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="H25" s="25" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="I25" s="25"/>
       <c r="J25" s="25"/>
       <c r="L25" s="24" t="s">
-        <v>126</v>
+        <v>101</v>
       </c>
     </row>
     <row r="26" spans="2:12" x14ac:dyDescent="0.25">
       <c r="D26" s="25" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="E26" s="25" t="s">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="F26" s="25"/>
       <c r="G26" s="25" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="H26" s="25" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="I26" s="25" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="J26" s="25"/>
     </row>
     <row r="27" spans="2:12" x14ac:dyDescent="0.25">
       <c r="D27" s="25" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="E27" s="25" t="s">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="F27" s="25"/>
       <c r="G27" s="25" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="H27" s="25" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="I27" s="25"/>
       <c r="J27" s="25"/>
@@ -1766,20 +1745,20 @@
         <v>35</v>
       </c>
       <c r="E28" s="25" t="s">
-        <v>73</v>
+        <v>58</v>
       </c>
       <c r="F28" s="8"/>
       <c r="G28" s="10" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="H28" s="10" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="I28" s="10" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="J28" s="10" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
     </row>
     <row r="29" spans="2:12" x14ac:dyDescent="0.25">
@@ -1789,20 +1768,20 @@
         <v>36</v>
       </c>
       <c r="E29" s="25" t="s">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="F29" s="8"/>
       <c r="G29" s="10" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="H29" s="10" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="I29" s="10" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="J29" s="10" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
     </row>
     <row r="30" spans="2:12" x14ac:dyDescent="0.25">
@@ -1812,20 +1791,20 @@
         <v>39</v>
       </c>
       <c r="E30" s="25" t="s">
-        <v>73</v>
+        <v>58</v>
       </c>
       <c r="F30" s="8"/>
       <c r="G30" s="10" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="H30" s="10" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="I30" s="10" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="J30" s="10" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
     </row>
     <row r="31" spans="2:12" x14ac:dyDescent="0.25">
@@ -1835,20 +1814,20 @@
         <v>40</v>
       </c>
       <c r="E31" s="25" t="s">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="F31" s="8"/>
       <c r="G31" s="10" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="H31" s="10" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="I31" s="10" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="J31" s="10" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
     </row>
     <row r="32" spans="2:12" x14ac:dyDescent="0.25">
@@ -1856,20 +1835,20 @@
         <v>37</v>
       </c>
       <c r="E32" s="25" t="s">
-        <v>73</v>
+        <v>58</v>
       </c>
       <c r="F32" s="8"/>
       <c r="G32" s="10" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="H32" s="10" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="I32" s="10" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="J32" s="10" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
     </row>
     <row r="33" spans="3:12" x14ac:dyDescent="0.25">
@@ -1877,173 +1856,173 @@
         <v>38</v>
       </c>
       <c r="E33" s="25" t="s">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="F33" s="8"/>
       <c r="G33" s="10" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="H33" s="10" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="I33" s="10" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="J33" s="10" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
     </row>
     <row r="37" spans="3:12" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C37" s="4" t="s">
-        <v>155</v>
+        <v>130</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>163</v>
+        <v>138</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>156</v>
+        <v>131</v>
       </c>
       <c r="F37" s="3"/>
       <c r="G37" s="11" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="H37" s="11" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="I37" s="11" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="J37" s="11" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="L37" s="24" t="s">
-        <v>164</v>
+        <v>139</v>
       </c>
     </row>
     <row r="38" spans="3:12" x14ac:dyDescent="0.25">
       <c r="D38" s="3" t="s">
-        <v>159</v>
+        <v>134</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>156</v>
+        <v>131</v>
       </c>
       <c r="F38" s="3"/>
       <c r="G38" s="11" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="H38" s="11" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="I38" s="11" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="J38" s="11" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="L38" s="24" t="s">
-        <v>162</v>
+        <v>137</v>
       </c>
     </row>
     <row r="39" spans="3:12" x14ac:dyDescent="0.25">
       <c r="D39" s="3" t="s">
-        <v>157</v>
+        <v>132</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="F39" s="3"/>
       <c r="G39" s="11" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="H39" s="11" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="I39" s="11" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="J39" s="11" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="L39" s="24" t="s">
-        <v>160</v>
+        <v>135</v>
       </c>
     </row>
     <row r="40" spans="3:12" x14ac:dyDescent="0.25">
       <c r="D40" s="3" t="s">
-        <v>158</v>
+        <v>133</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="F40" s="3"/>
       <c r="G40" s="11" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="H40" s="11" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="I40" s="11" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="J40" s="11" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="L40" s="24" t="s">
-        <v>161</v>
+        <v>136</v>
       </c>
     </row>
     <row r="43" spans="3:12" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C43" s="7" t="s">
-        <v>165</v>
+        <v>140</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>163</v>
+        <v>138</v>
       </c>
       <c r="E43" s="5" t="s">
-        <v>156</v>
+        <v>131</v>
       </c>
       <c r="F43" s="5"/>
       <c r="G43" s="12" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="H43" s="12" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="I43" s="12" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="J43" s="12" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="L43" s="24" t="s">
-        <v>164</v>
+        <v>139</v>
       </c>
     </row>
     <row r="44" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
-        <v>167</v>
+        <v>142</v>
       </c>
       <c r="D44" s="5" t="s">
         <v>25</v>
       </c>
       <c r="E44" s="5" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="F44" s="5"/>
       <c r="G44" s="12" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="H44" s="12" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="I44" s="12" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="J44" s="12" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="L44" s="24" t="s">
-        <v>127</v>
+        <v>102</v>
       </c>
     </row>
     <row r="45" spans="3:12" x14ac:dyDescent="0.25">
@@ -2051,23 +2030,23 @@
         <v>26</v>
       </c>
       <c r="E45" s="5" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="F45" s="5"/>
       <c r="G45" s="12" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="H45" s="12" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="I45" s="12" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="J45" s="12" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="L45" s="24" t="s">
-        <v>128</v>
+        <v>103</v>
       </c>
     </row>
     <row r="46" spans="3:12" x14ac:dyDescent="0.25">
@@ -2075,23 +2054,23 @@
         <v>27</v>
       </c>
       <c r="E46" s="5" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="F46" s="5"/>
       <c r="G46" s="12" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="H46" s="12" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="I46" s="12" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="J46" s="12" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="L46" s="24" t="s">
-        <v>130</v>
+        <v>105</v>
       </c>
     </row>
     <row r="47" spans="3:12" x14ac:dyDescent="0.25">
@@ -2099,23 +2078,23 @@
         <v>28</v>
       </c>
       <c r="E47" s="5" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="F47" s="5"/>
       <c r="G47" s="12" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="H47" s="12" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="I47" s="12" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="J47" s="12" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="L47" s="24" t="s">
-        <v>129</v>
+        <v>104</v>
       </c>
     </row>
     <row r="48" spans="3:12" x14ac:dyDescent="0.25">
@@ -2123,47 +2102,47 @@
         <v>29</v>
       </c>
       <c r="E48" s="5" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="F48" s="5"/>
       <c r="G48" s="12" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="H48" s="12" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="I48" s="12" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="J48" s="12" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="L48" s="24" t="s">
-        <v>134</v>
+        <v>109</v>
       </c>
     </row>
     <row r="49" spans="3:12" x14ac:dyDescent="0.25">
       <c r="D49" s="5" t="s">
-        <v>92</v>
+        <v>67</v>
       </c>
       <c r="E49" s="5" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="F49" s="5"/>
       <c r="G49" s="12" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="H49" s="12" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="I49" s="12" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="J49" s="12" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="L49" s="24" t="s">
-        <v>132</v>
+        <v>107</v>
       </c>
     </row>
     <row r="50" spans="3:12" x14ac:dyDescent="0.25">
@@ -2171,203 +2150,203 @@
         <v>30</v>
       </c>
       <c r="E50" s="5" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="F50" s="5"/>
       <c r="G50" s="12" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="H50" s="12" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="I50" s="12" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="J50" s="12" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="L50" s="24" t="s">
-        <v>135</v>
+        <v>110</v>
       </c>
     </row>
     <row r="51" spans="3:12" x14ac:dyDescent="0.25">
       <c r="D51" s="5" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="E51" s="5" t="s">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="F51" s="5"/>
       <c r="G51" s="12" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="H51" s="12" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="I51" s="12" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="J51" s="12" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="L51" s="24" t="s">
-        <v>133</v>
+        <v>108</v>
       </c>
     </row>
     <row r="52" spans="3:12" x14ac:dyDescent="0.25">
       <c r="D52" s="5" t="s">
-        <v>137</v>
+        <v>112</v>
       </c>
       <c r="E52" s="5" t="s">
-        <v>73</v>
+        <v>58</v>
       </c>
       <c r="F52" s="5"/>
       <c r="G52" s="5" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="H52" s="5" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="I52" s="5" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="J52" s="5" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="L52" s="24" t="s">
-        <v>142</v>
+        <v>117</v>
       </c>
     </row>
     <row r="53" spans="3:12" x14ac:dyDescent="0.25">
       <c r="D53" s="5" t="s">
-        <v>138</v>
+        <v>113</v>
       </c>
       <c r="E53" s="5" t="s">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="F53" s="5"/>
       <c r="G53" s="5" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="H53" s="5" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="I53" s="5" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="J53" s="5" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="L53" s="24" t="s">
-        <v>143</v>
+        <v>118</v>
       </c>
     </row>
     <row r="54" spans="3:12" x14ac:dyDescent="0.25">
       <c r="D54" s="5" t="s">
-        <v>139</v>
+        <v>114</v>
       </c>
       <c r="E54" s="5" t="s">
-        <v>73</v>
+        <v>58</v>
       </c>
       <c r="F54" s="5"/>
       <c r="G54" s="5" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="H54" s="5" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="I54" s="5" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="J54" s="5" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="L54" s="24" t="s">
-        <v>141</v>
+        <v>116</v>
       </c>
     </row>
     <row r="55" spans="3:12" x14ac:dyDescent="0.25">
       <c r="D55" s="5" t="s">
-        <v>140</v>
+        <v>115</v>
       </c>
       <c r="E55" s="5" t="s">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="F55" s="5"/>
       <c r="G55" s="5" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="H55" s="5" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="I55" s="5" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="J55" s="5" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="L55" s="24" t="s">
-        <v>136</v>
+        <v>111</v>
       </c>
     </row>
     <row r="59" spans="3:12" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C59" s="6" t="s">
-        <v>168</v>
+        <v>143</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>174</v>
+        <v>149</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>156</v>
+        <v>131</v>
       </c>
       <c r="F59" s="2"/>
       <c r="G59" s="13" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="H59" s="13" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="I59" s="13" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="J59" s="13" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="L59" s="24" t="s">
-        <v>164</v>
+        <v>139</v>
       </c>
     </row>
     <row r="60" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C60" t="s">
-        <v>167</v>
+        <v>142</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>175</v>
+        <v>150</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>156</v>
+        <v>131</v>
       </c>
       <c r="F60" s="2"/>
       <c r="G60" s="13" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="H60" s="13" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="I60" s="13"/>
       <c r="J60" s="13" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="L60" s="24" t="s">
-        <v>169</v>
+        <v>144</v>
       </c>
     </row>
     <row r="61" spans="3:12" x14ac:dyDescent="0.25">
       <c r="D61" s="2" t="s">
-        <v>172</v>
+        <v>147</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>77</v>
+        <v>62</v>
       </c>
       <c r="F61" s="2"/>
       <c r="G61" s="13"/>
@@ -2375,38 +2354,38 @@
       <c r="I61" s="13"/>
       <c r="J61" s="13"/>
       <c r="L61" s="24" t="s">
-        <v>176</v>
+        <v>151</v>
       </c>
     </row>
     <row r="62" spans="3:12" x14ac:dyDescent="0.25">
       <c r="D62" s="2" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="F62" s="2"/>
       <c r="G62" s="13"/>
       <c r="H62" s="13" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="I62" s="13"/>
       <c r="J62" s="13" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="L62" s="24" t="s">
-        <v>133</v>
+        <v>108</v>
       </c>
     </row>
     <row r="64" spans="3:12" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C64" s="6" t="s">
-        <v>166</v>
+        <v>141</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>170</v>
+        <v>145</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>156</v>
+        <v>131</v>
       </c>
       <c r="F64" s="2"/>
       <c r="G64" s="13"/>
@@ -2414,15 +2393,15 @@
       <c r="I64" s="13"/>
       <c r="J64" s="13"/>
       <c r="L64" s="24" t="s">
-        <v>170</v>
+        <v>145</v>
       </c>
     </row>
     <row r="65" spans="3:12" x14ac:dyDescent="0.25">
       <c r="D65" s="2" t="s">
-        <v>173</v>
+        <v>148</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>156</v>
+        <v>131</v>
       </c>
       <c r="F65" s="2"/>
       <c r="G65" s="13"/>
@@ -2430,15 +2409,15 @@
       <c r="I65" s="13"/>
       <c r="J65" s="13"/>
       <c r="L65" s="24" t="s">
-        <v>171</v>
+        <v>146</v>
       </c>
     </row>
     <row r="66" spans="3:12" x14ac:dyDescent="0.25">
       <c r="D66" s="2" t="s">
-        <v>178</v>
+        <v>153</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>156</v>
+        <v>131</v>
       </c>
       <c r="F66" s="2"/>
       <c r="G66" s="13"/>
@@ -2446,188 +2425,188 @@
       <c r="I66" s="13"/>
       <c r="J66" s="13"/>
       <c r="L66" s="24" t="s">
-        <v>177</v>
+        <v>152</v>
       </c>
     </row>
     <row r="69" spans="3:12" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C69" s="33" t="s">
-        <v>183</v>
+        <v>158</v>
       </c>
       <c r="D69" s="20" t="s">
-        <v>93</v>
+        <v>68</v>
       </c>
       <c r="E69" s="21"/>
       <c r="F69" s="21"/>
       <c r="G69" s="22" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="H69" s="22" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="I69" s="22"/>
       <c r="J69" s="22"/>
     </row>
     <row r="70" spans="3:12" x14ac:dyDescent="0.25">
       <c r="D70" s="20" t="s">
-        <v>94</v>
+        <v>69</v>
       </c>
       <c r="E70" s="21"/>
       <c r="F70" s="21"/>
       <c r="G70" s="22"/>
       <c r="H70" s="22" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="I70" s="22"/>
       <c r="J70" s="22" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
     </row>
     <row r="71" spans="3:12" x14ac:dyDescent="0.25">
       <c r="D71" s="20" t="s">
-        <v>95</v>
+        <v>70</v>
       </c>
       <c r="E71" s="21"/>
       <c r="F71" s="21"/>
       <c r="G71" s="22"/>
       <c r="H71" s="22" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="I71" s="22"/>
       <c r="J71" s="22"/>
     </row>
     <row r="72" spans="3:12" x14ac:dyDescent="0.25">
       <c r="D72" s="23" t="s">
-        <v>96</v>
+        <v>71</v>
       </c>
       <c r="E72" s="21"/>
       <c r="F72" s="21"/>
       <c r="G72" s="22"/>
       <c r="H72" s="22" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="I72" s="22"/>
       <c r="J72" s="22"/>
     </row>
     <row r="73" spans="3:12" x14ac:dyDescent="0.25">
       <c r="D73" s="23" t="s">
-        <v>97</v>
+        <v>72</v>
       </c>
       <c r="E73" s="21"/>
       <c r="F73" s="21"/>
       <c r="G73" s="22" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="H73" s="22" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="I73" s="22"/>
       <c r="J73" s="22"/>
     </row>
     <row r="74" spans="3:12" x14ac:dyDescent="0.25">
       <c r="D74" s="20" t="s">
-        <v>98</v>
+        <v>73</v>
       </c>
       <c r="E74" s="21"/>
       <c r="F74" s="21"/>
       <c r="G74" s="22" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="H74" s="22" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="I74" s="22"/>
       <c r="J74" s="22" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
     </row>
     <row r="75" spans="3:12" x14ac:dyDescent="0.25">
       <c r="D75" s="20" t="s">
-        <v>99</v>
+        <v>74</v>
       </c>
       <c r="E75" s="21"/>
       <c r="F75" s="21"/>
       <c r="G75" s="22"/>
       <c r="H75" s="22" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="I75" s="22"/>
       <c r="J75" s="22" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
     </row>
     <row r="76" spans="3:12" x14ac:dyDescent="0.25">
       <c r="D76" s="21" t="s">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="E76" s="21"/>
       <c r="F76" s="21"/>
       <c r="G76" s="22" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="H76" s="22" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="I76" s="22"/>
       <c r="J76" s="22" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
     </row>
     <row r="77" spans="3:12" x14ac:dyDescent="0.25">
       <c r="D77" s="21" t="s">
-        <v>101</v>
+        <v>76</v>
       </c>
       <c r="E77" s="21"/>
       <c r="F77" s="21"/>
       <c r="G77" s="22" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="H77" s="22" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="I77" s="22"/>
       <c r="J77" s="22"/>
     </row>
     <row r="78" spans="3:12" x14ac:dyDescent="0.25">
       <c r="D78" s="21" t="s">
-        <v>102</v>
+        <v>77</v>
       </c>
       <c r="E78" s="21"/>
       <c r="F78" s="21"/>
       <c r="G78" s="22" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="H78" s="22" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="I78" s="22" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="J78" s="22" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
     </row>
     <row r="79" spans="3:12" x14ac:dyDescent="0.25">
       <c r="D79" s="21" t="s">
-        <v>103</v>
+        <v>78</v>
       </c>
       <c r="E79" s="21"/>
       <c r="F79" s="21"/>
       <c r="G79" s="22" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="H79" s="22" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="I79" s="22" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="J79" s="22" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
     </row>
     <row r="80" spans="3:12" x14ac:dyDescent="0.25">
       <c r="D80" s="21" t="s">
-        <v>104</v>
+        <v>79</v>
       </c>
       <c r="E80" s="21"/>
       <c r="F80" s="21"/>
@@ -2635,12 +2614,12 @@
       <c r="H80" s="22"/>
       <c r="I80" s="22"/>
       <c r="J80" s="22" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
     </row>
     <row r="81" spans="4:17" x14ac:dyDescent="0.25">
       <c r="D81" s="21" t="s">
-        <v>105</v>
+        <v>80</v>
       </c>
       <c r="E81" s="21"/>
       <c r="F81" s="21"/>
@@ -2648,12 +2627,12 @@
       <c r="H81" s="22"/>
       <c r="I81" s="22"/>
       <c r="J81" s="22" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
     </row>
     <row r="82" spans="4:17" x14ac:dyDescent="0.25">
       <c r="D82" s="21" t="s">
-        <v>106</v>
+        <v>81</v>
       </c>
       <c r="E82" s="21"/>
       <c r="F82" s="21"/>
@@ -2661,12 +2640,12 @@
       <c r="H82" s="22"/>
       <c r="I82" s="22"/>
       <c r="J82" s="22" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
     </row>
     <row r="83" spans="4:17" x14ac:dyDescent="0.25">
       <c r="D83" s="21" t="s">
-        <v>107</v>
+        <v>82</v>
       </c>
       <c r="E83" s="21"/>
       <c r="F83" s="21"/>
@@ -2674,12 +2653,12 @@
       <c r="H83" s="22"/>
       <c r="I83" s="22"/>
       <c r="J83" s="22" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
     </row>
     <row r="84" spans="4:17" x14ac:dyDescent="0.25">
       <c r="D84" s="21" t="s">
-        <v>108</v>
+        <v>83</v>
       </c>
       <c r="E84" s="21"/>
       <c r="F84" s="21"/>
@@ -2687,12 +2666,12 @@
       <c r="H84" s="22"/>
       <c r="I84" s="22"/>
       <c r="J84" s="22" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
     </row>
     <row r="85" spans="4:17" x14ac:dyDescent="0.25">
       <c r="D85" s="21" t="s">
-        <v>109</v>
+        <v>84</v>
       </c>
       <c r="E85" s="21"/>
       <c r="F85" s="21"/>
@@ -2700,156 +2679,156 @@
       <c r="H85" s="22"/>
       <c r="I85" s="22"/>
       <c r="J85" s="22" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
     </row>
     <row r="86" spans="4:17" x14ac:dyDescent="0.25">
       <c r="D86" s="21" t="s">
-        <v>110</v>
+        <v>85</v>
       </c>
       <c r="E86" s="21" t="s">
-        <v>77</v>
+        <v>62</v>
       </c>
       <c r="F86" s="21"/>
       <c r="G86" s="22"/>
       <c r="H86" s="22"/>
       <c r="I86" s="22"/>
       <c r="J86" s="22" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
     </row>
     <row r="87" spans="4:17" x14ac:dyDescent="0.25">
       <c r="D87" s="21" t="s">
-        <v>111</v>
+        <v>86</v>
       </c>
       <c r="E87" s="21" t="s">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="F87" s="21"/>
       <c r="G87" s="22"/>
       <c r="H87" s="22"/>
       <c r="I87" s="22"/>
       <c r="J87" s="22" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
     </row>
     <row r="88" spans="4:17" x14ac:dyDescent="0.25">
       <c r="D88" s="21" t="s">
-        <v>112</v>
+        <v>87</v>
       </c>
       <c r="E88" s="21" t="s">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="F88" s="21"/>
       <c r="G88" s="22"/>
       <c r="H88" s="22"/>
       <c r="I88" s="22" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="J88" s="22"/>
     </row>
     <row r="89" spans="4:17" x14ac:dyDescent="0.25">
       <c r="D89" s="21" t="s">
-        <v>113</v>
+        <v>88</v>
       </c>
       <c r="E89" s="21" t="s">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="F89" s="21"/>
       <c r="G89" s="22"/>
       <c r="H89" s="22"/>
       <c r="I89" s="22" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="J89" s="22"/>
     </row>
     <row r="90" spans="4:17" x14ac:dyDescent="0.25">
       <c r="D90" s="21" t="s">
-        <v>114</v>
+        <v>89</v>
       </c>
       <c r="E90" s="21" t="s">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="F90" s="21"/>
       <c r="G90" s="22"/>
       <c r="H90" s="22"/>
       <c r="I90" s="22" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="J90" s="22"/>
     </row>
     <row r="91" spans="4:17" x14ac:dyDescent="0.25">
       <c r="D91" s="21" t="s">
-        <v>115</v>
+        <v>90</v>
       </c>
       <c r="E91" s="21" t="s">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="F91" s="21"/>
       <c r="G91" s="22"/>
       <c r="H91" s="22"/>
       <c r="I91" s="22" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="J91" s="22"/>
     </row>
     <row r="92" spans="4:17" x14ac:dyDescent="0.25">
       <c r="D92" s="21" t="s">
-        <v>116</v>
+        <v>91</v>
       </c>
       <c r="E92" s="21" t="s">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="F92" s="21"/>
       <c r="G92" s="22"/>
       <c r="H92" s="22"/>
       <c r="I92" s="22" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="J92" s="22"/>
     </row>
     <row r="93" spans="4:17" x14ac:dyDescent="0.25">
       <c r="D93" s="21" t="s">
-        <v>117</v>
+        <v>92</v>
       </c>
       <c r="E93" s="21" t="s">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="F93" s="21"/>
       <c r="G93" s="22"/>
       <c r="H93" s="22"/>
       <c r="I93" s="22" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="J93" s="22"/>
     </row>
     <row r="94" spans="4:17" x14ac:dyDescent="0.25">
       <c r="D94" s="21" t="s">
-        <v>118</v>
+        <v>93</v>
       </c>
       <c r="E94" s="21" t="s">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="F94" s="21"/>
       <c r="G94" s="22"/>
       <c r="H94" s="22"/>
       <c r="I94" s="22" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="J94" s="22"/>
     </row>
     <row r="95" spans="4:17" x14ac:dyDescent="0.25">
       <c r="D95" s="21" t="s">
-        <v>119</v>
+        <v>94</v>
       </c>
       <c r="E95" s="21" t="s">
-        <v>77</v>
+        <v>62</v>
       </c>
       <c r="F95" s="21"/>
       <c r="G95" s="22"/>
       <c r="H95" s="22"/>
       <c r="I95" s="22" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="J95" s="22"/>
       <c r="N95">
@@ -2869,53 +2848,53 @@
     </row>
     <row r="99" spans="3:12" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C99" s="6" t="s">
-        <v>182</v>
+        <v>157</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>170</v>
+        <v>145</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>156</v>
+        <v>131</v>
       </c>
       <c r="F99" s="2"/>
       <c r="G99" s="13" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="H99" s="13" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="I99" s="13" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="J99" s="13" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="L99" s="24" t="s">
-        <v>170</v>
+        <v>145</v>
       </c>
     </row>
     <row r="100" spans="3:12" x14ac:dyDescent="0.25">
       <c r="D100" s="2" t="s">
-        <v>173</v>
+        <v>148</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>156</v>
+        <v>131</v>
       </c>
       <c r="F100" s="2"/>
       <c r="G100" s="13" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="H100" s="13" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="I100" s="13" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="J100" s="13" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="L100" s="24" t="s">
-        <v>171</v>
+        <v>146</v>
       </c>
     </row>
   </sheetData>
@@ -2926,10 +2905,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34254B72-E725-42AE-AE7F-4C051E4E8C4A}">
-  <dimension ref="D5:O70"/>
+  <dimension ref="D5:O63"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2948,7 +2927,7 @@
   <sheetData>
     <row r="5" spans="4:15" ht="18.75" x14ac:dyDescent="0.3">
       <c r="D5" s="36" t="s">
-        <v>179</v>
+        <v>154</v>
       </c>
       <c r="E5" s="37"/>
       <c r="F5" s="37"/>
@@ -2957,28 +2936,28 @@
       <c r="I5" s="37"/>
       <c r="J5" s="37"/>
       <c r="M5" s="33" t="s">
-        <v>184</v>
+        <v>159</v>
       </c>
       <c r="N5" s="32"/>
       <c r="O5" s="32"/>
     </row>
     <row r="6" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D6" s="9" t="s">
-        <v>87</v>
+        <v>65</v>
       </c>
       <c r="E6" s="9"/>
       <c r="F6" s="9"/>
       <c r="G6" s="14" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="H6" s="14" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="I6" s="14" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="J6" s="14" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="M6" s="3" t="s">
         <v>21</v>
@@ -2990,259 +2969,259 @@
     </row>
     <row r="7" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D7" s="9" t="s">
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="E7" s="9"/>
       <c r="F7" s="9"/>
       <c r="G7" s="14" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="H7" s="14" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="I7" s="14" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="J7" s="14" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="M7" s="3" t="s">
-        <v>188</v>
+        <v>163</v>
       </c>
       <c r="N7" s="3" t="s">
-        <v>189</v>
+        <v>164</v>
       </c>
       <c r="O7" s="11"/>
     </row>
     <row r="8" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D8" s="9" t="s">
-        <v>81</v>
+        <v>177</v>
       </c>
       <c r="E8" s="9"/>
       <c r="F8" s="9"/>
       <c r="G8" s="14" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="H8" s="14" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="I8" s="14" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="J8" s="14"/>
       <c r="M8" s="3" t="s">
-        <v>190</v>
+        <v>165</v>
       </c>
       <c r="N8" s="3" t="s">
-        <v>191</v>
+        <v>166</v>
       </c>
       <c r="O8" s="11"/>
     </row>
     <row r="9" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D9" s="9" t="s">
-        <v>82</v>
+        <v>178</v>
       </c>
       <c r="E9" s="9"/>
       <c r="F9" s="9"/>
       <c r="G9" s="14" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="H9" s="14" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="I9" s="14" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="J9" s="14"/>
       <c r="M9" s="3" t="s">
-        <v>192</v>
+        <v>167</v>
       </c>
       <c r="N9" s="3" t="s">
-        <v>193</v>
+        <v>168</v>
       </c>
       <c r="O9" s="11"/>
     </row>
     <row r="10" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D10" s="9" t="s">
-        <v>83</v>
+        <v>179</v>
       </c>
       <c r="E10" s="9"/>
       <c r="F10" s="9"/>
       <c r="G10" s="14" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="H10" s="14" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="I10" s="14" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="J10" s="14"/>
       <c r="M10" s="3" t="s">
-        <v>185</v>
+        <v>160</v>
       </c>
       <c r="N10" s="3" t="s">
-        <v>187</v>
+        <v>162</v>
       </c>
       <c r="O10" s="11"/>
     </row>
     <row r="11" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D11" s="9" t="s">
-        <v>84</v>
+        <v>180</v>
       </c>
       <c r="E11" s="9"/>
       <c r="F11" s="9"/>
       <c r="G11" s="14" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="H11" s="14" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="I11" s="14" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="J11" s="14"/>
       <c r="M11" s="3" t="s">
-        <v>186</v>
+        <v>161</v>
       </c>
       <c r="N11" s="3" t="s">
-        <v>187</v>
+        <v>162</v>
       </c>
       <c r="O11" s="11"/>
     </row>
     <row r="12" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D12" s="9" t="s">
-        <v>88</v>
+        <v>181</v>
       </c>
       <c r="E12" s="9"/>
       <c r="F12" s="9"/>
       <c r="G12" s="14" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="H12" s="14" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="I12" s="14"/>
       <c r="J12" s="14"/>
     </row>
     <row r="13" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D13" s="9" t="s">
-        <v>89</v>
+        <v>182</v>
       </c>
       <c r="E13" s="9"/>
       <c r="F13" s="9"/>
       <c r="G13" s="14" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="H13" s="14" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="I13" s="14"/>
       <c r="J13" s="14"/>
     </row>
     <row r="14" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D14" s="9" t="s">
-        <v>91</v>
+        <v>66</v>
       </c>
       <c r="E14" s="9"/>
       <c r="F14" s="9"/>
       <c r="G14" s="14" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="H14" s="14" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="I14" s="14"/>
       <c r="J14" s="14"/>
     </row>
     <row r="15" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D15" s="9" t="s">
-        <v>90</v>
+        <v>183</v>
       </c>
       <c r="E15" s="9"/>
       <c r="F15" s="9"/>
       <c r="G15" s="14" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="H15" s="14" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="I15" s="14"/>
       <c r="J15" s="14"/>
     </row>
     <row r="16" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D16" s="9" t="s">
-        <v>86</v>
+        <v>184</v>
       </c>
       <c r="E16" s="9"/>
       <c r="F16" s="9"/>
       <c r="G16" s="14" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="H16" s="14" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="I16" s="14" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="J16" s="14" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
     </row>
     <row r="17" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D17" s="9" t="s">
-        <v>85</v>
+        <v>185</v>
       </c>
       <c r="E17" s="9"/>
       <c r="F17" s="9"/>
       <c r="G17" s="14" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="H17" s="14" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="I17" s="14" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="J17" s="14" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
     </row>
     <row r="18" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D18" s="9" t="s">
-        <v>79</v>
+        <v>64</v>
       </c>
       <c r="E18" s="9"/>
       <c r="F18" s="9"/>
       <c r="G18" s="14"/>
       <c r="H18" s="14" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="I18" s="14" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="J18" s="14" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
     </row>
     <row r="19" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D19" s="9" t="s">
-        <v>80</v>
+        <v>186</v>
       </c>
       <c r="E19" s="9"/>
       <c r="F19" s="9"/>
       <c r="G19" s="14"/>
       <c r="H19" s="14"/>
       <c r="I19" s="14" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="J19" s="14" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
     </row>
     <row r="24" spans="4:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="D24" s="35" t="s">
-        <v>180</v>
+        <v>155</v>
       </c>
       <c r="E24" s="21"/>
       <c r="F24" s="21"/>
@@ -3253,7 +3232,7 @@
     </row>
     <row r="25" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D25" s="34" t="s">
-        <v>41</v>
+        <v>169</v>
       </c>
       <c r="E25" s="34"/>
       <c r="F25" s="34"/>
@@ -3264,7 +3243,7 @@
     </row>
     <row r="26" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D26" s="34" t="s">
-        <v>44</v>
+        <v>171</v>
       </c>
       <c r="E26" s="34"/>
       <c r="F26" s="34"/>
@@ -3275,7 +3254,7 @@
     </row>
     <row r="27" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D27" s="34" t="s">
-        <v>42</v>
+        <v>172</v>
       </c>
       <c r="E27" s="34"/>
       <c r="F27" s="34"/>
@@ -3286,7 +3265,7 @@
     </row>
     <row r="28" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D28" s="34" t="s">
-        <v>45</v>
+        <v>173</v>
       </c>
       <c r="E28" s="34"/>
       <c r="F28" s="34"/>
@@ -3297,7 +3276,7 @@
     </row>
     <row r="29" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D29" s="34" t="s">
-        <v>62</v>
+        <v>174</v>
       </c>
       <c r="E29" s="34"/>
       <c r="F29" s="34"/>
@@ -3308,7 +3287,7 @@
     </row>
     <row r="30" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D30" s="34" t="s">
-        <v>63</v>
+        <v>175</v>
       </c>
       <c r="E30" s="34"/>
       <c r="F30" s="34"/>
@@ -3319,7 +3298,7 @@
     </row>
     <row r="31" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D31" s="34" t="s">
-        <v>64</v>
+        <v>176</v>
       </c>
       <c r="E31" s="34"/>
       <c r="F31" s="34"/>
@@ -3330,7 +3309,7 @@
     </row>
     <row r="32" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D32" s="34" t="s">
-        <v>65</v>
+        <v>170</v>
       </c>
       <c r="E32" s="34"/>
       <c r="F32" s="34"/>
@@ -3339,503 +3318,426 @@
       <c r="I32" s="34"/>
       <c r="J32" s="34"/>
     </row>
-    <row r="33" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D33" s="34" t="s">
-        <v>66</v>
-      </c>
-      <c r="E33" s="34"/>
-      <c r="F33" s="34"/>
-      <c r="G33" s="34"/>
-      <c r="H33" s="34"/>
-      <c r="I33" s="34"/>
-      <c r="J33" s="34"/>
-    </row>
-    <row r="34" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D34" s="34" t="s">
-        <v>67</v>
-      </c>
-      <c r="E34" s="34"/>
-      <c r="F34" s="34"/>
-      <c r="G34" s="34"/>
-      <c r="H34" s="34"/>
-      <c r="I34" s="34"/>
-      <c r="J34" s="34"/>
-    </row>
-    <row r="35" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D35" s="34" t="s">
+    <row r="35" spans="4:10" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="D35" s="33" t="s">
+        <v>156</v>
+      </c>
+      <c r="E35" s="32"/>
+      <c r="F35" s="32"/>
+      <c r="G35" s="32"/>
+      <c r="H35" s="32"/>
+      <c r="I35" s="32"/>
+      <c r="J35" s="32"/>
+    </row>
+    <row r="36" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D36" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="E35" s="34"/>
-      <c r="F35" s="34"/>
-      <c r="G35" s="34"/>
-      <c r="H35" s="34"/>
-      <c r="I35" s="34"/>
-      <c r="J35" s="34"/>
-    </row>
-    <row r="36" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D36" s="34" t="s">
+      <c r="E36" s="3"/>
+      <c r="F36" s="11"/>
+      <c r="G36" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="H36" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="I36" s="11"/>
+      <c r="J36" s="11"/>
+    </row>
+    <row r="37" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D37" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="E36" s="34"/>
-      <c r="F36" s="34"/>
-      <c r="G36" s="34"/>
-      <c r="H36" s="34"/>
-      <c r="I36" s="34"/>
-      <c r="J36" s="34"/>
-    </row>
-    <row r="37" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D37" s="34" t="s">
-        <v>59</v>
-      </c>
-      <c r="E37" s="34"/>
-      <c r="F37" s="34"/>
-      <c r="G37" s="34"/>
-      <c r="H37" s="34"/>
-      <c r="I37" s="34"/>
-      <c r="J37" s="34"/>
+      <c r="E37" s="3"/>
+      <c r="F37" s="11"/>
+      <c r="G37" s="11"/>
+      <c r="H37" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="I37" s="11"/>
+      <c r="J37" s="11" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="38" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D38" s="34" t="s">
-        <v>60</v>
-      </c>
-      <c r="E38" s="34"/>
-      <c r="F38" s="34"/>
-      <c r="G38" s="34"/>
-      <c r="H38" s="34"/>
-      <c r="I38" s="34"/>
-      <c r="J38" s="34"/>
+      <c r="D38" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E38" s="3"/>
+      <c r="F38" s="11"/>
+      <c r="G38" s="11"/>
+      <c r="H38" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="I38" s="11"/>
+      <c r="J38" s="11"/>
     </row>
     <row r="39" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D39" s="34" t="s">
-        <v>43</v>
-      </c>
-      <c r="E39" s="34"/>
-      <c r="F39" s="34"/>
-      <c r="G39" s="34"/>
-      <c r="H39" s="34"/>
-      <c r="I39" s="34"/>
-      <c r="J39" s="34"/>
-    </row>
-    <row r="42" spans="4:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D42" s="33" t="s">
-        <v>181</v>
-      </c>
-      <c r="E42" s="32"/>
-      <c r="F42" s="32"/>
-      <c r="G42" s="32"/>
-      <c r="H42" s="32"/>
-      <c r="I42" s="32"/>
-      <c r="J42" s="32"/>
+      <c r="D39" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="E39" s="3"/>
+      <c r="F39" s="11"/>
+      <c r="G39" s="11"/>
+      <c r="H39" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="I39" s="11"/>
+      <c r="J39" s="11"/>
+    </row>
+    <row r="40" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D40" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="E40" s="3"/>
+      <c r="F40" s="11"/>
+      <c r="G40" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="H40" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="I40" s="11"/>
+      <c r="J40" s="11"/>
+    </row>
+    <row r="41" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D41" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="E41" s="3"/>
+      <c r="F41" s="11"/>
+      <c r="G41" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="H41" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="I41" s="11"/>
+      <c r="J41" s="11" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="42" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D42" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="E42" s="3"/>
+      <c r="F42" s="11"/>
+      <c r="G42" s="11"/>
+      <c r="H42" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="I42" s="11"/>
+      <c r="J42" s="11" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="43" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D43" s="3" t="s">
-        <v>93</v>
+        <v>75</v>
       </c>
       <c r="E43" s="3"/>
       <c r="F43" s="11"/>
       <c r="G43" s="11" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="H43" s="11" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="I43" s="11"/>
-      <c r="J43" s="11"/>
+      <c r="J43" s="11" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="44" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D44" s="3" t="s">
-        <v>94</v>
+        <v>76</v>
       </c>
       <c r="E44" s="3"/>
       <c r="F44" s="11"/>
-      <c r="G44" s="11"/>
+      <c r="G44" s="11" t="s">
+        <v>50</v>
+      </c>
       <c r="H44" s="11" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="I44" s="11"/>
-      <c r="J44" s="11" t="s">
-        <v>61</v>
-      </c>
+      <c r="J44" s="11"/>
     </row>
     <row r="45" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D45" s="3" t="s">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="E45" s="3"/>
       <c r="F45" s="11"/>
-      <c r="G45" s="11"/>
+      <c r="G45" s="11" t="s">
+        <v>50</v>
+      </c>
       <c r="H45" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="I45" s="11"/>
-      <c r="J45" s="11"/>
+        <v>51</v>
+      </c>
+      <c r="I45" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="J45" s="11" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="46" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D46" s="3" t="s">
-        <v>96</v>
+        <v>78</v>
       </c>
       <c r="E46" s="3"/>
       <c r="F46" s="11"/>
-      <c r="G46" s="11"/>
+      <c r="G46" s="11" t="s">
+        <v>50</v>
+      </c>
       <c r="H46" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="I46" s="11"/>
-      <c r="J46" s="11"/>
+        <v>51</v>
+      </c>
+      <c r="I46" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="J46" s="11" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="47" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D47" s="3" t="s">
-        <v>97</v>
+        <v>79</v>
       </c>
       <c r="E47" s="3"/>
       <c r="F47" s="11"/>
-      <c r="G47" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="H47" s="11" t="s">
-        <v>56</v>
-      </c>
+      <c r="G47" s="11"/>
+      <c r="H47" s="11"/>
       <c r="I47" s="11"/>
-      <c r="J47" s="11"/>
+      <c r="J47" s="11" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="48" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D48" s="3" t="s">
-        <v>98</v>
+        <v>80</v>
       </c>
       <c r="E48" s="3"/>
       <c r="F48" s="11"/>
-      <c r="G48" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="H48" s="11" t="s">
-        <v>56</v>
-      </c>
+      <c r="G48" s="11"/>
+      <c r="H48" s="11"/>
       <c r="I48" s="11"/>
       <c r="J48" s="11" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
     </row>
     <row r="49" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D49" s="3" t="s">
-        <v>99</v>
+        <v>81</v>
       </c>
       <c r="E49" s="3"/>
       <c r="F49" s="11"/>
       <c r="G49" s="11"/>
-      <c r="H49" s="11" t="s">
-        <v>56</v>
-      </c>
+      <c r="H49" s="11"/>
       <c r="I49" s="11"/>
       <c r="J49" s="11" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
     </row>
     <row r="50" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D50" s="3" t="s">
-        <v>100</v>
+        <v>82</v>
       </c>
       <c r="E50" s="3"/>
       <c r="F50" s="11"/>
-      <c r="G50" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="H50" s="11" t="s">
-        <v>56</v>
-      </c>
+      <c r="G50" s="11"/>
+      <c r="H50" s="11"/>
       <c r="I50" s="11"/>
       <c r="J50" s="11" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
     </row>
     <row r="51" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D51" s="3" t="s">
-        <v>101</v>
+        <v>83</v>
       </c>
       <c r="E51" s="3"/>
       <c r="F51" s="11"/>
-      <c r="G51" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="H51" s="11" t="s">
-        <v>56</v>
-      </c>
+      <c r="G51" s="11"/>
+      <c r="H51" s="11"/>
       <c r="I51" s="11"/>
-      <c r="J51" s="11"/>
+      <c r="J51" s="11" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="52" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D52" s="3" t="s">
-        <v>102</v>
+        <v>84</v>
       </c>
       <c r="E52" s="3"/>
       <c r="F52" s="11"/>
-      <c r="G52" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="H52" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="I52" s="11" t="s">
-        <v>58</v>
-      </c>
+      <c r="G52" s="11"/>
+      <c r="H52" s="11"/>
+      <c r="I52" s="11"/>
       <c r="J52" s="11" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
     </row>
     <row r="53" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D53" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="E53" s="3"/>
+        <v>85</v>
+      </c>
+      <c r="E53" s="3" t="s">
+        <v>62</v>
+      </c>
       <c r="F53" s="11"/>
-      <c r="G53" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="H53" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="I53" s="11" t="s">
-        <v>58</v>
-      </c>
+      <c r="G53" s="11"/>
+      <c r="H53" s="11"/>
+      <c r="I53" s="11"/>
       <c r="J53" s="11" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
     </row>
     <row r="54" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D54" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="E54" s="3"/>
+        <v>86</v>
+      </c>
+      <c r="E54" s="3" t="s">
+        <v>56</v>
+      </c>
       <c r="F54" s="11"/>
       <c r="G54" s="11"/>
       <c r="H54" s="11"/>
       <c r="I54" s="11"/>
       <c r="J54" s="11" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
     </row>
     <row r="55" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D55" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="E55" s="3"/>
+        <v>87</v>
+      </c>
+      <c r="E55" s="3" t="s">
+        <v>56</v>
+      </c>
       <c r="F55" s="11"/>
       <c r="G55" s="11"/>
       <c r="H55" s="11"/>
-      <c r="I55" s="11"/>
-      <c r="J55" s="11" t="s">
-        <v>61</v>
-      </c>
+      <c r="I55" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="J55" s="11"/>
     </row>
     <row r="56" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D56" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="E56" s="3"/>
+        <v>88</v>
+      </c>
+      <c r="E56" s="3" t="s">
+        <v>56</v>
+      </c>
       <c r="F56" s="11"/>
       <c r="G56" s="11"/>
       <c r="H56" s="11"/>
-      <c r="I56" s="11"/>
-      <c r="J56" s="11" t="s">
-        <v>61</v>
-      </c>
+      <c r="I56" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="J56" s="11"/>
     </row>
     <row r="57" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D57" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="E57" s="3"/>
+        <v>89</v>
+      </c>
+      <c r="E57" s="3" t="s">
+        <v>56</v>
+      </c>
       <c r="F57" s="11"/>
       <c r="G57" s="11"/>
       <c r="H57" s="11"/>
-      <c r="I57" s="11"/>
-      <c r="J57" s="11" t="s">
-        <v>61</v>
-      </c>
+      <c r="I57" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="J57" s="11"/>
     </row>
     <row r="58" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D58" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="E58" s="3"/>
+        <v>90</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>56</v>
+      </c>
       <c r="F58" s="11"/>
       <c r="G58" s="11"/>
       <c r="H58" s="11"/>
-      <c r="I58" s="11"/>
-      <c r="J58" s="11" t="s">
-        <v>61</v>
-      </c>
+      <c r="I58" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="J58" s="11"/>
     </row>
     <row r="59" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D59" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="E59" s="3"/>
+        <v>91</v>
+      </c>
+      <c r="E59" s="3" t="s">
+        <v>56</v>
+      </c>
       <c r="F59" s="11"/>
       <c r="G59" s="11"/>
       <c r="H59" s="11"/>
-      <c r="I59" s="11"/>
-      <c r="J59" s="11" t="s">
-        <v>61</v>
-      </c>
+      <c r="I59" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="J59" s="11"/>
     </row>
     <row r="60" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D60" s="3" t="s">
-        <v>110</v>
+        <v>92</v>
       </c>
       <c r="E60" s="3" t="s">
-        <v>77</v>
+        <v>56</v>
       </c>
       <c r="F60" s="11"/>
       <c r="G60" s="11"/>
       <c r="H60" s="11"/>
-      <c r="I60" s="11"/>
-      <c r="J60" s="11" t="s">
-        <v>61</v>
-      </c>
+      <c r="I60" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="J60" s="11"/>
     </row>
     <row r="61" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D61" s="3" t="s">
-        <v>111</v>
+        <v>93</v>
       </c>
       <c r="E61" s="3" t="s">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="F61" s="11"/>
       <c r="G61" s="11"/>
       <c r="H61" s="11"/>
-      <c r="I61" s="11"/>
-      <c r="J61" s="11" t="s">
-        <v>61</v>
-      </c>
+      <c r="I61" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="J61" s="11"/>
     </row>
     <row r="62" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D62" s="3" t="s">
-        <v>112</v>
+        <v>94</v>
       </c>
       <c r="E62" s="3" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="F62" s="11"/>
       <c r="G62" s="11"/>
       <c r="H62" s="11"/>
       <c r="I62" s="11" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="J62" s="11"/>
     </row>
     <row r="63" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D63" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="E63" s="3" t="s">
-        <v>71</v>
-      </c>
+      <c r="D63" s="3"/>
+      <c r="E63" s="3"/>
       <c r="F63" s="11"/>
       <c r="G63" s="11"/>
       <c r="H63" s="11"/>
-      <c r="I63" s="11" t="s">
-        <v>58</v>
-      </c>
+      <c r="I63" s="11"/>
       <c r="J63" s="11"/>
-    </row>
-    <row r="64" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D64" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="E64" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="F64" s="11"/>
-      <c r="G64" s="11"/>
-      <c r="H64" s="11"/>
-      <c r="I64" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="J64" s="11"/>
-    </row>
-    <row r="65" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D65" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="E65" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="F65" s="11"/>
-      <c r="G65" s="11"/>
-      <c r="H65" s="11"/>
-      <c r="I65" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="J65" s="11"/>
-    </row>
-    <row r="66" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D66" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="E66" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="F66" s="11"/>
-      <c r="G66" s="11"/>
-      <c r="H66" s="11"/>
-      <c r="I66" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="J66" s="11"/>
-    </row>
-    <row r="67" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D67" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="E67" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="F67" s="11"/>
-      <c r="G67" s="11"/>
-      <c r="H67" s="11"/>
-      <c r="I67" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="J67" s="11"/>
-    </row>
-    <row r="68" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D68" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="E68" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="F68" s="11"/>
-      <c r="G68" s="11"/>
-      <c r="H68" s="11"/>
-      <c r="I68" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="J68" s="11"/>
-    </row>
-    <row r="69" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D69" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="E69" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="F69" s="11"/>
-      <c r="G69" s="11"/>
-      <c r="H69" s="11"/>
-      <c r="I69" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="J69" s="11"/>
-    </row>
-    <row r="70" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D70" s="3"/>
-      <c r="E70" s="3"/>
-      <c r="F70" s="11"/>
-      <c r="G70" s="11"/>
-      <c r="H70" s="11"/>
-      <c r="I70" s="11"/>
-      <c r="J70" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Doc/project.xlsx
+++ b/Doc/project.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\vs\WebApp\ASP.NET_Core\MwProject\Doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94A1A2A4-5ECE-42D8-A03B-7EE55CA4F861}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C6218D1-AA5A-4722-9640-7CBCBBD41B0C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="585" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="585" uniqueCount="188">
   <si>
     <t xml:space="preserve">Temat projektu </t>
   </si>
@@ -597,6 +597,9 @@
   </si>
   <si>
     <t>Zagrożenia BHP i Środowisko:</t>
+  </si>
+  <si>
+    <t>inne</t>
   </si>
 </sst>
 </file>
@@ -1272,8 +1275,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="B7:Q100"/>
   <sheetViews>
-    <sheetView topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="E103" sqref="E103"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="D69" sqref="D69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2907,8 +2910,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34254B72-E725-42AE-AE7F-4C051E4E8C4A}">
   <dimension ref="D5:O63"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E71" sqref="E71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3483,25 +3486,6 @@
         <v>54</v>
       </c>
     </row>
-    <row r="46" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D46" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="E46" s="3"/>
-      <c r="F46" s="11"/>
-      <c r="G46" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="H46" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="I46" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="J46" s="11" t="s">
-        <v>54</v>
-      </c>
-    </row>
     <row r="47" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D47" s="3" t="s">
         <v>79</v>
@@ -3731,13 +3715,23 @@
       <c r="J62" s="11"/>
     </row>
     <row r="63" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D63" s="3"/>
+      <c r="D63" s="3" t="s">
+        <v>187</v>
+      </c>
       <c r="E63" s="3"/>
       <c r="F63" s="11"/>
-      <c r="G63" s="11"/>
-      <c r="H63" s="11"/>
-      <c r="I63" s="11"/>
-      <c r="J63" s="11"/>
+      <c r="G63" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="H63" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="I63" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="J63" s="11" t="s">
+        <v>54</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
